--- a/Schlagdifferentialgleichung/Programme/excelDir/CharactExponentenMultiplikatoren_ebeta0dot000_mu0_mu10_Auswahl1.xlsx
+++ b/Schlagdifferentialgleichung/Programme/excelDir/CharactExponentenMultiplikatoren_ebeta0dot000_mu0_mu10_Auswahl1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+  <si>
+    <t>muChar</t>
+  </si>
+  <si>
+    <t>RealCharExp01</t>
+  </si>
+  <si>
+    <t>RealCharExp02</t>
+  </si>
+  <si>
+    <t>RealCharExp03</t>
+  </si>
+  <si>
+    <t>RealCharExp04</t>
+  </si>
+  <si>
+    <t>RealCharExp05</t>
+  </si>
+  <si>
+    <t>RealCharExp06</t>
+  </si>
+  <si>
+    <t>ImagCharExp01</t>
+  </si>
+  <si>
+    <t>ImagCharExp02</t>
+  </si>
+  <si>
+    <t>ImagCharExp03</t>
+  </si>
+  <si>
+    <t>ImagCharExp04</t>
+  </si>
+  <si>
+    <t>ImagCharExp05</t>
+  </si>
+  <si>
+    <t>ImagCharExp06</t>
+  </si>
+  <si>
+    <t>RealCharMult01</t>
+  </si>
+  <si>
+    <t>RealCharMult02</t>
+  </si>
+  <si>
+    <t>RealCharMult03</t>
+  </si>
+  <si>
+    <t>RealCharMult04</t>
+  </si>
+  <si>
+    <t>RealCharMult05</t>
+  </si>
+  <si>
+    <t>RealCharMult06</t>
+  </si>
+  <si>
+    <t>ImagCharMult01</t>
+  </si>
+  <si>
+    <t>ImagCharMult02</t>
+  </si>
+  <si>
+    <t>ImagCharMult03</t>
+  </si>
+  <si>
+    <t>ImagCharMult04</t>
+  </si>
+  <si>
+    <t>ImagCharMult05</t>
+  </si>
+  <si>
+    <t>ImagCharMult06</t>
+  </si>
+  <si>
+    <t>RealCharExp1Corrected</t>
+  </si>
+  <si>
+    <t>ImagCharExp1Corrected</t>
+  </si>
+  <si>
+    <t>RealCharExp2Corrected</t>
+  </si>
+  <si>
+    <t>ImagCharExp2Corrected</t>
+  </si>
   <si>
     <t>muChar</t>
   </si>
@@ -105,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -151,124 +238,124 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="true"/>
-    <col min="2" max="2" width="14.5546875" customWidth="true"/>
-    <col min="3" max="3" width="14.5546875" customWidth="true"/>
-    <col min="4" max="4" width="14.5546875" customWidth="true"/>
-    <col min="5" max="5" width="13.21875" customWidth="true"/>
-    <col min="6" max="6" width="13.21875" customWidth="true"/>
-    <col min="7" max="7" width="13.21875" customWidth="true"/>
-    <col min="8" max="8" width="15.88671875" customWidth="true"/>
-    <col min="9" max="9" width="15.88671875" customWidth="true"/>
-    <col min="10" max="10" width="15.88671875" customWidth="true"/>
-    <col min="11" max="11" width="16.21875" customWidth="true"/>
-    <col min="12" max="12" width="15.88671875" customWidth="true"/>
-    <col min="13" max="13" width="15.88671875" customWidth="true"/>
-    <col min="14" max="14" width="15.88671875" customWidth="true"/>
-    <col min="15" max="15" width="15.88671875" customWidth="true"/>
-    <col min="16" max="16" width="15.88671875" customWidth="true"/>
-    <col min="17" max="17" width="15.88671875" customWidth="true"/>
-    <col min="18" max="18" width="15.88671875" customWidth="true"/>
-    <col min="19" max="19" width="15.88671875" customWidth="true"/>
-    <col min="20" max="20" width="15.88671875" customWidth="true"/>
-    <col min="21" max="21" width="15.88671875" customWidth="true"/>
-    <col min="22" max="22" width="15.21875" customWidth="true"/>
-    <col min="23" max="23" width="15.88671875" customWidth="true"/>
-    <col min="24" max="24" width="16.21875" customWidth="true"/>
-    <col min="25" max="25" width="15.5546875" customWidth="true"/>
-    <col min="26" max="26" width="20.33203125" customWidth="true"/>
-    <col min="27" max="27" width="20.77734375" customWidth="true"/>
-    <col min="28" max="28" width="20.33203125" customWidth="true"/>
-    <col min="29" max="29" width="20.77734375" customWidth="true"/>
+    <col min="1" max="1" width="7.48828125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="13.37890625" customWidth="true"/>
+    <col min="7" max="7" width="13.37890625" customWidth="true"/>
+    <col min="8" max="8" width="16.046875" customWidth="true"/>
+    <col min="9" max="9" width="16.046875" customWidth="true"/>
+    <col min="10" max="10" width="16.046875" customWidth="true"/>
+    <col min="11" max="11" width="16.37890625" customWidth="true"/>
+    <col min="12" max="12" width="16.046875" customWidth="true"/>
+    <col min="13" max="13" width="16.046875" customWidth="true"/>
+    <col min="14" max="14" width="16.046875" customWidth="true"/>
+    <col min="15" max="15" width="16.046875" customWidth="true"/>
+    <col min="16" max="16" width="16.046875" customWidth="true"/>
+    <col min="17" max="17" width="16.046875" customWidth="true"/>
+    <col min="18" max="18" width="16.046875" customWidth="true"/>
+    <col min="19" max="19" width="16.046875" customWidth="true"/>
+    <col min="20" max="20" width="16.046875" customWidth="true"/>
+    <col min="21" max="21" width="16.046875" customWidth="true"/>
+    <col min="22" max="22" width="15.37890625" customWidth="true"/>
+    <col min="23" max="23" width="16.046875" customWidth="true"/>
+    <col min="24" max="24" width="16.37890625" customWidth="true"/>
+    <col min="25" max="25" width="15.7109375" customWidth="true"/>
+    <col min="26" max="26" width="20.48828125" customWidth="true"/>
+    <col min="27" max="27" width="20.93359375" customWidth="true"/>
+    <col min="28" max="28" width="20.48828125" customWidth="true"/>
+    <col min="29" max="29" width="20.93359375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -294,10 +381,10 @@
         <v>-0.32325042726113212</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.053686541744494124</v>
+        <v>-0.053686541744494123</v>
       </c>
       <c r="I2" s="0">
-        <v>0.053686541744494124</v>
+        <v>0.053686541744494123</v>
       </c>
       <c r="J2" s="0">
         <v>-0.053686541744495185</v>
@@ -336,10 +423,10 @@
         <v>0.043421739151627274</v>
       </c>
       <c r="V2" s="0">
-        <v>-0.04342173915162826</v>
+        <v>-0.043421739151628259</v>
       </c>
       <c r="W2" s="0">
-        <v>0.04342173915162826</v>
+        <v>0.043421739151628259</v>
       </c>
       <c r="X2" s="0">
         <v>-0.043421739151627961</v>
@@ -365,22 +452,22 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.32325042726113368</v>
+        <v>-0.32325042726113373</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.32325042726113368</v>
+        <v>-0.32325042726113373</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.32325042726113335</v>
+        <v>-0.32325042726113323</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.32325042726113335</v>
+        <v>-0.32325042726113323</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.32325042726113307</v>
+        <v>-0.32325042726113296</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.32325042726113307</v>
+        <v>-0.32325042726113296</v>
       </c>
       <c r="H3" s="0">
         <v>-0.054440984749982005</v>
@@ -389,64 +476,64 @@
         <v>0.054440984749982005</v>
       </c>
       <c r="J3" s="0">
-        <v>-0.054440984749982255</v>
+        <v>-0.054440984749982171</v>
       </c>
       <c r="K3" s="0">
-        <v>0.054440984749982255</v>
+        <v>0.054440984749982171</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.054440984749982373</v>
+        <v>-0.054440984749982428</v>
       </c>
       <c r="M3" s="0">
-        <v>0.054440984749982373</v>
+        <v>0.054440984749982428</v>
       </c>
       <c r="N3" s="0">
-        <v>0.12359766683206622</v>
+        <v>0.12359766683206616</v>
       </c>
       <c r="O3" s="0">
-        <v>0.12359766683206622</v>
+        <v>0.12359766683206616</v>
       </c>
       <c r="P3" s="0">
-        <v>0.12359766683206644</v>
+        <v>0.12359766683206649</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.12359766683206644</v>
+        <v>0.12359766683206649</v>
       </c>
       <c r="R3" s="0">
-        <v>0.12359766683206661</v>
+        <v>0.12359766683206663</v>
       </c>
       <c r="S3" s="0">
-        <v>0.12359766683206661</v>
+        <v>0.12359766683206663</v>
       </c>
       <c r="T3" s="0">
-        <v>-0.04400812206228457</v>
+        <v>-0.044008122062284549</v>
       </c>
       <c r="U3" s="0">
-        <v>0.04400812206228457</v>
+        <v>0.044008122062284549</v>
       </c>
       <c r="V3" s="0">
-        <v>-0.044008122062284869</v>
+        <v>-0.044008122062284813</v>
       </c>
       <c r="W3" s="0">
-        <v>0.044008122062284869</v>
+        <v>0.044008122062284813</v>
       </c>
       <c r="X3" s="0">
-        <v>-0.044008122062285035</v>
+        <v>-0.04400812206228509</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.044008122062285035</v>
+        <v>0.04400812206228509</v>
       </c>
       <c r="Z3" s="0">
-        <v>-0.32325042726113346</v>
+        <v>-0.32325042726113357</v>
       </c>
       <c r="AA3" s="0">
-        <v>-1.0544409847499823</v>
+        <v>-1.0544409847499825</v>
       </c>
       <c r="AB3" s="0">
-        <v>-0.32325042726113335</v>
+        <v>-0.32325042726113323</v>
       </c>
       <c r="AC3" s="0">
-        <v>1.0544409847499823</v>
+        <v>1.0544409847499825</v>
       </c>
     </row>
     <row r="4">
@@ -454,52 +541,52 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.32325042726113401</v>
+        <v>-0.3232504272611339</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.32325042726113401</v>
+        <v>-0.3232504272611339</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.32325042726113351</v>
+        <v>-0.32325042726113362</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.32325042726113351</v>
+        <v>-0.32325042726113362</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.32325042726113312</v>
+        <v>-0.32325042726113318</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.32325042726113312</v>
+        <v>-0.32325042726113318</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.056258431832230178</v>
+        <v>-0.056258431832230137</v>
       </c>
       <c r="I4" s="0">
-        <v>0.056258431832230178</v>
+        <v>0.056258431832230137</v>
       </c>
       <c r="J4" s="0">
+        <v>-0.056258431832230303</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0.056258431832230303</v>
+      </c>
+      <c r="L4" s="0">
         <v>-0.056258431832230248</v>
       </c>
-      <c r="K4" s="0">
+      <c r="M4" s="0">
         <v>0.056258431832230248</v>
       </c>
-      <c r="L4" s="0">
-        <v>-0.056258431832230324</v>
-      </c>
-      <c r="M4" s="0">
-        <v>0.056258431832230324</v>
-      </c>
       <c r="N4" s="0">
-        <v>0.12308707472004127</v>
+        <v>0.12308707472004138</v>
       </c>
       <c r="O4" s="0">
-        <v>0.12308707472004127</v>
+        <v>0.12308707472004138</v>
       </c>
       <c r="P4" s="0">
-        <v>0.12308707472004163</v>
+        <v>0.12308707472004154</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.12308707472004163</v>
+        <v>0.12308707472004154</v>
       </c>
       <c r="R4" s="0">
         <v>0.12308707472004191</v>
@@ -514,25 +601,25 @@
         <v>0.045416627909195158</v>
       </c>
       <c r="V4" s="0">
-        <v>-0.045416627909195352</v>
+        <v>-0.045416627909195373</v>
       </c>
       <c r="W4" s="0">
-        <v>0.045416627909195352</v>
+        <v>0.045416627909195373</v>
       </c>
       <c r="X4" s="0">
-        <v>-0.045416627909195519</v>
+        <v>-0.045416627909195456</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.045416627909195519</v>
+        <v>0.045416627909195456</v>
       </c>
       <c r="Z4" s="0">
-        <v>-0.32325042726113329</v>
+        <v>-0.32325042726113318</v>
       </c>
       <c r="AA4" s="0">
         <v>-1.0562584318322303</v>
       </c>
       <c r="AB4" s="0">
-        <v>-0.32325042726113351</v>
+        <v>-0.32325042726113362</v>
       </c>
       <c r="AC4" s="0">
         <v>1.0562584318322303</v>
@@ -540,13 +627,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.30000000000000005</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.32325042726113446</v>
+        <v>-0.32325042726113451</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.32325042726113446</v>
+        <v>-0.32325042726113451</v>
       </c>
       <c r="D5" s="0">
         <v>-0.32325042726113362</v>
@@ -555,64 +642,64 @@
         <v>-0.32325042726113362</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.3232504272611334</v>
+        <v>-0.32325042726113323</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.3232504272611334</v>
+        <v>-0.32325042726113323</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.057918322004722009</v>
+        <v>-0.057918322004721925</v>
       </c>
       <c r="I5" s="0">
-        <v>0.057918322004722009</v>
+        <v>0.057918322004721925</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.057918322004722023</v>
+        <v>-0.057918322004721988</v>
       </c>
       <c r="K5" s="0">
-        <v>0.057918322004722023</v>
+        <v>0.057918322004721988</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.057918322004721343</v>
+        <v>-0.057918322004721273</v>
       </c>
       <c r="M5" s="0">
-        <v>0.057918322004721343</v>
+        <v>0.057918322004721273</v>
       </c>
       <c r="N5" s="0">
-        <v>0.12260672106598025</v>
+        <v>0.12260672106598021</v>
       </c>
       <c r="O5" s="0">
-        <v>0.12260672106598025</v>
+        <v>0.12260672106598021</v>
       </c>
       <c r="P5" s="0">
-        <v>0.12260672106598092</v>
+        <v>0.1226067210659809</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.12260672106598092</v>
+        <v>0.1226067210659809</v>
       </c>
       <c r="R5" s="0">
-        <v>0.12260672106598125</v>
+        <v>0.12260672106598139</v>
       </c>
       <c r="S5" s="0">
-        <v>0.12260672106598125</v>
+        <v>0.12260672106598139</v>
       </c>
       <c r="T5" s="0">
-        <v>-0.046697858657845613</v>
+        <v>-0.046697858657845523</v>
       </c>
       <c r="U5" s="0">
-        <v>0.046697858657845613</v>
+        <v>0.046697858657845523</v>
       </c>
       <c r="V5" s="0">
-        <v>-0.046697858657845884</v>
+        <v>-0.046697858657845842</v>
       </c>
       <c r="W5" s="0">
-        <v>0.046697858657845884</v>
+        <v>0.046697858657845842</v>
       </c>
       <c r="X5" s="0">
-        <v>-0.046697858657845412</v>
+        <v>-0.046697858657845405</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.046697858657845412</v>
+        <v>0.046697858657845405</v>
       </c>
       <c r="Z5" s="0">
         <v>-0.32325042726113318</v>
@@ -632,10 +719,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.32325042726113368</v>
+        <v>-0.32325042726113384</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.32325042726113368</v>
+        <v>-0.32325042726113384</v>
       </c>
       <c r="D6" s="0">
         <v>-0.32325042726113323</v>
@@ -644,16 +731,16 @@
         <v>-0.32325042726113323</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.32325042726113296</v>
+        <v>-0.32325042726113312</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.32325042726113296</v>
+        <v>-0.32325042726113312</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.057548816284477514</v>
+        <v>-0.057548816284477423</v>
       </c>
       <c r="I6" s="0">
-        <v>0.057548816284477514</v>
+        <v>0.057548816284477423</v>
       </c>
       <c r="J6" s="0">
         <v>-0.057548816284477798</v>
@@ -662,16 +749,16 @@
         <v>0.057548816284477798</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.057548816284478686</v>
+        <v>-0.057548816284478714</v>
       </c>
       <c r="M6" s="0">
-        <v>0.057548816284478686</v>
+        <v>0.057548816284478714</v>
       </c>
       <c r="N6" s="0">
-        <v>0.12271480768700747</v>
+        <v>0.12271480768700738</v>
       </c>
       <c r="O6" s="0">
-        <v>0.12271480768700747</v>
+        <v>0.12271480768700738</v>
       </c>
       <c r="P6" s="0">
         <v>0.12271480768700774</v>
@@ -680,28 +767,28 @@
         <v>0.12271480768700774</v>
       </c>
       <c r="R6" s="0">
-        <v>0.12271480768700771</v>
+        <v>0.12271480768700757</v>
       </c>
       <c r="S6" s="0">
-        <v>0.12271480768700771</v>
+        <v>0.12271480768700757</v>
       </c>
       <c r="T6" s="0">
-        <v>-0.046413080355866831</v>
+        <v>-0.04641308035586672</v>
       </c>
       <c r="U6" s="0">
-        <v>0.046413080355866831</v>
+        <v>0.04641308035586672</v>
       </c>
       <c r="V6" s="0">
-        <v>-0.046413080355867178</v>
+        <v>-0.046413080355867185</v>
       </c>
       <c r="W6" s="0">
-        <v>0.046413080355867178</v>
+        <v>0.046413080355867185</v>
       </c>
       <c r="X6" s="0">
-        <v>-0.046413080355867956</v>
+        <v>-0.046413080355867928</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.046413080355867956</v>
+        <v>0.046413080355867928</v>
       </c>
       <c r="Z6" s="0">
         <v>-0.32325042726113357</v>
@@ -721,88 +808,88 @@
         <v>0.5</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.32325042726113351</v>
+        <v>-0.32325042726113334</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.32325042726113351</v>
+        <v>-0.32325042726113334</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.32325042726113318</v>
+        <v>-0.32325042726113323</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.32325042726113318</v>
+        <v>-0.32325042726113323</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.32325042726113257</v>
+        <v>-0.32325042726113207</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.32325042726113257</v>
+        <v>-0.32325042726113207</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.052216268896802212</v>
+        <v>-0.052216268896800894</v>
       </c>
       <c r="I7" s="0">
-        <v>0.052216268896802212</v>
+        <v>0.052216268896800894</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.052216268896800949</v>
+        <v>-0.052216268896802115</v>
       </c>
       <c r="K7" s="0">
-        <v>0.052216268896800949</v>
+        <v>0.052216268896802115</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.052216268896802837</v>
+        <v>-0.052216268896802753</v>
       </c>
       <c r="M7" s="0">
-        <v>0.052216268896802837</v>
+        <v>0.052216268896802753</v>
       </c>
       <c r="N7" s="0">
-        <v>0.12420073076000002</v>
+        <v>0.12420073076000053</v>
       </c>
       <c r="O7" s="0">
-        <v>0.12420073076000002</v>
+        <v>0.12420073076000053</v>
       </c>
       <c r="P7" s="0">
-        <v>0.1242007307600006</v>
+        <v>0.12420073076000025</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.1242007307600006</v>
+        <v>0.12420073076000025</v>
       </c>
       <c r="R7" s="0">
-        <v>0.12420073076000059</v>
+        <v>0.12420073076000099</v>
       </c>
       <c r="S7" s="0">
-        <v>0.12420073076000059</v>
+        <v>0.12420073076000099</v>
       </c>
       <c r="T7" s="0">
-        <v>-0.042276193448102732</v>
+        <v>-0.042276193448101761</v>
       </c>
       <c r="U7" s="0">
-        <v>0.042276193448102732</v>
+        <v>0.042276193448101761</v>
       </c>
       <c r="V7" s="0">
-        <v>-0.04227619344810183</v>
+        <v>-0.042276193448102725</v>
       </c>
       <c r="W7" s="0">
-        <v>0.04227619344810183</v>
+        <v>0.042276193448102725</v>
       </c>
       <c r="X7" s="0">
-        <v>-0.042276193448103475</v>
+        <v>-0.04227619344810353</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.042276193448103475</v>
+        <v>0.04227619344810353</v>
       </c>
       <c r="Z7" s="0">
-        <v>-0.32325042726113362</v>
+        <v>-0.32325042726113334</v>
       </c>
       <c r="AA7" s="0">
-        <v>-1.0522162688968029</v>
+        <v>-1.0522162688968026</v>
       </c>
       <c r="AB7" s="0">
-        <v>-0.32325042726113318</v>
+        <v>-0.32325042726113357</v>
       </c>
       <c r="AC7" s="0">
-        <v>1.0522162688968029</v>
+        <v>1.0522162688968026</v>
       </c>
     </row>
     <row r="8">
@@ -816,34 +903,34 @@
         <v>-0.32325042726113318</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.32325042726113312</v>
+        <v>-0.32325042726113307</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.32325042726113312</v>
+        <v>-0.32325042726113307</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.32325042726113296</v>
+        <v>-0.32325042726113273</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.32325042726113296</v>
+        <v>-0.32325042726113273</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.034651489906914468</v>
+        <v>-0.034651489906914537</v>
       </c>
       <c r="I8" s="0">
-        <v>0.034651489906914468</v>
+        <v>0.034651489906914537</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.034651489906913378</v>
+        <v>-0.034651489906913066</v>
       </c>
       <c r="K8" s="0">
-        <v>0.034651489906913378</v>
+        <v>0.034651489906913066</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.034651489906913892</v>
+        <v>-0.034651489906914267</v>
       </c>
       <c r="M8" s="0">
-        <v>0.034651489906913892</v>
+        <v>0.034651489906914267</v>
       </c>
       <c r="N8" s="0">
         <v>0.12810137135433475</v>
@@ -852,46 +939,46 @@
         <v>0.12810137135433475</v>
       </c>
       <c r="P8" s="0">
-        <v>0.128101371354335</v>
+        <v>0.12810137135433514</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.128101371354335</v>
+        <v>0.12810137135433514</v>
       </c>
       <c r="R8" s="0">
-        <v>0.12810137135433503</v>
+        <v>0.12810137135433511</v>
       </c>
       <c r="S8" s="0">
-        <v>0.12810137135433503</v>
+        <v>0.12810137135433511</v>
       </c>
       <c r="T8" s="0">
-        <v>-0.028339666739718571</v>
+        <v>-0.02833966673971863</v>
       </c>
       <c r="U8" s="0">
-        <v>0.028339666739718571</v>
+        <v>0.02833966673971863</v>
       </c>
       <c r="V8" s="0">
-        <v>-0.028339666739717707</v>
+        <v>-0.028339666739717471</v>
       </c>
       <c r="W8" s="0">
-        <v>0.028339666739717707</v>
+        <v>0.028339666739717471</v>
       </c>
       <c r="X8" s="0">
-        <v>-0.028339666739718147</v>
+        <v>-0.02833966673971848</v>
       </c>
       <c r="Y8" s="0">
-        <v>0.028339666739718147</v>
+        <v>0.02833966673971848</v>
       </c>
       <c r="Z8" s="0">
         <v>-0.32325042726113318</v>
       </c>
       <c r="AA8" s="0">
-        <v>-1.0346514899069144</v>
+        <v>-1.0346514899069146</v>
       </c>
       <c r="AB8" s="0">
-        <v>-0.32325042726113368</v>
+        <v>-0.32325042726113373</v>
       </c>
       <c r="AC8" s="0">
-        <v>1.0346514899069144</v>
+        <v>1.0346514899069146</v>
       </c>
     </row>
     <row r="9">
@@ -899,7 +986,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.36498371736349078</v>
+        <v>-0.36498371736349067</v>
       </c>
       <c r="C9" s="0">
         <v>-0.28151713715877524</v>
@@ -908,7 +995,7 @@
         <v>-0.28151713715877524</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.28151713715877452</v>
+        <v>-0.28151713715877458</v>
       </c>
       <c r="F9" s="0">
         <v>-0.36498371736349239</v>
@@ -920,28 +1007,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="0">
-        <v>-8.5442799240000796e-16</v>
+        <v>-6.9999800653743587e-16</v>
       </c>
       <c r="J9" s="0">
-        <v>8.5442799240000796e-16</v>
+        <v>6.9999800653743587e-16</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
       </c>
       <c r="L9" s="0">
-        <v>-9.5582825987266475e-16</v>
+        <v>-1.3501558495502491e-15</v>
       </c>
       <c r="M9" s="0">
-        <v>9.5582825987266475e-16</v>
+        <v>1.3501558495502491e-15</v>
       </c>
       <c r="N9" s="0">
-        <v>0.10093683737444578</v>
+        <v>0.10093683737444575</v>
       </c>
       <c r="O9" s="0">
-        <v>0.10093683737444578</v>
+        <v>0.10093683737444575</v>
       </c>
       <c r="P9" s="0">
-        <v>0.10093683737444679</v>
+        <v>0.10093683737444688</v>
       </c>
       <c r="Q9" s="0">
         <v>0.17053336028276628</v>
@@ -950,37 +1037,37 @@
         <v>0.17053336028276628</v>
       </c>
       <c r="S9" s="0">
-        <v>0.17053336028276705</v>
+        <v>0.17053336028276697</v>
       </c>
       <c r="T9" s="0">
-        <v>-6.0619092156603979e-16</v>
+        <v>-8.5627539282598614e-16</v>
       </c>
       <c r="U9" s="0">
-        <v>6.0619092156603979e-16</v>
+        <v>8.5627539282598614e-16</v>
       </c>
       <c r="V9" s="0">
         <v>0</v>
       </c>
       <c r="W9" s="0">
-        <v>-9.1551335970444749e-16</v>
+        <v>-7.5004275661825531e-16</v>
       </c>
       <c r="X9" s="0">
-        <v>9.1551335970444749e-16</v>
+        <v>7.5004275661825531e-16</v>
       </c>
       <c r="Y9" s="0">
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>-0.36498371736349228</v>
+        <v>-0.36498371736349222</v>
       </c>
       <c r="AA9" s="0">
-        <v>-1.0000000000000009</v>
+        <v>-1.0000000000000013</v>
       </c>
       <c r="AB9" s="0">
-        <v>-0.28151713715877452</v>
+        <v>-0.28151713715877458</v>
       </c>
       <c r="AC9" s="0">
-        <v>1.0000000000000009</v>
+        <v>1.0000000000000013</v>
       </c>
     </row>
     <row r="10">
@@ -988,22 +1075,22 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.24178334197207141</v>
+        <v>-0.24178334197207152</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.24178334197207232</v>
+        <v>-0.24178334197207216</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.24178334197207399</v>
+        <v>-0.24178334197207396</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.40471751255019134</v>
+        <v>-0.4047175125501915</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.40471751255019517</v>
+        <v>-0.40471751255019511</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.40471751255019517</v>
+        <v>-0.40471751255019511</v>
       </c>
       <c r="H10" s="0">
         <v>0</v>
@@ -1018,34 +1105,34 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>-5.3624486812402785e-16</v>
+        <v>-6.1536813147660791e-16</v>
       </c>
       <c r="M10" s="0">
-        <v>5.3624486812402785e-16</v>
+        <v>6.1536813147660791e-16</v>
       </c>
       <c r="N10" s="0">
-        <v>0.078636828884671856</v>
+        <v>0.078636828884671883</v>
       </c>
       <c r="O10" s="0">
-        <v>0.078636828884671856</v>
+        <v>0.078636828884671883</v>
       </c>
       <c r="P10" s="0">
-        <v>0.078636828884673729</v>
+        <v>0.078636828884673673</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.21889359347162612</v>
+        <v>0.21889359347162618</v>
       </c>
       <c r="R10" s="0">
-        <v>0.21889359347162837</v>
+        <v>0.21889359347162862</v>
       </c>
       <c r="S10" s="0">
-        <v>0.21889359347162965</v>
+        <v>0.21889359347162951</v>
       </c>
       <c r="T10" s="0">
-        <v>-2.6495310240288701e-16</v>
+        <v>-3.0404709722440588e-16</v>
       </c>
       <c r="U10" s="0">
-        <v>2.6495310240288701e-16</v>
+        <v>3.0404709722440588e-16</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -1060,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>-0.24178334197207141</v>
+        <v>-0.24178334197207152</v>
       </c>
       <c r="AA10" s="0">
-        <v>-1.0000000000000005</v>
+        <v>-1.0000000000000007</v>
       </c>
       <c r="AB10" s="0">
-        <v>-0.40471751255019539</v>
+        <v>-0.40471751255019528</v>
       </c>
       <c r="AC10" s="0">
-        <v>1.0000000000000005</v>
+        <v>1.0000000000000007</v>
       </c>
     </row>
     <row r="11">
@@ -1077,31 +1164,31 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.20470100322364945</v>
+        <v>-0.20470100322364962</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.20470100322365445</v>
+        <v>-0.20470100322365464</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.20470100322365478</v>
+        <v>-0.20470100322365464</v>
       </c>
       <c r="E11" s="0">
         <v>-0.44179985129861088</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.44179985129861243</v>
+        <v>-0.44179985129861238</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.44179985129861493</v>
+        <v>-0.44179985129861504</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>-1.2789064389463208e-16</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>1.2789064389463208e-16</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -1113,22 +1200,22 @@
         <v>0</v>
       </c>
       <c r="N11" s="0">
-        <v>0.062292743643560397</v>
+        <v>0.062292743643560355</v>
       </c>
       <c r="O11" s="0">
-        <v>0.062292743643561369</v>
+        <v>0.062292743643561382</v>
       </c>
       <c r="P11" s="0">
-        <v>0.062292743643561965</v>
+        <v>0.062292743643561972</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.27632589362691456</v>
+        <v>0.27632589362691479</v>
       </c>
       <c r="R11" s="0">
-        <v>0.27632589362691512</v>
+        <v>0.27632589362691479</v>
       </c>
       <c r="S11" s="0">
-        <v>0.27632589362692384</v>
+        <v>0.2763258936269235</v>
       </c>
       <c r="T11" s="0">
         <v>0</v>
@@ -1140,25 +1227,25 @@
         <v>0</v>
       </c>
       <c r="W11" s="0">
-        <v>0</v>
+        <v>-2.2204460492503131e-16</v>
       </c>
       <c r="X11" s="0">
-        <v>0</v>
+        <v>2.2204460492503131e-16</v>
       </c>
       <c r="Y11" s="0">
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>-0.20470100322364945</v>
+        <v>-0.20470100322364962</v>
       </c>
       <c r="AA11" s="0">
-        <v>-1</v>
+        <v>-1.0000000000000002</v>
       </c>
       <c r="AB11" s="0">
-        <v>-0.44179985129861732</v>
+        <v>-0.44179985129861721</v>
       </c>
       <c r="AC11" s="0">
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="12">
@@ -1166,28 +1253,28 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.16652787232185742</v>
+        <v>-0.16652787232185748</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.16652787232185742</v>
+        <v>-0.16652787232185748</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.16652787232185795</v>
+        <v>-0.16652787232185814</v>
       </c>
       <c r="E12" s="0">
         <v>-0.47997298220040358</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.47997298220040846</v>
+        <v>-0.47997298220040863</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.47997298220040846</v>
+        <v>-0.47997298220040863</v>
       </c>
       <c r="H12" s="0">
-        <v>-7.8258297455402414e-16</v>
+        <v>-8.1357772963239231e-16</v>
       </c>
       <c r="I12" s="0">
-        <v>7.8258297455402414e-16</v>
+        <v>8.1357772963239231e-16</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
@@ -1196,34 +1283,34 @@
         <v>0</v>
       </c>
       <c r="L12" s="0">
-        <v>-9.4266412173574196e-16</v>
+        <v>-8.879459637163465e-16</v>
       </c>
       <c r="M12" s="0">
-        <v>9.4266412173574196e-16</v>
+        <v>8.879459637163465e-16</v>
       </c>
       <c r="N12" s="0">
-        <v>0.049008614529227321</v>
+        <v>0.049008614529227293</v>
       </c>
       <c r="O12" s="0">
-        <v>0.049008614529227321</v>
+        <v>0.049008614529227293</v>
       </c>
       <c r="P12" s="0">
         <v>0.049008614529228833</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.35122596749830748</v>
+        <v>0.35122596749830715</v>
       </c>
       <c r="R12" s="0">
-        <v>0.3512259674983087</v>
+        <v>0.35122596749830859</v>
       </c>
       <c r="S12" s="0">
-        <v>0.3512259674983087</v>
+        <v>0.35122596749830859</v>
       </c>
       <c r="T12" s="0">
-        <v>-2.9027475788800786e-16</v>
+        <v>-2.7342538417692218e-16</v>
       </c>
       <c r="U12" s="0">
-        <v>2.9027475788800786e-16</v>
+        <v>2.7342538417692218e-16</v>
       </c>
       <c r="V12" s="0">
         <v>0</v>
@@ -1232,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>-1.7270180683407145e-15</v>
+        <v>-1.7954178467471398e-15</v>
       </c>
       <c r="Y12" s="0">
-        <v>1.7270180683407145e-15</v>
+        <v>1.7954178467471398e-15</v>
       </c>
       <c r="Z12" s="0">
-        <v>-0.16652787232185742</v>
+        <v>-0.16652787232185748</v>
       </c>
       <c r="AA12" s="0">
         <v>-1.0000000000000009</v>
       </c>
       <c r="AB12" s="0">
-        <v>-0.4799729822004094</v>
+        <v>-0.47997298220040929</v>
       </c>
       <c r="AC12" s="0">
         <v>1.0000000000000009</v>
@@ -1255,22 +1342,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.12652913742568259</v>
+        <v>-0.12652913742568264</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.12652913742568411</v>
+        <v>-0.1265291374256842</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.12652913742568553</v>
+        <v>-0.12652913742568561</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.5199717170965823</v>
+        <v>-0.51997171709658241</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.5199717170965823</v>
+        <v>-0.51997171709658241</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.51997171709658474</v>
+        <v>-0.51997171709658463</v>
       </c>
       <c r="H13" s="0">
         <v>0</v>
@@ -1282,40 +1369,40 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>-3.8531670355761611e-15</v>
+        <v>-3.7999167445005124e-15</v>
       </c>
       <c r="L13" s="0">
-        <v>3.8531670355761611e-15</v>
+        <v>3.7999167445005124e-15</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.038117619373067006</v>
+        <v>0.038117619373067034</v>
       </c>
       <c r="O13" s="0">
-        <v>0.038117619373067596</v>
+        <v>0.038117619373067568</v>
       </c>
       <c r="P13" s="0">
-        <v>0.038117619373067596</v>
+        <v>0.038117619373067568</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.45157851767472729</v>
+        <v>0.45157851767472706</v>
       </c>
       <c r="R13" s="0">
-        <v>0.45157851767473128</v>
+        <v>0.45157851767473101</v>
       </c>
       <c r="S13" s="0">
-        <v>0.45157851767473561</v>
+        <v>0.45157851767473545</v>
       </c>
       <c r="T13" s="0">
         <v>0</v>
       </c>
       <c r="U13" s="0">
-        <v>-9.2283375928914241e-16</v>
+        <v>-9.1008031106256264e-16</v>
       </c>
       <c r="V13" s="0">
-        <v>9.2283375928914241e-16</v>
+        <v>9.1008031106256264e-16</v>
       </c>
       <c r="W13" s="0">
         <v>0</v>
@@ -1327,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="0">
-        <v>-0.12652913742568259</v>
+        <v>-0.12652913742568264</v>
       </c>
       <c r="AA13" s="0">
         <v>-1.0000000000000038</v>
@@ -1344,22 +1431,22 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.084602359626487114</v>
+        <v>-0.084602359626487031</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.084602359626487891</v>
+        <v>-0.084602359626487933</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.084602359626487933</v>
+        <v>-0.084602359626487864</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.56189849489577892</v>
+        <v>-0.56189849489577826</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.56189849489578103</v>
+        <v>-0.56189849489578292</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.56189849489578803</v>
+        <v>-0.56189849489578725</v>
       </c>
       <c r="H14" s="0">
         <v>0</v>
@@ -1380,22 +1467,22 @@
         <v>0</v>
       </c>
       <c r="N14" s="0">
-        <v>0.02928990483363355</v>
+        <v>0.029289904833633678</v>
       </c>
       <c r="O14" s="0">
-        <v>0.029289904833634837</v>
+        <v>0.029289904833634483</v>
       </c>
       <c r="P14" s="0">
-        <v>0.029289904833635219</v>
+        <v>0.029289904833635343</v>
       </c>
       <c r="Q14" s="0">
         <v>0.5876802315182903</v>
       </c>
       <c r="R14" s="0">
-        <v>0.58768023151829041</v>
+        <v>0.58768023151829052</v>
       </c>
       <c r="S14" s="0">
-        <v>0.58768023151829329</v>
+        <v>0.58768023151829363</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -1416,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="0">
-        <v>-0.084602359626487114</v>
+        <v>-0.084602359626487031</v>
       </c>
       <c r="AA14" s="0">
         <v>-1</v>
@@ -1433,28 +1520,28 @@
         <v>1.3</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.040848398187265253</v>
+        <v>-0.040848398187265295</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.040848398187265253</v>
+        <v>-0.040848398187265295</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.040848398187266148</v>
+        <v>-0.04084839818726619</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.60565245633499243</v>
+        <v>-0.60565245633499343</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.60565245633499876</v>
+        <v>-0.60565245633499731</v>
       </c>
       <c r="G15" s="0">
-        <v>-0.60565245633499876</v>
+        <v>-0.60565245633499731</v>
       </c>
       <c r="H15" s="0">
-        <v>-5.7668098709881616e-16</v>
+        <v>-5.4314006914528575e-16</v>
       </c>
       <c r="I15" s="0">
-        <v>5.7668098709881616e-16</v>
+        <v>5.4314006914528575e-16</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
@@ -1463,34 +1550,34 @@
         <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>-4.7586825849094157e-15</v>
+        <v>-4.2375290271750751e-15</v>
       </c>
       <c r="M15" s="0">
-        <v>4.7586825849094157e-15</v>
+        <v>4.2375290271750751e-15</v>
       </c>
       <c r="N15" s="0">
-        <v>0.022249703086157396</v>
+        <v>0.022249703086157591</v>
       </c>
       <c r="O15" s="0">
-        <v>0.022249703086157396</v>
+        <v>0.022249703086157591</v>
       </c>
       <c r="P15" s="0">
-        <v>0.022249703086158278</v>
+        <v>0.022249703086158135</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.77363270813661955</v>
+        <v>0.77363270813661933</v>
       </c>
       <c r="R15" s="0">
-        <v>0.77363270813662388</v>
+        <v>0.77363270813662366</v>
       </c>
       <c r="S15" s="0">
-        <v>0.77363270813662388</v>
+        <v>0.77363270813662366</v>
       </c>
       <c r="T15" s="0">
-        <v>-6.6525910247329395e-16</v>
+        <v>-5.9240235233649398e-16</v>
       </c>
       <c r="U15" s="0">
-        <v>6.6525910247329395e-16</v>
+        <v>5.9240235233649398e-16</v>
       </c>
       <c r="V15" s="0">
         <v>0</v>
@@ -1499,22 +1586,22 @@
         <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>-2.8031757299712633e-15</v>
+        <v>-2.6401374310301131e-15</v>
       </c>
       <c r="Y15" s="0">
-        <v>2.8031757299712633e-15</v>
+        <v>2.6401374310301131e-15</v>
       </c>
       <c r="Z15" s="0">
-        <v>-0.040848398187265253</v>
+        <v>-0.040848398187265295</v>
       </c>
       <c r="AA15" s="0">
-        <v>-1.0000000000000047</v>
+        <v>-1.0000000000000042</v>
       </c>
       <c r="AB15" s="0">
         <v>-0.60565245633500153</v>
       </c>
       <c r="AC15" s="0">
-        <v>1.0000000000000047</v>
+        <v>1.0000000000000042</v>
       </c>
     </row>
     <row r="16">
@@ -1522,31 +1609,31 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0045667075924351328</v>
+        <v>0.0045667075924350643</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0045667075924347208</v>
+        <v>0.0045667075924346861</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0045667075924347208</v>
+        <v>0.0045667075924346861</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.65106756211468997</v>
+        <v>-0.6510675621146893</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.65106756211469974</v>
+        <v>-0.65106756211469963</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.65106756211472172</v>
+        <v>-0.6510675621147225</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>-9.3137656840829522e-16</v>
+        <v>-9.4538059925565045e-16</v>
       </c>
       <c r="J16" s="0">
-        <v>9.3137656840829522e-16</v>
+        <v>9.4538059925565045e-16</v>
       </c>
       <c r="K16" s="0">
         <v>0</v>
@@ -1558,22 +1645,22 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.016726213153527261</v>
+        <v>0.016726213153527188</v>
       </c>
       <c r="O16" s="0">
-        <v>0.016726213153529582</v>
+        <v>0.016726213153529595</v>
       </c>
       <c r="P16" s="0">
-        <v>0.016726213153530609</v>
+        <v>0.016726213153530678</v>
       </c>
       <c r="Q16" s="0">
-        <v>1.0291090933602811</v>
+        <v>1.0291090933602809</v>
       </c>
       <c r="R16" s="0">
-        <v>1.0291090933602811</v>
+        <v>1.0291090933602809</v>
       </c>
       <c r="S16" s="0">
-        <v>1.0291090933602838</v>
+        <v>1.0291090933602833</v>
       </c>
       <c r="T16" s="0">
         <v>0</v>
@@ -1585,22 +1672,22 @@
         <v>0</v>
       </c>
       <c r="W16" s="0">
-        <v>-6.0223583212130833e-15</v>
+        <v>-6.112909548895591e-15</v>
       </c>
       <c r="X16" s="0">
-        <v>6.0223583212130833e-15</v>
+        <v>6.112909548895591e-15</v>
       </c>
       <c r="Y16" s="0">
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>0.0045667075924351328</v>
+        <v>0.0045667075924350643</v>
       </c>
       <c r="AA16" s="0">
         <v>-1.0000000000000009</v>
       </c>
       <c r="AB16" s="0">
-        <v>-0.65106756211470196</v>
+        <v>-0.65106756211470185</v>
       </c>
       <c r="AC16" s="0">
         <v>1.0000000000000009</v>
@@ -1611,64 +1698,64 @@
         <v>1.5</v>
       </c>
       <c r="B17" s="0">
-        <v>0.051460874835589546</v>
+        <v>0.051460874835589421</v>
       </c>
       <c r="C17" s="0">
-        <v>0.051460874835589594</v>
+        <v>0.05146087483558949</v>
       </c>
       <c r="D17" s="0">
-        <v>0.051460874835589594</v>
+        <v>0.05146087483558949</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.69796172935783085</v>
+        <v>-0.69796172935783274</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.69796172935785905</v>
+        <v>-0.6979617293578626</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.69796172935785905</v>
+        <v>-0.6979617293578626</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
       </c>
       <c r="I17" s="0">
-        <v>-1.5689165999116656e-15</v>
+        <v>-1.5246301908611683e-15</v>
       </c>
       <c r="J17" s="0">
-        <v>1.5689165999116656e-15</v>
+        <v>1.5246301908611683e-15</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>-3.7564162563849639e-15</v>
+        <v>-2.4082289432565972e-15</v>
       </c>
       <c r="M17" s="0">
-        <v>3.7564162563849639e-15</v>
+        <v>2.4082289432565972e-15</v>
       </c>
       <c r="N17" s="0">
-        <v>0.012457618906579789</v>
+        <v>0.012457618906579511</v>
       </c>
       <c r="O17" s="0">
-        <v>0.012457618906579789</v>
+        <v>0.012457618906579511</v>
       </c>
       <c r="P17" s="0">
-        <v>0.012457618906581997</v>
+        <v>0.012457618906581851</v>
       </c>
       <c r="Q17" s="0">
-        <v>1.3817325913451759</v>
+        <v>1.3817325913451748</v>
       </c>
       <c r="R17" s="0">
-        <v>1.3817325913451763</v>
+        <v>1.3817325913451755</v>
       </c>
       <c r="S17" s="0">
-        <v>1.3817325913451763</v>
+        <v>1.3817325913451755</v>
       </c>
       <c r="T17" s="0">
-        <v>-2.9402795331028582e-16</v>
+        <v>-1.8850057580406443e-16</v>
       </c>
       <c r="U17" s="0">
-        <v>2.9402795331028582e-16</v>
+        <v>1.8850057580406443e-16</v>
       </c>
       <c r="V17" s="0">
         <v>0</v>
@@ -1677,22 +1764,22 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>-1.3620834873779055e-14</v>
+        <v>-1.3236354357183442e-14</v>
       </c>
       <c r="Y17" s="0">
-        <v>1.3620834873779055e-14</v>
+        <v>1.3236354357183442e-14</v>
       </c>
       <c r="Z17" s="0">
-        <v>0.051460874835589546</v>
+        <v>0.051460874835589421</v>
       </c>
       <c r="AA17" s="0">
-        <v>-1.0000000000000038</v>
+        <v>-1.0000000000000024</v>
       </c>
       <c r="AB17" s="0">
-        <v>-0.69796172935785639</v>
+        <v>-0.69796172935785616</v>
       </c>
       <c r="AC17" s="0">
-        <v>1.0000000000000038</v>
+        <v>1.0000000000000024</v>
       </c>
     </row>
     <row r="18">
@@ -1700,22 +1787,22 @@
         <v>1.6000000000000001</v>
       </c>
       <c r="B18" s="0">
-        <v>0.099646765731319822</v>
+        <v>0.09964676573131985</v>
       </c>
       <c r="C18" s="0">
-        <v>0.099646765731318976</v>
+        <v>0.09964676573131892</v>
       </c>
       <c r="D18" s="0">
-        <v>0.099646765731318088</v>
+        <v>0.09964676573131806</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.74614762025355119</v>
+        <v>-0.74614762025356651</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.74614762025356885</v>
+        <v>-0.74614762025356651</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.74614762025360948</v>
+        <v>-0.74614762025359982</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -1727,40 +1814,40 @@
         <v>0</v>
       </c>
       <c r="K18" s="0">
-        <v>0</v>
+        <v>-6.7783749486941666e-15</v>
       </c>
       <c r="L18" s="0">
-        <v>0</v>
+        <v>6.7783749486941666e-15</v>
       </c>
       <c r="M18" s="0">
         <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>0.0092033865024660263</v>
+        <v>0.0092033865024665762</v>
       </c>
       <c r="O18" s="0">
-        <v>0.0092033865024683682</v>
+        <v>0.0092033865024685052</v>
       </c>
       <c r="P18" s="0">
-        <v>0.0092033865024693951</v>
+        <v>0.0092033865024685052</v>
       </c>
       <c r="Q18" s="0">
-        <v>1.8703004648522128</v>
+        <v>1.8703004648522126</v>
       </c>
       <c r="R18" s="0">
-        <v>1.8703004648522232</v>
+        <v>1.8703004648522226</v>
       </c>
       <c r="S18" s="0">
-        <v>1.8703004648522332</v>
+        <v>1.8703004648522337</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>0</v>
+        <v>-3.9197026054957212e-16</v>
       </c>
       <c r="V18" s="0">
-        <v>0</v>
+        <v>3.9197026054957212e-16</v>
       </c>
       <c r="W18" s="0">
         <v>0</v>
@@ -1772,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="Z18" s="0">
-        <v>0.099646765731319822</v>
+        <v>0.09964676573131985</v>
       </c>
       <c r="AA18" s="0">
-        <v>-1</v>
+        <v>-1.0000000000000069</v>
       </c>
       <c r="AB18" s="0">
         <v>-0.74614762025358661</v>
       </c>
       <c r="AC18" s="0">
-        <v>1</v>
+        <v>1.0000000000000069</v>
       </c>
     </row>
     <row r="19">
@@ -1789,22 +1876,22 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="B19" s="0">
-        <v>0.14892679786792862</v>
+        <v>0.14892679786792851</v>
       </c>
       <c r="C19" s="0">
         <v>0.14892679786792798</v>
       </c>
       <c r="D19" s="0">
-        <v>0.14892679786792484</v>
+        <v>0.14892679786792501</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.79542765239013291</v>
+        <v>-0.79542765239012991</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.79542765239014324</v>
+        <v>-0.79542765239016</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.7954276523902587</v>
+        <v>-0.79542765239026136</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -1825,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0.006752656213295672</v>
+        <v>0.0067526562132955567</v>
       </c>
       <c r="O19" s="0">
-        <v>0.0067526562133005692</v>
+        <v>0.0067526562132998579</v>
       </c>
       <c r="P19" s="0">
-        <v>0.0067526562133010063</v>
+        <v>0.0067526562133011355</v>
       </c>
       <c r="Q19" s="0">
-        <v>2.5490855020695982</v>
+        <v>2.5490855020696013</v>
       </c>
       <c r="R19" s="0">
-        <v>2.5490855020696483</v>
+        <v>2.5490855020696488</v>
       </c>
       <c r="S19" s="0">
-        <v>2.549085502069659</v>
+        <v>2.5490855020696568</v>
       </c>
       <c r="T19" s="0">
         <v>0</v>
@@ -1861,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="Z19" s="0">
-        <v>0.14892679786792862</v>
+        <v>0.14892679786792851</v>
       </c>
       <c r="AA19" s="0">
         <v>-1</v>
       </c>
       <c r="AB19" s="0">
-        <v>-0.79542765239019542</v>
+        <v>-0.79542765239019531</v>
       </c>
       <c r="AC19" s="0">
         <v>1</v>
@@ -1878,22 +1965,22 @@
         <v>1.8</v>
       </c>
       <c r="B20" s="0">
-        <v>0.19908592095197963</v>
+        <v>0.19908592095197969</v>
       </c>
       <c r="C20" s="0">
-        <v>0.1990859209519793</v>
+        <v>0.19908592095197933</v>
       </c>
       <c r="D20" s="0">
-        <v>0.19908592095197764</v>
+        <v>0.19908592095197769</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.84558677547406602</v>
+        <v>-0.84558677547407479</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.84558677547423167</v>
+        <v>-0.84558677547423222</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.84558677547435446</v>
+        <v>-0.84558677547434258</v>
       </c>
       <c r="H20" s="0">
         <v>0</v>
@@ -1914,22 +2001,22 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>0.0049272295632178057</v>
+        <v>0.0049272295632181735</v>
       </c>
       <c r="O20" s="0">
-        <v>0.0049272295632216039</v>
+        <v>0.0049272295632215857</v>
       </c>
       <c r="P20" s="0">
-        <v>0.0049272295632267335</v>
+        <v>0.0049272295632264602</v>
       </c>
       <c r="Q20" s="0">
-        <v>3.4934637878991506</v>
+        <v>3.4934637878991515</v>
       </c>
       <c r="R20" s="0">
-        <v>3.4934637878991874</v>
+        <v>3.4934637878991879</v>
       </c>
       <c r="S20" s="0">
-        <v>3.4934637878991945</v>
+        <v>3.4934637878991963</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -1950,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>0.19908592095197963</v>
+        <v>0.19908592095197969</v>
       </c>
       <c r="AA20" s="0">
         <v>-1</v>
       </c>
       <c r="AB20" s="0">
-        <v>-0.84558677547424643</v>
+        <v>-0.84558677547424654</v>
       </c>
       <c r="AC20" s="0">
         <v>1</v>
@@ -1967,22 +2054,22 @@
         <v>1.9000000000000001</v>
       </c>
       <c r="B21" s="0">
-        <v>0.24988933485209466</v>
+        <v>0.24988933485209464</v>
       </c>
       <c r="C21" s="0">
         <v>0.24988933485209378</v>
       </c>
       <c r="D21" s="0">
-        <v>0.24988933485209358</v>
+        <v>0.24988933485209344</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.89639018937446757</v>
+        <v>-0.8963901893744759</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.89639018937446757</v>
+        <v>-0.8963901893744759</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.89639018937466786</v>
+        <v>-0.89639018937462622</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -1994,40 +2081,40 @@
         <v>0</v>
       </c>
       <c r="K21" s="0">
-        <v>-1.0046421050825428e-13</v>
+        <v>-8.6804248874063158e-14</v>
       </c>
       <c r="L21" s="0">
-        <v>1.0046421050825428e-13</v>
+        <v>8.6804248874063158e-14</v>
       </c>
       <c r="M21" s="0">
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0.0035807404606277978</v>
+        <v>0.0035807404606287355</v>
       </c>
       <c r="O21" s="0">
-        <v>0.0035807404606323029</v>
+        <v>0.0035807404606321164</v>
       </c>
       <c r="P21" s="0">
-        <v>0.0035807404606323029</v>
+        <v>0.0035807404606321164</v>
       </c>
       <c r="Q21" s="0">
-        <v>4.8071336761247085</v>
+        <v>4.807133676124705</v>
       </c>
       <c r="R21" s="0">
         <v>4.8071336761247148</v>
       </c>
       <c r="S21" s="0">
-        <v>4.8071336761247423</v>
+        <v>4.8071336761247405</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
       </c>
       <c r="U21" s="0">
-        <v>-2.2602896047323959e-15</v>
+        <v>-1.9529615609781577e-15</v>
       </c>
       <c r="V21" s="0">
-        <v>2.2602896047323959e-15</v>
+        <v>1.9529615609781577e-15</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -2039,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="Z21" s="0">
-        <v>0.24988933485209466</v>
+        <v>0.24988933485209464</v>
       </c>
       <c r="AA21" s="0">
-        <v>-1.0000000000001004</v>
+        <v>-1.0000000000000868</v>
       </c>
       <c r="AB21" s="0">
-        <v>-0.89639018937436144</v>
+        <v>-0.89639018937436143</v>
       </c>
       <c r="AC21" s="0">
-        <v>1.0000000000001004</v>
+        <v>1.0000000000000868</v>
       </c>
     </row>
     <row r="22">
@@ -2131,13 +2218,13 @@
         <v>0.30108692707966128</v>
       </c>
       <c r="AA22" s="0">
-        <v>-1.0000000000000005</v>
+        <v>-1.0000000000000004</v>
       </c>
       <c r="AB22" s="0">
         <v>-0.94758778160192803</v>
       </c>
       <c r="AC22" s="0">
-        <v>1.0000000000000005</v>
+        <v>1.0000000000000004</v>
       </c>
     </row>
     <row r="23">
@@ -2145,22 +2232,22 @@
         <v>2.1000000000000001</v>
       </c>
       <c r="B23" s="0">
-        <v>0.35242261587430845</v>
+        <v>0.35242261587430834</v>
       </c>
       <c r="C23" s="0">
         <v>0.3524226158743109</v>
       </c>
       <c r="D23" s="0">
-        <v>0.35242261587431212</v>
+        <v>0.35242261587431234</v>
       </c>
       <c r="E23" s="0">
         <v>-0.99892347039621732</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.99892347039680029</v>
+        <v>-0.9989234703968165</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.99892347039680029</v>
+        <v>-0.9989234703968165</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -2175,34 +2262,34 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>-2.4047208964020284e-13</v>
+        <v>-2.3933695129511061e-13</v>
       </c>
       <c r="M23" s="0">
-        <v>2.4047208964020284e-13</v>
+        <v>2.3933695129511061e-13</v>
       </c>
       <c r="N23" s="0">
-        <v>0.0018801169959392588</v>
+        <v>0.001880116995939068</v>
       </c>
       <c r="O23" s="0">
-        <v>0.0018801169959392588</v>
+        <v>0.001880116995939068</v>
       </c>
       <c r="P23" s="0">
         <v>0.0018801169959461461</v>
       </c>
       <c r="Q23" s="0">
-        <v>9.1553334664451942</v>
+        <v>9.1553334664451871</v>
       </c>
       <c r="R23" s="0">
-        <v>9.1553334664453327</v>
+        <v>9.1553334664453345</v>
       </c>
       <c r="S23" s="0">
-        <v>9.155333466445402</v>
+        <v>9.1553334664454145</v>
       </c>
       <c r="T23" s="0">
-        <v>-2.8407264895349481e-15</v>
+        <v>-2.8273169600919095e-15</v>
       </c>
       <c r="U23" s="0">
-        <v>2.8407264895349481e-15</v>
+        <v>2.8273169600919095e-15</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -2217,16 +2304,16 @@
         <v>0</v>
       </c>
       <c r="Z23" s="0">
-        <v>0.35242261587430845</v>
+        <v>0.35242261587430834</v>
       </c>
       <c r="AA23" s="0">
-        <v>-1.0000000000002405</v>
+        <v>-1.0000000000002394</v>
       </c>
       <c r="AB23" s="0">
-        <v>-0.99892347039657525</v>
+        <v>-0.99892347039657514</v>
       </c>
       <c r="AC23" s="0">
-        <v>1.0000000000002405</v>
+        <v>1.0000000000002394</v>
       </c>
     </row>
     <row r="24">
@@ -2234,22 +2321,22 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B24" s="0">
-        <v>0.40364538849332354</v>
+        <v>0.40364538849332371</v>
       </c>
       <c r="C24" s="0">
         <v>0.40364538849332565</v>
       </c>
       <c r="D24" s="0">
-        <v>0.40364538849332793</v>
+        <v>0.40364538849332809</v>
       </c>
       <c r="E24" s="0">
-        <v>-1.0501462430146469</v>
+        <v>-1.0501462430145814</v>
       </c>
       <c r="F24" s="0">
-        <v>-1.0501462430146469</v>
+        <v>-1.0501462430145814</v>
       </c>
       <c r="G24" s="0">
-        <v>-1.050146243015355</v>
+        <v>-1.0501462430153694</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -2261,40 +2348,40 @@
         <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>-1.6188810261292165e-12</v>
+        <v>-1.6888026333797382e-12</v>
       </c>
       <c r="L24" s="0">
-        <v>1.6188810261292165e-12</v>
+        <v>1.6888026333797382e-12</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>0.0013627324445079577</v>
+        <v>0.0013627324445078344</v>
       </c>
       <c r="O24" s="0">
-        <v>0.00136273244451402</v>
+        <v>0.0013627324445145803</v>
       </c>
       <c r="P24" s="0">
-        <v>0.00136273244451402</v>
+        <v>0.0013627324445145803</v>
       </c>
       <c r="Q24" s="0">
-        <v>12.631311541144118</v>
+        <v>12.631311541144132</v>
       </c>
       <c r="R24" s="0">
-        <v>12.631311541144287</v>
+        <v>12.631311541144285</v>
       </c>
       <c r="S24" s="0">
-        <v>12.631311541144466</v>
+        <v>12.631311541144479</v>
       </c>
       <c r="T24" s="0">
         <v>0</v>
       </c>
       <c r="U24" s="0">
-        <v>-1.3861345775736536e-14</v>
+        <v>-1.4460035586575663e-14</v>
       </c>
       <c r="V24" s="0">
-        <v>1.3861345775736536e-14</v>
+        <v>1.4460035586575663e-14</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -2306,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.40364538849332354</v>
+        <v>0.40364538849332371</v>
       </c>
       <c r="AA24" s="0">
-        <v>-1.0000000000016189</v>
+        <v>-1.0000000000016889</v>
       </c>
       <c r="AB24" s="0">
-        <v>-1.0501462430155904</v>
+        <v>-1.0501462430155906</v>
       </c>
       <c r="AC24" s="0">
-        <v>1.0000000000016189</v>
+        <v>1.0000000000016889</v>
       </c>
     </row>
     <row r="25">
@@ -2412,22 +2499,22 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="B26" s="0">
-        <v>0.5048296935907669</v>
+        <v>0.50482969359076713</v>
       </c>
       <c r="C26" s="0">
         <v>0.50482969359077146</v>
       </c>
       <c r="D26" s="0">
-        <v>0.50482969359077179</v>
+        <v>0.5048296935907719</v>
       </c>
       <c r="E26" s="0">
-        <v>-1.1513305481122793</v>
+        <v>-1.1513305481125411</v>
       </c>
       <c r="F26" s="0">
-        <v>-1.1513305481143599</v>
+        <v>-1.1513305481135976</v>
       </c>
       <c r="G26" s="0">
-        <v>-1.1513305481143599</v>
+        <v>-1.1513305481165277</v>
       </c>
       <c r="H26" s="0">
         <v>0</v>
@@ -2442,34 +2529,34 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>-5.9717148431734395e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" s="0">
-        <v>5.9717148431734395e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" s="0">
-        <v>0.00072161183837568283</v>
+        <v>0.00072161183836585345</v>
       </c>
       <c r="O26" s="0">
-        <v>0.00072161183837568283</v>
+        <v>0.00072161183837913861</v>
       </c>
       <c r="P26" s="0">
-        <v>0.00072161183838511593</v>
+        <v>0.00072161183838392873</v>
       </c>
       <c r="Q26" s="0">
-        <v>23.853680245021987</v>
+        <v>23.853680245022012</v>
       </c>
       <c r="R26" s="0">
-        <v>23.853680245022669</v>
+        <v>23.853680245022659</v>
       </c>
       <c r="S26" s="0">
-        <v>23.853680245022716</v>
+        <v>23.853680245022719</v>
       </c>
       <c r="T26" s="0">
-        <v>-2.7075879909991805e-15</v>
+        <v>0</v>
       </c>
       <c r="U26" s="0">
-        <v>2.7075879909991805e-15</v>
+        <v>0</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
@@ -2484,16 +2571,16 @@
         <v>0</v>
       </c>
       <c r="Z26" s="0">
-        <v>0.5048296935907669</v>
+        <v>0.50482969359076713</v>
       </c>
       <c r="AA26" s="0">
-        <v>-1.0000000000005971</v>
+        <v>-1</v>
       </c>
       <c r="AB26" s="0">
         <v>-1.1513305481130338</v>
       </c>
       <c r="AC26" s="0">
-        <v>1.0000000000005971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2504,19 +2591,19 @@
         <v>0.55438822243372765</v>
       </c>
       <c r="C27" s="0">
-        <v>0.55438822243373431</v>
+        <v>0.55438822243373442</v>
       </c>
       <c r="D27" s="0">
-        <v>0.55438822243373564</v>
+        <v>0.55438822243373576</v>
       </c>
       <c r="E27" s="0">
-        <v>-1.2008890769541179</v>
+        <v>-1.200889076953237</v>
       </c>
       <c r="F27" s="0">
-        <v>-1.2008890769541179</v>
+        <v>-1.200889076953237</v>
       </c>
       <c r="G27" s="0">
-        <v>-1.2008890769565628</v>
+        <v>-1.2008890769586276</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -2528,40 +2615,40 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>-1.5630475327422806e-12</v>
+        <v>-2.1096257561757415e-12</v>
       </c>
       <c r="L27" s="0">
-        <v>1.5630475327422806e-12</v>
+        <v>2.1096257561757415e-12</v>
       </c>
       <c r="M27" s="0">
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>0.00052853126104843238</v>
+        <v>0.00052853126104157578</v>
       </c>
       <c r="O27" s="0">
-        <v>0.00052853126105655132</v>
+        <v>0.00052853126105947639</v>
       </c>
       <c r="P27" s="0">
-        <v>0.00052853126105655132</v>
+        <v>0.00052853126105947639</v>
       </c>
       <c r="Q27" s="0">
-        <v>32.567795553990216</v>
+        <v>32.567795553990223</v>
       </c>
       <c r="R27" s="0">
-        <v>32.567795553991566</v>
+        <v>32.567795553991601</v>
       </c>
       <c r="S27" s="0">
-        <v>32.567795553991864</v>
+        <v>32.567795553991871</v>
       </c>
       <c r="T27" s="0">
         <v>0</v>
       </c>
       <c r="U27" s="0">
-        <v>-5.1906618011519194e-15</v>
+        <v>-7.0057714803826007e-15</v>
       </c>
       <c r="V27" s="0">
-        <v>5.1906618011519194e-15</v>
+        <v>7.0057714803826007e-15</v>
       </c>
       <c r="W27" s="0">
         <v>0</v>
@@ -2576,13 +2663,13 @@
         <v>0.55438822243372765</v>
       </c>
       <c r="AA27" s="0">
-        <v>-1.000000000001563</v>
+        <v>-1.0000000000021096</v>
       </c>
       <c r="AB27" s="0">
         <v>-1.2008890769559946</v>
       </c>
       <c r="AC27" s="0">
-        <v>1.000000000001563</v>
+        <v>1.0000000000021096</v>
       </c>
     </row>
     <row r="28">
@@ -2590,22 +2677,22 @@
         <v>2.6000000000000001</v>
       </c>
       <c r="B28" s="0">
-        <v>0.60303190882759217</v>
+        <v>0.60303190882759206</v>
       </c>
       <c r="C28" s="0">
-        <v>0.60303190882759383</v>
+        <v>0.60303190882759394</v>
       </c>
       <c r="D28" s="0">
-        <v>0.60303190882759838</v>
+        <v>0.60303190882759861</v>
       </c>
       <c r="E28" s="0">
-        <v>-1.2495327633372981</v>
+        <v>-1.2495327633386208</v>
       </c>
       <c r="F28" s="0">
-        <v>-1.2495327633486186</v>
+        <v>-1.2495327633478925</v>
       </c>
       <c r="G28" s="0">
-        <v>-1.2495327633625237</v>
+        <v>-1.2495327633619868</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -2626,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>0.00038934453992718398</v>
+        <v>0.00038934453992849787</v>
       </c>
       <c r="O28" s="0">
-        <v>0.00038934453996120055</v>
+        <v>0.00038934453996297691</v>
       </c>
       <c r="P28" s="0">
-        <v>0.00038934453998889466</v>
+        <v>0.00038934453998565853</v>
       </c>
       <c r="Q28" s="0">
-        <v>44.210451893402485</v>
+        <v>44.210451893402471</v>
       </c>
       <c r="R28" s="0">
-        <v>44.210451893402954</v>
+        <v>44.210451893402976</v>
       </c>
       <c r="S28" s="0">
-        <v>44.210451893404233</v>
+        <v>44.210451893404269</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -2662,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.60303190882759217</v>
+        <v>0.60303190882759206</v>
       </c>
       <c r="AA28" s="0">
         <v>-1</v>
       </c>
       <c r="AB28" s="0">
-        <v>-1.249532763349859</v>
+        <v>-1.2495327633498587</v>
       </c>
       <c r="AC28" s="0">
         <v>1</v>
@@ -2679,28 +2766,28 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="B29" s="0">
-        <v>0.65062212449617218</v>
+        <v>0.65062212449617207</v>
       </c>
       <c r="C29" s="0">
-        <v>0.65062212449617218</v>
+        <v>0.65062212449617207</v>
       </c>
       <c r="D29" s="0">
-        <v>0.65062212449617507</v>
+        <v>0.65062212449617518</v>
       </c>
       <c r="E29" s="0">
-        <v>-1.2971229790156982</v>
+        <v>-1.2971229790137655</v>
       </c>
       <c r="F29" s="0">
         <v>-1.2971229790266068</v>
       </c>
       <c r="G29" s="0">
-        <v>-1.2971229790755237</v>
+        <v>-1.2971229790773871</v>
       </c>
       <c r="H29" s="0">
-        <v>-1.3695542265541342e-15</v>
+        <v>-1.0669505774367521e-15</v>
       </c>
       <c r="I29" s="0">
-        <v>1.3695542265541342e-15</v>
+        <v>1.0669505774367521e-15</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -2715,22 +2802,22 @@
         <v>0</v>
       </c>
       <c r="N29" s="0">
-        <v>0.00028871686853023862</v>
+        <v>0.00028871686852685813</v>
       </c>
       <c r="O29" s="0">
         <v>0.00028871686861897672</v>
       </c>
       <c r="P29" s="0">
-        <v>0.00028871686863876552</v>
+        <v>0.00028871686864227145</v>
       </c>
       <c r="Q29" s="0">
-        <v>59.619301550448711</v>
+        <v>59.619301550448682</v>
       </c>
       <c r="R29" s="0">
-        <v>59.619301550448711</v>
+        <v>59.619301550448682</v>
       </c>
       <c r="S29" s="0">
-        <v>59.619301550449812</v>
+        <v>59.61930155044984</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -2742,25 +2829,25 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>-5.1303380741041178e-13</v>
+        <v>-3.9967874688565879e-13</v>
       </c>
       <c r="X29" s="0">
-        <v>5.1303380741041178e-13</v>
+        <v>3.9967874688565879e-13</v>
       </c>
       <c r="Y29" s="0">
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>0.65062212449617218</v>
+        <v>0.65062212449617207</v>
       </c>
       <c r="AA29" s="0">
-        <v>-1.0000000000000013</v>
+        <v>-1.0000000000000011</v>
       </c>
       <c r="AB29" s="0">
-        <v>-1.2971229790184391</v>
+        <v>-1.2971229790184389</v>
       </c>
       <c r="AC29" s="0">
-        <v>1.0000000000000013</v>
+        <v>1.0000000000000011</v>
       </c>
     </row>
     <row r="30">
@@ -2768,88 +2855,88 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="B30" s="0">
-        <v>0.6970412363198818</v>
+        <v>0.69704123631988169</v>
       </c>
       <c r="C30" s="0">
-        <v>0.69704123631989756</v>
+        <v>0.69704123631989789</v>
       </c>
       <c r="D30" s="0">
-        <v>0.69704123631989756</v>
+        <v>0.69704123631989789</v>
       </c>
       <c r="E30" s="0">
-        <v>-1.3435420908346258</v>
+        <v>-1.3435420908390394</v>
       </c>
       <c r="F30" s="0">
-        <v>-1.3435420908346258</v>
+        <v>-1.3435420908390394</v>
       </c>
       <c r="G30" s="0">
-        <v>-1.3435420908476943</v>
+        <v>-1.3435420908552882</v>
       </c>
       <c r="H30" s="0">
         <v>0</v>
       </c>
       <c r="I30" s="0">
-        <v>-9.5052475378824126e-16</v>
+        <v>-8.5017518550670204e-16</v>
       </c>
       <c r="J30" s="0">
-        <v>9.5052475378824126e-16</v>
+        <v>8.5017518550670204e-16</v>
       </c>
       <c r="K30" s="0">
-        <v>-1.6107555312811093e-11</v>
+        <v>-2.6115400231465049e-11</v>
       </c>
       <c r="L30" s="0">
-        <v>1.6107555312811093e-11</v>
+        <v>2.6115400231465049e-11</v>
       </c>
       <c r="M30" s="0">
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0.00021567801692830494</v>
+        <v>0.00021567801691801418</v>
       </c>
       <c r="O30" s="0">
-        <v>0.00021567801694601449</v>
+        <v>0.00021567801694003378</v>
       </c>
       <c r="P30" s="0">
-        <v>0.00021567801694601449</v>
+        <v>0.00021567801694003378</v>
       </c>
       <c r="Q30" s="0">
-        <v>79.809237391595573</v>
+        <v>79.809237391595502</v>
       </c>
       <c r="R30" s="0">
-        <v>79.809237391603517</v>
+        <v>79.809237391603631</v>
       </c>
       <c r="S30" s="0">
-        <v>79.809237391603517</v>
+        <v>79.809237391603631</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>-2.1828072193205071e-14</v>
+        <v>-3.5390152665666756e-14</v>
       </c>
       <c r="V30" s="0">
-        <v>2.1828072193205071e-14</v>
+        <v>3.5390152665666756e-14</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
       </c>
       <c r="X30" s="0">
-        <v>-4.7664655742347649e-13</v>
+        <v>-4.2632564145606016e-13</v>
       </c>
       <c r="Y30" s="0">
-        <v>4.7664655742347649e-13</v>
+        <v>4.2632564145606016e-13</v>
       </c>
       <c r="Z30" s="0">
-        <v>0.6970412363198818</v>
+        <v>0.69704123631988169</v>
       </c>
       <c r="AA30" s="0">
-        <v>-1.0000000000161076</v>
+        <v>-1.0000000000261153</v>
       </c>
       <c r="AB30" s="0">
-        <v>-1.3435420908421487</v>
+        <v>-1.3435420908421485</v>
       </c>
       <c r="AC30" s="0">
-        <v>1.0000000000161076</v>
+        <v>1.0000000000261153</v>
       </c>
     </row>
     <row r="31">
@@ -2857,28 +2944,28 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="B31" s="0">
-        <v>0.74218862586515333</v>
+        <v>0.742188625865153</v>
       </c>
       <c r="C31" s="0">
-        <v>0.74218862586515333</v>
+        <v>0.742188625865153</v>
       </c>
       <c r="D31" s="0">
-        <v>0.74218862586515644</v>
+        <v>0.7421886258651561</v>
       </c>
       <c r="E31" s="0">
-        <v>-1.3886894802934675</v>
+        <v>-1.3886894803059469</v>
       </c>
       <c r="F31" s="0">
-        <v>-1.3886894804239116</v>
+        <v>-1.3886894804226888</v>
       </c>
       <c r="G31" s="0">
-        <v>-1.3886894804521352</v>
+        <v>-1.388689480474772</v>
       </c>
       <c r="H31" s="0">
-        <v>-1.3354033157164328e-15</v>
+        <v>-1.4214638618534403e-15</v>
       </c>
       <c r="I31" s="0">
-        <v>1.3354033157164328e-15</v>
+        <v>1.4214638618534403e-15</v>
       </c>
       <c r="J31" s="0">
         <v>0</v>
@@ -2893,22 +2980,22 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>0.00016240889820878405</v>
+        <v>0.00016240889818568426</v>
       </c>
       <c r="O31" s="0">
-        <v>0.0001624088982375848</v>
+        <v>0.00016240889823883242</v>
       </c>
       <c r="P31" s="0">
-        <v>0.00016240889837069571</v>
+        <v>0.00016240889835796135</v>
       </c>
       <c r="Q31" s="0">
-        <v>105.98617585997087</v>
+        <v>105.98617585997076</v>
       </c>
       <c r="R31" s="0">
-        <v>105.98617585997087</v>
+        <v>105.98617585997076</v>
       </c>
       <c r="S31" s="0">
-        <v>105.98617585997296</v>
+        <v>105.98617585997279</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -2920,22 +3007,22 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>-8.8928617555905116e-13</v>
+        <v>-9.4659654242723768e-13</v>
       </c>
       <c r="X31" s="0">
-        <v>8.8928617555905116e-13</v>
+        <v>9.4659654242723768e-13</v>
       </c>
       <c r="Y31" s="0">
         <v>0</v>
       </c>
       <c r="Z31" s="0">
-        <v>0.74218862586515333</v>
+        <v>0.742188625865153</v>
       </c>
       <c r="AA31" s="0">
         <v>-1.0000000000000013</v>
       </c>
       <c r="AB31" s="0">
-        <v>-1.3886894803874201</v>
+        <v>-1.3886894803874199</v>
       </c>
       <c r="AC31" s="0">
         <v>1.0000000000000013</v>
@@ -2946,28 +3033,28 @@
         <v>3</v>
       </c>
       <c r="B32" s="0">
-        <v>0.78597641764576798</v>
+        <v>0.78597641764576809</v>
       </c>
       <c r="C32" s="0">
-        <v>0.78597641764576798</v>
+        <v>0.78597641764576809</v>
       </c>
       <c r="D32" s="0">
-        <v>0.78597641764577886</v>
+        <v>0.78597641764577919</v>
       </c>
       <c r="E32" s="0">
-        <v>-1.4324772721416998</v>
+        <v>-1.4324772721403547</v>
       </c>
       <c r="F32" s="0">
-        <v>-1.4324772722013555</v>
+        <v>-1.4324772721846426</v>
       </c>
       <c r="G32" s="0">
-        <v>-1.4324772723158699</v>
+        <v>-1.4324772723607269</v>
       </c>
       <c r="H32" s="0">
-        <v>-8.9278857544303899e-16</v>
+        <v>-7.4270218336664744e-16</v>
       </c>
       <c r="I32" s="0">
-        <v>8.9278857544303899e-16</v>
+        <v>7.4270218336664744e-16</v>
       </c>
       <c r="J32" s="0">
         <v>0</v>
@@ -2982,22 +3069,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>0.00012334562913382145</v>
+        <v>0.0001233456290990571</v>
       </c>
       <c r="O32" s="0">
-        <v>0.0001233456292225705</v>
+        <v>0.000123345629235523</v>
       </c>
       <c r="P32" s="0">
-        <v>0.00012334562926880378</v>
+        <v>0.00012334562926984632</v>
       </c>
       <c r="Q32" s="0">
-        <v>139.5517470596028</v>
+        <v>139.55174705960286</v>
       </c>
       <c r="R32" s="0">
-        <v>139.5517470596028</v>
+        <v>139.55174705960286</v>
       </c>
       <c r="S32" s="0">
-        <v>139.55174705961238</v>
+        <v>139.55174705961255</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -3009,25 +3096,25 @@
         <v>0</v>
       </c>
       <c r="W32" s="0">
-        <v>-7.8282334835175226e-13</v>
+        <v>-6.5122317422433293e-13</v>
       </c>
       <c r="X32" s="0">
-        <v>7.8282334835175226e-13</v>
+        <v>6.5122317422433293e-13</v>
       </c>
       <c r="Y32" s="0">
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>0.78597641764576798</v>
+        <v>0.78597641764576809</v>
       </c>
       <c r="AA32" s="0">
-        <v>-1.0000000000000009</v>
+        <v>-1.0000000000000007</v>
       </c>
       <c r="AB32" s="0">
         <v>-1.4324772721680348</v>
       </c>
       <c r="AC32" s="0">
-        <v>1.0000000000000009</v>
+        <v>1.0000000000000007</v>
       </c>
     </row>
     <row r="33">
@@ -3035,22 +3122,22 @@
         <v>3.1000000000000001</v>
       </c>
       <c r="B33" s="0">
-        <v>0.82832519966899332</v>
+        <v>0.82832519966899321</v>
       </c>
       <c r="C33" s="0">
         <v>0.82832519966901852</v>
       </c>
       <c r="D33" s="0">
-        <v>0.82832519966902107</v>
+        <v>0.82832519966902118</v>
       </c>
       <c r="E33" s="0">
-        <v>-1.4748260538636109</v>
+        <v>-1.4748260538537852</v>
       </c>
       <c r="F33" s="0">
-        <v>-1.4748260541417688</v>
+        <v>-1.4748260541244289</v>
       </c>
       <c r="G33" s="0">
-        <v>-1.4748260542388918</v>
+        <v>-1.4748260542331457</v>
       </c>
       <c r="H33" s="0">
         <v>0</v>
@@ -3071,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>9.4528857979336856e-05</v>
+        <v>9.4528857982749897e-05</v>
       </c>
       <c r="O33" s="0">
-        <v>9.4528858037022388e-05</v>
+        <v>9.452885804732136e-05</v>
       </c>
       <c r="P33" s="0">
-        <v>9.4528858202232085e-05</v>
+        <v>9.4528858208068033e-05</v>
       </c>
       <c r="Q33" s="0">
-        <v>182.09357879252633</v>
+        <v>182.09357879252619</v>
       </c>
       <c r="R33" s="0">
-        <v>182.09357879255518</v>
+        <v>182.09357879255526</v>
       </c>
       <c r="S33" s="0">
-        <v>182.09357879255808</v>
+        <v>182.09357879255825</v>
       </c>
       <c r="T33" s="0">
         <v>0</v>
@@ -3107,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="0">
-        <v>0.82832519966899332</v>
+        <v>0.82832519966899321</v>
       </c>
       <c r="AA33" s="0">
         <v>-1</v>
@@ -3124,28 +3211,28 @@
         <v>3.2000000000000002</v>
       </c>
       <c r="B34" s="0">
-        <v>0.86915985723394762</v>
+        <v>0.86915985723394773</v>
       </c>
       <c r="C34" s="0">
-        <v>0.86915985723394762</v>
+        <v>0.86915985723394773</v>
       </c>
       <c r="D34" s="0">
-        <v>0.86915985723395073</v>
+        <v>0.86915985723395084</v>
       </c>
       <c r="E34" s="0">
-        <v>-1.5156607115291083</v>
+        <v>-1.5156607115483614</v>
       </c>
       <c r="F34" s="0">
-        <v>-1.5156607118832865</v>
+        <v>-1.5156607118791605</v>
       </c>
       <c r="G34" s="0">
-        <v>-1.5156607118832865</v>
+        <v>-1.5156607118791605</v>
       </c>
       <c r="H34" s="0">
-        <v>-4.9523438932412737e-15</v>
+        <v>-5.0530067415672807e-15</v>
       </c>
       <c r="I34" s="0">
-        <v>4.9523438932412737e-15</v>
+        <v>5.0530067415672807e-15</v>
       </c>
       <c r="J34" s="0">
         <v>0</v>
@@ -3154,58 +3241,58 @@
         <v>0</v>
       </c>
       <c r="L34" s="0">
-        <v>-1.0993957805895042e-10</v>
+        <v>-6.8582396882345221e-11</v>
       </c>
       <c r="M34" s="0">
-        <v>1.0993957805895042e-10</v>
+        <v>6.8582396882345221e-11</v>
       </c>
       <c r="N34" s="0">
-        <v>7.3136930354380435e-05</v>
+        <v>7.3136930356276406e-05</v>
       </c>
       <c r="O34" s="0">
-        <v>7.3136930354380435e-05</v>
+        <v>7.3136930356276406e-05</v>
       </c>
       <c r="P34" s="0">
-        <v>7.3136930517136989e-05</v>
+        <v>7.313693050828952e-05</v>
       </c>
       <c r="Q34" s="0">
-        <v>235.35439560603925</v>
+        <v>235.35439560603953</v>
       </c>
       <c r="R34" s="0">
-        <v>235.35439560603925</v>
+        <v>235.35439560603953</v>
       </c>
       <c r="S34" s="0">
-        <v>235.35439560604397</v>
+        <v>235.35439560604405</v>
       </c>
       <c r="T34" s="0">
-        <v>-5.0520851614673362e-14</v>
+        <v>-3.1515866783694107e-14</v>
       </c>
       <c r="U34" s="0">
-        <v>5.0520851614673362e-14</v>
+        <v>3.1515866783694107e-14</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
       </c>
       <c r="W34" s="0">
-        <v>-7.3234037296226017e-12</v>
+        <v>-7.4722614613869985e-12</v>
       </c>
       <c r="X34" s="0">
-        <v>7.3234037296226017e-12</v>
+        <v>7.4722614613869985e-12</v>
       </c>
       <c r="Y34" s="0">
         <v>0</v>
       </c>
       <c r="Z34" s="0">
-        <v>0.86915985723394762</v>
+        <v>0.86915985723394773</v>
       </c>
       <c r="AA34" s="0">
-        <v>-1.0000000001099396</v>
+        <v>-1.0000000000685825</v>
       </c>
       <c r="AB34" s="0">
         <v>-1.5156607117562144</v>
       </c>
       <c r="AC34" s="0">
-        <v>1.0000000001099396</v>
+        <v>1.0000000000685825</v>
       </c>
     </row>
     <row r="35">
@@ -3213,28 +3300,28 @@
         <v>3.3000000000000003</v>
       </c>
       <c r="B35" s="0">
-        <v>0.90840551754532606</v>
+        <v>0.90840551754532617</v>
       </c>
       <c r="C35" s="0">
-        <v>0.90840551754532606</v>
+        <v>0.90840551754532617</v>
       </c>
       <c r="D35" s="0">
         <v>0.90840551754535126</v>
       </c>
       <c r="E35" s="0">
-        <v>-1.5549063718047773</v>
+        <v>-1.5549063717759588</v>
       </c>
       <c r="F35" s="0">
-        <v>-1.5549063720594145</v>
+        <v>-1.554906372127886</v>
       </c>
       <c r="G35" s="0">
-        <v>-1.5549063731444954</v>
+        <v>-1.5549063731343036</v>
       </c>
       <c r="H35" s="0">
-        <v>-6.1561749296466391e-16</v>
+        <v>-6.5317684639028409e-16</v>
       </c>
       <c r="I35" s="0">
-        <v>6.1561749296466391e-16</v>
+        <v>6.5317684639028409e-16</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -3249,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>5.7153788595760287e-05</v>
+        <v>5.7153788599420316e-05</v>
       </c>
       <c r="O35" s="0">
-        <v>5.7153788985421382e-05</v>
+        <v>5.7153788960832815e-05</v>
       </c>
       <c r="P35" s="0">
-        <v>5.7153789076863644e-05</v>
+        <v>5.7153789087212618e-05</v>
       </c>
       <c r="Q35" s="0">
-        <v>301.17159964765608</v>
+        <v>301.17159964765631</v>
       </c>
       <c r="R35" s="0">
-        <v>301.17159964765608</v>
+        <v>301.17159964765631</v>
       </c>
       <c r="S35" s="0">
         <v>301.17159964770383</v>
@@ -3276,22 +3363,22 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>-1.1649434288710381e-12</v>
+        <v>-1.2360176307347806e-12</v>
       </c>
       <c r="X35" s="0">
-        <v>1.1649434288710381e-12</v>
+        <v>1.2360176307347806e-12</v>
       </c>
       <c r="Y35" s="0">
         <v>0</v>
       </c>
       <c r="Z35" s="0">
-        <v>0.90840551754532606</v>
+        <v>0.90840551754532617</v>
       </c>
       <c r="AA35" s="0">
         <v>-1.0000000000000007</v>
       </c>
       <c r="AB35" s="0">
-        <v>-1.5549063720675929</v>
+        <v>-1.5549063720675931</v>
       </c>
       <c r="AC35" s="0">
         <v>1.0000000000000007</v>
@@ -3305,19 +3392,19 @@
         <v>0.94598350925260288</v>
       </c>
       <c r="C36" s="0">
-        <v>0.9459835092526383</v>
+        <v>0.94598350925263852</v>
       </c>
       <c r="D36" s="0">
-        <v>0.94598350925263919</v>
+        <v>0.94598350925263908</v>
       </c>
       <c r="E36" s="0">
-        <v>-1.5924843636962451</v>
+        <v>-1.5924843637154713</v>
       </c>
       <c r="F36" s="0">
-        <v>-1.5924843638548407</v>
+        <v>-1.5924843637154713</v>
       </c>
       <c r="G36" s="0">
-        <v>-1.5924843646302576</v>
+        <v>-1.5924843646040305</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -3329,40 +3416,40 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>0</v>
+        <v>-1.1999474990478922e-10</v>
       </c>
       <c r="L36" s="0">
-        <v>0</v>
+        <v>1.1999474990478922e-10</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>4.5134015952908582e-05</v>
+        <v>4.5134015960346229e-05</v>
       </c>
       <c r="O36" s="0">
-        <v>4.5134016172805545e-05</v>
+        <v>4.5134016212328631e-05</v>
       </c>
       <c r="P36" s="0">
-        <v>4.5134016217780894e-05</v>
+        <v>4.5134016212328631e-05</v>
       </c>
       <c r="Q36" s="0">
-        <v>381.37749539562776</v>
+        <v>381.37749539562799</v>
       </c>
       <c r="R36" s="0">
-        <v>381.37749539571286</v>
+        <v>381.3774953957132</v>
       </c>
       <c r="S36" s="0">
-        <v>381.37749539571496</v>
+        <v>381.3774953957145</v>
       </c>
       <c r="T36" s="0">
         <v>0</v>
       </c>
       <c r="U36" s="0">
-        <v>0</v>
+        <v>-3.4028757652032159e-14</v>
       </c>
       <c r="V36" s="0">
-        <v>0</v>
+        <v>3.4028757652032159e-14</v>
       </c>
       <c r="W36" s="0">
         <v>0</v>
@@ -3377,13 +3464,13 @@
         <v>0.94598350925260288</v>
       </c>
       <c r="AA36" s="0">
-        <v>-1</v>
+        <v>-1.0000000001199947</v>
       </c>
       <c r="AB36" s="0">
         <v>-1.5924843637748696</v>
       </c>
       <c r="AC36" s="0">
-        <v>1</v>
+        <v>1.0000000001199947</v>
       </c>
     </row>
     <row r="37">
@@ -3394,61 +3481,61 @@
         <v>0.98180716281774816</v>
       </c>
       <c r="C37" s="0">
-        <v>0.98180716281778357</v>
+        <v>0.98180716281778335</v>
       </c>
       <c r="D37" s="0">
-        <v>0.98180716281778357</v>
+        <v>0.98180716281778335</v>
       </c>
       <c r="E37" s="0">
-        <v>-1.628308016836743</v>
+        <v>-1.628308016838008</v>
       </c>
       <c r="F37" s="0">
-        <v>-1.6283080177191431</v>
+        <v>-1.6283080179336096</v>
       </c>
       <c r="G37" s="0">
-        <v>-1.6283080177191431</v>
+        <v>-1.6283080179336096</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>-6.9401278288763264e-16</v>
+        <v>-4.1690610918236763e-16</v>
       </c>
       <c r="J37" s="0">
-        <v>6.9401278288763264e-16</v>
+        <v>4.1690610918236763e-16</v>
       </c>
       <c r="K37" s="0">
         <v>0</v>
       </c>
       <c r="L37" s="0">
-        <v>-4.6509458452996568e-10</v>
+        <v>-4.5181776933206777e-10</v>
       </c>
       <c r="M37" s="0">
-        <v>4.6509458452996568e-10</v>
+        <v>4.5181776933206777e-10</v>
       </c>
       <c r="N37" s="0">
-        <v>3.603712097773527e-05</v>
+        <v>3.6037120929174132e-05</v>
       </c>
       <c r="O37" s="0">
-        <v>3.603712097773527e-05</v>
+        <v>3.6037120929174132e-05</v>
       </c>
       <c r="P37" s="0">
-        <v>3.6037121177535265e-05</v>
+        <v>3.6037121177248866e-05</v>
       </c>
       <c r="Q37" s="0">
-        <v>477.64908921026984</v>
+        <v>477.64908921026949</v>
       </c>
       <c r="R37" s="0">
-        <v>477.64908921037613</v>
+        <v>477.64908921037539</v>
       </c>
       <c r="S37" s="0">
-        <v>477.64908921037613</v>
+        <v>477.64908921037539</v>
       </c>
       <c r="T37" s="0">
-        <v>-1.0531039428111486e-13</v>
+        <v>-1.0230415263928154e-13</v>
       </c>
       <c r="U37" s="0">
-        <v>1.0531039428111486e-13</v>
+        <v>1.0230415263928154e-13</v>
       </c>
       <c r="V37" s="0">
         <v>0</v>
@@ -3457,22 +3544,22 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>-2.0828418345463063e-12</v>
+        <v>-1.2512009961400927e-12</v>
       </c>
       <c r="Y37" s="0">
-        <v>2.0828418345463063e-12</v>
+        <v>1.2512009961400927e-12</v>
       </c>
       <c r="Z37" s="0">
         <v>0.98180716281774816</v>
       </c>
       <c r="AA37" s="0">
-        <v>-1.0000000004650946</v>
+        <v>-1.0000000004518177</v>
       </c>
       <c r="AB37" s="0">
         <v>-1.6283080173400148</v>
       </c>
       <c r="AC37" s="0">
-        <v>1.0000000004650946</v>
+        <v>1.0000000004518177</v>
       </c>
     </row>
     <row r="38">
@@ -3489,13 +3576,13 @@
         <v>1.0157771974151915</v>
       </c>
       <c r="E38" s="0">
-        <v>-1.6622780527524328</v>
+        <v>-1.662278052570243</v>
       </c>
       <c r="F38" s="0">
-        <v>-1.6622780536274431</v>
+        <v>-1.6622780538063333</v>
       </c>
       <c r="G38" s="0">
-        <v>-1.6622780536274431</v>
+        <v>-1.6622780538063333</v>
       </c>
       <c r="H38" s="0">
         <v>0</v>
@@ -3510,34 +3597,34 @@
         <v>0</v>
       </c>
       <c r="L38" s="0">
-        <v>-1.0367967646297766e-09</v>
+        <v>-6.5247873371260862e-10</v>
       </c>
       <c r="M38" s="0">
-        <v>1.0367967646297766e-09</v>
+        <v>6.5247873371260862e-10</v>
       </c>
       <c r="N38" s="0">
-        <v>2.9110808023530664e-05</v>
+        <v>2.9110807990810107e-05</v>
       </c>
       <c r="O38" s="0">
-        <v>2.9110808023530664e-05</v>
+        <v>2.9110807990810107e-05</v>
       </c>
       <c r="P38" s="0">
-        <v>2.9110808183577621e-05</v>
+        <v>2.9110808216901659e-05</v>
       </c>
       <c r="Q38" s="0">
-        <v>591.29577774280961</v>
+        <v>591.29577774280915</v>
       </c>
       <c r="R38" s="0">
-        <v>591.29577774282257</v>
+        <v>591.29577774282268</v>
       </c>
       <c r="S38" s="0">
-        <v>591.29577774305574</v>
+        <v>591.29577774305596</v>
       </c>
       <c r="T38" s="0">
-        <v>-1.8963904600266289e-13</v>
+        <v>-1.1934397239693342e-13</v>
       </c>
       <c r="U38" s="0">
-        <v>1.8963904600266289e-13</v>
+        <v>1.1934397239693342e-13</v>
       </c>
       <c r="V38" s="0">
         <v>0</v>
@@ -3555,13 +3642,13 @@
         <v>1.0157771974151251</v>
       </c>
       <c r="AA38" s="0">
-        <v>-1.0000000010367969</v>
+        <v>-1.0000000006524787</v>
       </c>
       <c r="AB38" s="0">
         <v>-1.6622780519373919</v>
       </c>
       <c r="AC38" s="0">
-        <v>1.0000000010367969</v>
+        <v>1.0000000006524787</v>
       </c>
     </row>
     <row r="39">
@@ -3575,22 +3662,22 @@
         <v>1.0477763372947344</v>
       </c>
       <c r="D39" s="0">
-        <v>1.0477763372947497</v>
+        <v>1.0477763372947495</v>
       </c>
       <c r="E39" s="0">
-        <v>-1.6942771863986887</v>
+        <v>-1.6942771867007258</v>
       </c>
       <c r="F39" s="0">
-        <v>-1.6942771925707165</v>
+        <v>-1.6942771925384057</v>
       </c>
       <c r="G39" s="0">
-        <v>-1.6942771977603399</v>
+        <v>-1.6942771974260011</v>
       </c>
       <c r="H39" s="0">
-        <v>-1.2722650117718636e-14</v>
+        <v>-1.2807096289507061e-14</v>
       </c>
       <c r="I39" s="0">
-        <v>1.2722650117718636e-14</v>
+        <v>1.2807096289507061e-14</v>
       </c>
       <c r="J39" s="0">
         <v>0</v>
@@ -3605,22 +3692,22 @@
         <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>2.3808745298640704e-05</v>
+        <v>2.3808745348656025e-05</v>
       </c>
       <c r="O39" s="0">
-        <v>2.380874607498118e-05</v>
+        <v>2.3808746079814678e-05</v>
       </c>
       <c r="P39" s="0">
-        <v>2.3808746998284196e-05</v>
+        <v>2.3808746953101036e-05</v>
       </c>
       <c r="Q39" s="0">
-        <v>722.97373066407567</v>
+        <v>722.97373066407545</v>
       </c>
       <c r="R39" s="0">
-        <v>722.97373066407567</v>
+        <v>722.97373066407545</v>
       </c>
       <c r="S39" s="0">
-        <v>722.97373066414468</v>
+        <v>722.97373066414457</v>
       </c>
       <c r="T39" s="0">
         <v>0</v>
@@ -3632,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="0">
-        <v>-5.7793629533892756e-11</v>
+        <v>-5.8177232849455021e-11</v>
       </c>
       <c r="X39" s="0">
-        <v>5.7793629533892756e-11</v>
+        <v>5.8177232849455021e-11</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
@@ -3644,13 +3731,13 @@
         <v>1.0477763372947344</v>
       </c>
       <c r="AA39" s="0">
-        <v>-1.0000000000000127</v>
+        <v>-1.0000000000000129</v>
       </c>
       <c r="AB39" s="0">
         <v>-1.6942771918170012</v>
       </c>
       <c r="AC39" s="0">
-        <v>1.0000000000000127</v>
+        <v>1.0000000000000129</v>
       </c>
     </row>
     <row r="40">
@@ -3667,13 +3754,13 @@
         <v>1.0776626470570017</v>
       </c>
       <c r="E40" s="0">
-        <v>-1.724163501482596</v>
+        <v>-1.7241635019942119</v>
       </c>
       <c r="F40" s="0">
-        <v>-1.7241635046177459</v>
+        <v>-1.7241635050452973</v>
       </c>
       <c r="G40" s="0">
-        <v>-1.7241635046177459</v>
+        <v>-1.7241635050452973</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
@@ -3688,34 +3775,34 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>-8.3649387413738697e-09</v>
+        <v>-8.9992421979266746e-09</v>
       </c>
       <c r="M40" s="0">
-        <v>8.3649387413738697e-09</v>
+        <v>8.9992421979266746e-09</v>
       </c>
       <c r="N40" s="0">
-        <v>1.9732593452835505e-05</v>
+        <v>1.9732593399826191e-05</v>
       </c>
       <c r="O40" s="0">
-        <v>1.9732593452835505e-05</v>
+        <v>1.9732593399826191e-05</v>
       </c>
       <c r="P40" s="0">
-        <v>1.9732593841542523e-05</v>
+        <v>1.9732593778110583e-05</v>
       </c>
       <c r="Q40" s="0">
-        <v>872.31806433792883</v>
+        <v>872.31806433792917</v>
       </c>
       <c r="R40" s="0">
-        <v>872.31806433797669</v>
+        <v>872.31806433797601</v>
       </c>
       <c r="S40" s="0">
-        <v>872.31806433863517</v>
+        <v>872.31806433863562</v>
       </c>
       <c r="T40" s="0">
-        <v>-1.0371147275400565e-12</v>
+        <v>-1.1157579133166632e-12</v>
       </c>
       <c r="U40" s="0">
-        <v>1.0371147275400565e-12</v>
+        <v>1.1157579133166632e-12</v>
       </c>
       <c r="V40" s="0">
         <v>0</v>
@@ -3733,13 +3820,13 @@
         <v>1.0776626470568729</v>
       </c>
       <c r="AA40" s="0">
-        <v>-1.0000000083649387</v>
+        <v>-1.0000000089992422</v>
       </c>
       <c r="AB40" s="0">
         <v>-1.7241635015791397</v>
       </c>
       <c r="AC40" s="0">
-        <v>1.0000000083649387</v>
+        <v>1.0000000089992422</v>
       </c>
     </row>
     <row r="41">
@@ -3747,28 +3834,28 @@
         <v>3.9000000000000004</v>
       </c>
       <c r="B41" s="0">
-        <v>1.1052608263772852</v>
+        <v>1.1052608263772854</v>
       </c>
       <c r="C41" s="0">
-        <v>1.1052608263772852</v>
+        <v>1.1052608263772854</v>
       </c>
       <c r="D41" s="0">
-        <v>1.1052608263773245</v>
+        <v>1.1052608263773243</v>
       </c>
       <c r="E41" s="0">
-        <v>-1.7517616685866932</v>
+        <v>-1.7517616703462908</v>
       </c>
       <c r="F41" s="0">
-        <v>-1.7517616824743154</v>
+        <v>-1.7517616820400235</v>
       </c>
       <c r="G41" s="0">
-        <v>-1.7517616922815233</v>
+        <v>-1.7517616913166469</v>
       </c>
       <c r="H41" s="0">
-        <v>-2.0923248282711857e-15</v>
+        <v>-1.3001294058148744e-15</v>
       </c>
       <c r="I41" s="0">
-        <v>2.0923248282711857e-15</v>
+        <v>1.3001294058148744e-15</v>
       </c>
       <c r="J41" s="0">
         <v>0</v>
@@ -3783,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>1.6591113676608018e-05</v>
+        <v>1.6591113777191608e-05</v>
       </c>
       <c r="O41" s="0">
-        <v>1.6591114698960851e-05</v>
+        <v>1.6591114744233654e-05</v>
       </c>
       <c r="P41" s="0">
-        <v>1.6591116146676753e-05</v>
+        <v>1.6591115963247398e-05</v>
       </c>
       <c r="Q41" s="0">
-        <v>1037.4889328287286</v>
+        <v>1037.488932828729</v>
       </c>
       <c r="R41" s="0">
-        <v>1037.4889328287286</v>
+        <v>1037.488932828729</v>
       </c>
       <c r="S41" s="0">
-        <v>1037.4889328289839</v>
+        <v>1037.488932828983</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
@@ -3810,25 +3897,25 @@
         <v>0</v>
       </c>
       <c r="W41" s="0">
-        <v>-1.3639311547871536e-11</v>
+        <v>-8.4751993470871486e-12</v>
       </c>
       <c r="X41" s="0">
-        <v>1.3639311547871536e-11</v>
+        <v>8.4751993470871486e-12</v>
       </c>
       <c r="Y41" s="0">
         <v>0</v>
       </c>
       <c r="Z41" s="0">
-        <v>1.1052608263772852</v>
+        <v>1.1052608263772854</v>
       </c>
       <c r="AA41" s="0">
-        <v>-1.000000000000002</v>
+        <v>-1.0000000000000013</v>
       </c>
       <c r="AB41" s="0">
-        <v>-1.751761680899552</v>
+        <v>-1.7517616808995522</v>
       </c>
       <c r="AC41" s="0">
-        <v>1.000000000000002</v>
+        <v>1.0000000000000013</v>
       </c>
     </row>
     <row r="42">
@@ -3842,16 +3929,16 @@
         <v>1.130350280795076</v>
       </c>
       <c r="D42" s="0">
-        <v>1.1303502807950916</v>
+        <v>1.1303502807950918</v>
       </c>
       <c r="E42" s="0">
-        <v>-1.7768511327551275</v>
+        <v>-1.7768511350253198</v>
       </c>
       <c r="F42" s="0">
-        <v>-1.7768511452749938</v>
+        <v>-1.7768511435084386</v>
       </c>
       <c r="G42" s="0">
-        <v>-1.7768511452749938</v>
+        <v>-1.7768511435084386</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -3866,34 +3953,34 @@
         <v>0</v>
       </c>
       <c r="L42" s="0">
-        <v>-1.5493297551366883e-08</v>
+        <v>-1.4651881172181967e-08</v>
       </c>
       <c r="M42" s="0">
-        <v>1.5493297551366883e-08</v>
+        <v>1.4651881172181967e-08</v>
       </c>
       <c r="N42" s="0">
-        <v>1.4171395746068884e-05</v>
+        <v>1.417139590336563e-05</v>
       </c>
       <c r="O42" s="0">
-        <v>1.4171395746068884e-05</v>
+        <v>1.417139590336563e-05</v>
       </c>
       <c r="P42" s="0">
-        <v>1.417139686085673e-05</v>
+        <v>1.4171396658715387e-05</v>
       </c>
       <c r="Q42" s="0">
-        <v>1214.6366727207735</v>
+        <v>1214.636672720774</v>
       </c>
       <c r="R42" s="0">
-        <v>1214.636672721781</v>
+        <v>1214.6366727217815</v>
       </c>
       <c r="S42" s="0">
-        <v>1214.6366727219011</v>
+        <v>1214.6366727219017</v>
       </c>
       <c r="T42" s="0">
-        <v>-1.379546539658821e-12</v>
+        <v>-1.3046255729561041e-12</v>
       </c>
       <c r="U42" s="0">
-        <v>1.379546539658821e-12</v>
+        <v>1.3046255729561041e-12</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -3911,13 +3998,13 @@
         <v>1.1303502807949439</v>
       </c>
       <c r="AA42" s="0">
-        <v>-1.0000000154932975</v>
+        <v>-1.0000000146518813</v>
       </c>
       <c r="AB42" s="0">
         <v>-1.7768511353172107</v>
       </c>
       <c r="AC42" s="0">
-        <v>1.0000000154932975</v>
+        <v>1.0000000146518813</v>
       </c>
     </row>
     <row r="43">
@@ -3925,28 +4012,28 @@
         <v>4.1000000000000005</v>
       </c>
       <c r="B43" s="0">
-        <v>1.1526480327604567</v>
+        <v>1.1526480327604569</v>
       </c>
       <c r="C43" s="0">
-        <v>1.1526480327604567</v>
+        <v>1.1526480327604569</v>
       </c>
       <c r="D43" s="0">
-        <v>1.1526480327605817</v>
+        <v>1.1526480327605819</v>
       </c>
       <c r="E43" s="0">
-        <v>-1.7991488769582968</v>
+        <v>-1.7991488763998871</v>
       </c>
       <c r="F43" s="0">
-        <v>-1.7991488885116809</v>
+        <v>-1.799148890979922</v>
       </c>
       <c r="G43" s="0">
-        <v>-1.7991488976663883</v>
+        <v>-1.7991488944433969</v>
       </c>
       <c r="H43" s="0">
-        <v>-5.4061503080918737e-15</v>
+        <v>-5.3107555447543546e-15</v>
       </c>
       <c r="I43" s="0">
-        <v>5.4061503080918737e-15</v>
+        <v>5.3107555447543546e-15</v>
       </c>
       <c r="J43" s="0">
         <v>0</v>
@@ -3961,22 +4048,22 @@
         <v>0</v>
       </c>
       <c r="N43" s="0">
-        <v>1.2318776445915737e-05</v>
+        <v>1.2318776695378999e-05</v>
       </c>
       <c r="O43" s="0">
-        <v>1.2318777154500661e-05</v>
+        <v>1.2318776963455958e-05</v>
       </c>
       <c r="P43" s="0">
-        <v>1.2318778048746032e-05</v>
+        <v>1.2318778091967608e-05</v>
       </c>
       <c r="Q43" s="0">
-        <v>1397.3057313221298</v>
+        <v>1397.3057313221307</v>
       </c>
       <c r="R43" s="0">
-        <v>1397.3057313221298</v>
+        <v>1397.3057313221307</v>
       </c>
       <c r="S43" s="0">
-        <v>1397.3057313232271</v>
+        <v>1397.3057313232293</v>
       </c>
       <c r="T43" s="0">
         <v>0</v>
@@ -3988,22 +4075,22 @@
         <v>0</v>
       </c>
       <c r="W43" s="0">
-        <v>-4.7463463359249871e-11</v>
+        <v>-4.6625942092488688e-11</v>
       </c>
       <c r="X43" s="0">
-        <v>4.7463463359249871e-11</v>
+        <v>4.6625942092488688e-11</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
       </c>
       <c r="Z43" s="0">
-        <v>1.1526480327604567</v>
+        <v>1.1526480327604569</v>
       </c>
       <c r="AA43" s="0">
         <v>-1.0000000000000053</v>
       </c>
       <c r="AB43" s="0">
-        <v>-1.7991488872827235</v>
+        <v>-1.7991488872827237</v>
       </c>
       <c r="AC43" s="0">
         <v>1.0000000000000053</v>
@@ -4017,19 +4104,19 @@
         <v>1.1717831401302858</v>
       </c>
       <c r="C44" s="0">
-        <v>1.1717831401303143</v>
+        <v>1.171783140130314</v>
       </c>
       <c r="D44" s="0">
-        <v>1.1717831401303416</v>
+        <v>1.1717831401303413</v>
       </c>
       <c r="E44" s="0">
-        <v>-1.8182839969839706</v>
+        <v>-1.8182839971775988</v>
       </c>
       <c r="F44" s="0">
-        <v>-1.8182840222070866</v>
+        <v>-1.8182840238675335</v>
       </c>
       <c r="G44" s="0">
-        <v>-1.8182840222070866</v>
+        <v>-1.8182840238675335</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
@@ -4044,34 +4131,34 @@
         <v>0</v>
       </c>
       <c r="L44" s="0">
-        <v>-1.1469828997011522e-08</v>
+        <v>-7.2237892221017346e-09</v>
       </c>
       <c r="M44" s="0">
-        <v>1.1469828997011522e-08</v>
+        <v>7.2237892221017346e-09</v>
       </c>
       <c r="N44" s="0">
-        <v>1.0923267043218261e-05</v>
+        <v>1.0923266929256974e-05</v>
       </c>
       <c r="O44" s="0">
-        <v>1.0923267043218261e-05</v>
+        <v>1.0923266929256974e-05</v>
       </c>
       <c r="P44" s="0">
-        <v>1.092326877435431e-05</v>
+        <v>1.0923268761065037e-05</v>
       </c>
       <c r="Q44" s="0">
-        <v>1575.8193043864642</v>
+        <v>1575.819304386466</v>
       </c>
       <c r="R44" s="0">
-        <v>1575.8193043867452</v>
+        <v>1575.8193043867443</v>
       </c>
       <c r="S44" s="0">
-        <v>1575.8193043870167</v>
+        <v>1575.8193043870156</v>
       </c>
       <c r="T44" s="0">
-        <v>-7.8720775264934495e-13</v>
+        <v>-4.957896775354702e-13</v>
       </c>
       <c r="U44" s="0">
-        <v>7.8720775264934495e-13</v>
+        <v>4.957896775354702e-13</v>
       </c>
       <c r="V44" s="0">
         <v>0</v>
@@ -4089,13 +4176,13 @@
         <v>1.1717831401302858</v>
       </c>
       <c r="AA44" s="0">
-        <v>-1.0000000114698291</v>
+        <v>-1.0000000072237891</v>
       </c>
       <c r="AB44" s="0">
         <v>-1.8182839946525526</v>
       </c>
       <c r="AC44" s="0">
-        <v>1.0000000114698291</v>
+        <v>1.0000000072237891</v>
       </c>
     </row>
     <row r="45">
@@ -4106,19 +4193,19 @@
         <v>1.187256551567847</v>
       </c>
       <c r="C45" s="0">
-        <v>1.187256551567895</v>
+        <v>1.1872565515678952</v>
       </c>
       <c r="D45" s="0">
-        <v>1.1872565515683784</v>
+        <v>1.1872565515683782</v>
       </c>
       <c r="E45" s="0">
-        <v>-1.8337574037925353</v>
+        <v>-1.8337574096245173</v>
       </c>
       <c r="F45" s="0">
-        <v>-1.8337574238464325</v>
+        <v>-1.8337574096245173</v>
       </c>
       <c r="G45" s="0">
-        <v>-1.8337574724917949</v>
+        <v>-1.8337574785802255</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
@@ -4130,40 +4217,40 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>0</v>
+        <v>-7.0380156199548074e-09</v>
       </c>
       <c r="L45" s="0">
-        <v>0</v>
+        <v>7.0380156199548074e-09</v>
       </c>
       <c r="M45" s="0">
         <v>0</v>
       </c>
       <c r="N45" s="0">
-        <v>9.9112705586158205e-06</v>
+        <v>9.9112701794627602e-06</v>
       </c>
       <c r="O45" s="0">
-        <v>9.9112735879745803e-06</v>
+        <v>9.9112744736353945e-06</v>
       </c>
       <c r="P45" s="0">
-        <v>9.911274836818455e-06</v>
+        <v>9.9112744736353945e-06</v>
       </c>
       <c r="Q45" s="0">
-        <v>1736.718896980472</v>
+        <v>1736.7188969804738</v>
       </c>
       <c r="R45" s="0">
-        <v>1736.7188969809977</v>
+        <v>1736.7188969809986</v>
       </c>
       <c r="S45" s="0">
-        <v>1736.7188969862721</v>
+        <v>1736.71889698627</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
       </c>
       <c r="U45" s="0">
-        <v>0</v>
+        <v>-4.3828801797773058e-13</v>
       </c>
       <c r="V45" s="0">
-        <v>0</v>
+        <v>4.3828801797773058e-13</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -4178,13 +4265,13 @@
         <v>1.187256551567847</v>
       </c>
       <c r="AA45" s="0">
-        <v>-1</v>
+        <v>-1.0000000070380157</v>
       </c>
       <c r="AB45" s="0">
         <v>-1.8337574060901138</v>
       </c>
       <c r="AC45" s="0">
-        <v>1</v>
+        <v>1.0000000070380157</v>
       </c>
     </row>
     <row r="46">
@@ -4201,79 +4288,79 @@
         <v>1.1983745956458978</v>
       </c>
       <c r="E46" s="0">
-        <v>-1.8448754547915684</v>
+        <v>-1.8448754641763883</v>
       </c>
       <c r="F46" s="0">
-        <v>-1.8448754547915684</v>
+        <v>-1.8448754641763883</v>
       </c>
       <c r="G46" s="0">
-        <v>-1.8448754902340814</v>
+        <v>-1.8448754687071127</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
       </c>
       <c r="I46" s="0">
-        <v>-3.5753002481280902e-15</v>
+        <v>-2.925790958879369e-15</v>
       </c>
       <c r="J46" s="0">
-        <v>3.5753002481280902e-15</v>
+        <v>2.925790958879369e-15</v>
       </c>
       <c r="K46" s="0">
-        <v>-2.7200390660997279e-08</v>
+        <v>-2.7957813491627579e-08</v>
       </c>
       <c r="L46" s="0">
-        <v>2.7200390660997279e-08</v>
+        <v>2.7957813491627579e-08</v>
       </c>
       <c r="M46" s="0">
         <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>9.2425330172368158e-06</v>
+        <v>9.242534267362807e-06</v>
       </c>
       <c r="O46" s="0">
-        <v>9.2425350754739297e-06</v>
+        <v>9.2425345304734191e-06</v>
       </c>
       <c r="P46" s="0">
-        <v>9.2425350754739297e-06</v>
+        <v>9.2425345304734191e-06</v>
       </c>
       <c r="Q46" s="0">
-        <v>1862.3783857091507</v>
+        <v>1862.3783857091512</v>
       </c>
       <c r="R46" s="0">
-        <v>1862.3783857115827</v>
+        <v>1862.3783857115814</v>
       </c>
       <c r="S46" s="0">
-        <v>1862.3783857115827</v>
+        <v>1862.3783857115814</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
       </c>
       <c r="U46" s="0">
-        <v>-1.5795963346592745e-12</v>
+        <v>-1.6235817221442286e-12</v>
       </c>
       <c r="V46" s="0">
-        <v>1.5795963346592745e-12</v>
+        <v>1.6235817221442286e-12</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
       </c>
       <c r="X46" s="0">
-        <v>-4.1836978325570387e-11</v>
+        <v>-3.4236635928933178e-11</v>
       </c>
       <c r="Y46" s="0">
-        <v>4.1836978325570387e-11</v>
+        <v>3.4236635928933178e-11</v>
       </c>
       <c r="Z46" s="0">
         <v>1.1983745956456902</v>
       </c>
       <c r="AA46" s="0">
-        <v>-1.0000000272003906</v>
+        <v>-1.0000000279578134</v>
       </c>
       <c r="AB46" s="0">
         <v>-1.844875450167957</v>
       </c>
       <c r="AC46" s="0">
-        <v>1.0000000272003906</v>
+        <v>1.0000000279578134</v>
       </c>
     </row>
     <row r="47">
@@ -4281,22 +4368,22 @@
         <v>4.5</v>
       </c>
       <c r="B47" s="0">
-        <v>1.2041312637741499</v>
+        <v>1.2041312637741497</v>
       </c>
       <c r="C47" s="0">
         <v>1.2041312637741515</v>
       </c>
       <c r="D47" s="0">
-        <v>1.2041312637753987</v>
+        <v>1.2041312637753985</v>
       </c>
       <c r="E47" s="0">
-        <v>-1.8506320488934165</v>
+        <v>-1.8506320562740737</v>
       </c>
       <c r="F47" s="0">
-        <v>-1.8506321205164449</v>
+        <v>-1.8506321168421691</v>
       </c>
       <c r="G47" s="0">
-        <v>-1.8506322528834034</v>
+        <v>-1.8506322560116761</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
@@ -4317,22 +4404,22 @@
         <v>0</v>
       </c>
       <c r="N47" s="0">
-        <v>8.9141970294805619e-06</v>
+        <v>8.9141968542674074e-06</v>
       </c>
       <c r="O47" s="0">
-        <v>8.9142044432976587e-06</v>
+        <v>8.9142046490923634e-06</v>
       </c>
       <c r="P47" s="0">
-        <v>8.9142084548756242e-06</v>
+        <v>8.9142080414877944e-06</v>
       </c>
       <c r="Q47" s="0">
-        <v>1930.9740900791858</v>
+        <v>1930.9740900791853</v>
       </c>
       <c r="R47" s="0">
-        <v>1930.9740900792071</v>
+        <v>1930.9740900792069</v>
       </c>
       <c r="S47" s="0">
-        <v>1930.9740900943389</v>
+        <v>1930.974090094338</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
@@ -4353,13 +4440,13 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>1.2041312637741499</v>
+        <v>1.2041312637741497</v>
       </c>
       <c r="AA47" s="0">
         <v>-1</v>
       </c>
       <c r="AB47" s="0">
-        <v>-1.8506321182964167</v>
+        <v>-1.8506321182964165</v>
       </c>
       <c r="AC47" s="0">
         <v>1</v>
@@ -4370,22 +4457,22 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="B48" s="0">
-        <v>1.2029815119870524</v>
+        <v>1.2029815119870522</v>
       </c>
       <c r="C48" s="0">
-        <v>1.2029815119870688</v>
+        <v>1.2029815119870684</v>
       </c>
       <c r="D48" s="0">
         <v>1.2029815119875473</v>
       </c>
       <c r="E48" s="0">
-        <v>-1.8494822715895465</v>
+        <v>-1.8494822787104055</v>
       </c>
       <c r="F48" s="0">
-        <v>-1.8494823707705266</v>
+        <v>-1.8494823664191911</v>
       </c>
       <c r="G48" s="0">
-        <v>-1.8494823859633476</v>
+        <v>-1.8494823926577912</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -4406,22 +4493,22 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>8.9788337737898251e-06</v>
+        <v>8.9788333961182576e-06</v>
       </c>
       <c r="O48" s="0">
-        <v>8.9788346309031336e-06</v>
+        <v>8.9788348763867021e-06</v>
       </c>
       <c r="P48" s="0">
-        <v>8.9788402262675052e-06</v>
+        <v>8.9788398245391364e-06</v>
       </c>
       <c r="Q48" s="0">
-        <v>1917.0747987353602</v>
+        <v>1917.0747987353577</v>
       </c>
       <c r="R48" s="0">
-        <v>1917.0747987355567</v>
+        <v>1917.0747987355544</v>
       </c>
       <c r="S48" s="0">
-        <v>1917.074798741322</v>
+        <v>1917.0747987413224</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -4442,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="Z48" s="0">
-        <v>1.2029815119870524</v>
+        <v>1.2029815119870522</v>
       </c>
       <c r="AA48" s="0">
         <v>-1</v>
       </c>
       <c r="AB48" s="0">
-        <v>-1.8494823665093192</v>
+        <v>-1.849482366509319</v>
       </c>
       <c r="AC48" s="0">
         <v>1</v>
@@ -4459,22 +4546,22 @@
         <v>4.7000000000000002</v>
       </c>
       <c r="B49" s="0">
-        <v>1.1923521959003805</v>
+        <v>1.1923521959003804</v>
       </c>
       <c r="C49" s="0">
         <v>1.1923521959004599</v>
       </c>
       <c r="D49" s="0">
-        <v>1.192352195900982</v>
+        <v>1.1923521959009822</v>
       </c>
       <c r="E49" s="0">
-        <v>-1.8388529245225742</v>
+        <v>-1.8388529282402728</v>
       </c>
       <c r="F49" s="0">
-        <v>-1.8388530788929223</v>
+        <v>-1.8388530730984711</v>
       </c>
       <c r="G49" s="0">
-        <v>-1.8388531081161277</v>
+        <v>-1.8388531177422081</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -4495,22 +4582,22 @@
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>9.5989692890671483e-06</v>
+        <v>9.5989687084980117e-06</v>
       </c>
       <c r="O49" s="0">
-        <v>9.5989710515802642e-06</v>
+        <v>9.5989714010558803e-06</v>
       </c>
       <c r="P49" s="0">
-        <v>9.5989803619867952e-06</v>
+        <v>9.5989801377643178e-06</v>
       </c>
       <c r="Q49" s="0">
-        <v>1793.2229279718354</v>
+        <v>1793.2229279718345</v>
       </c>
       <c r="R49" s="0">
-        <v>1793.2229279727283</v>
+        <v>1793.2229279727294</v>
       </c>
       <c r="S49" s="0">
-        <v>1793.2229279786127</v>
+        <v>1793.2229279786131</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -4531,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>1.1923521959003805</v>
+        <v>1.1923521959003804</v>
       </c>
       <c r="AA49" s="0">
         <v>-1</v>
@@ -4548,28 +4635,28 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="B50" s="0">
-        <v>1.167400121289738</v>
+        <v>1.1674001212897382</v>
       </c>
       <c r="C50" s="0">
-        <v>1.167400121289738</v>
+        <v>1.1674001212897382</v>
       </c>
       <c r="D50" s="0">
         <v>1.1674001212916241</v>
       </c>
       <c r="E50" s="0">
-        <v>-1.8139008108780004</v>
+        <v>-1.8139008128296614</v>
       </c>
       <c r="F50" s="0">
-        <v>-1.813900977594272</v>
+        <v>-1.8139009727401618</v>
       </c>
       <c r="G50" s="0">
-        <v>-1.8139010911291567</v>
+        <v>-1.8139010928324197</v>
       </c>
       <c r="H50" s="0">
-        <v>-4.1582470687951442e-15</v>
+        <v>-4.0143313415115668e-15</v>
       </c>
       <c r="I50" s="0">
-        <v>4.1582470687951442e-15</v>
+        <v>4.0143313415115668e-15</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -4584,22 +4671,22 @@
         <v>0</v>
       </c>
       <c r="N50" s="0">
-        <v>1.1228260661100646e-05</v>
+        <v>1.122826054093672e-05</v>
       </c>
       <c r="O50" s="0">
-        <v>1.1228268670903608e-05</v>
+        <v>1.1228269013357665e-05</v>
       </c>
       <c r="P50" s="0">
-        <v>1.1228280432624813e-05</v>
+        <v>1.1228280294936367e-05</v>
       </c>
       <c r="Q50" s="0">
-        <v>1533.014426848099</v>
+        <v>1533.0144268481001</v>
       </c>
       <c r="R50" s="0">
-        <v>1533.014426848099</v>
+        <v>1533.0144268481001</v>
       </c>
       <c r="S50" s="0">
-        <v>1533.0144268662662</v>
+        <v>1533.0144268662657</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -4611,25 +4698,25 @@
         <v>0</v>
       </c>
       <c r="W50" s="0">
-        <v>-4.0053124477453897e-11</v>
+        <v>-3.866689743423433e-11</v>
       </c>
       <c r="X50" s="0">
-        <v>4.0053124477453897e-11</v>
+        <v>3.866689743423433e-11</v>
       </c>
       <c r="Y50" s="0">
         <v>0</v>
       </c>
       <c r="Z50" s="0">
-        <v>1.167400121289738</v>
+        <v>1.1674001212897382</v>
       </c>
       <c r="AA50" s="0">
-        <v>-1.0000000000000042</v>
+        <v>-1.000000000000004</v>
       </c>
       <c r="AB50" s="0">
-        <v>-1.8139009758120048</v>
+        <v>-1.813900975812005</v>
       </c>
       <c r="AC50" s="0">
-        <v>1.0000000000000042</v>
+        <v>1.000000000000004</v>
       </c>
     </row>
     <row r="51">
@@ -4640,28 +4727,28 @@
         <v>1.116921392530188</v>
       </c>
       <c r="C51" s="0">
-        <v>1.11692139253071</v>
+        <v>1.1169213925307098</v>
       </c>
       <c r="D51" s="0">
-        <v>1.11692139253071</v>
+        <v>1.1169213925307098</v>
       </c>
       <c r="E51" s="0">
-        <v>-1.7634221126951535</v>
+        <v>-1.7634221158177599</v>
       </c>
       <c r="F51" s="0">
-        <v>-1.7634222468413787</v>
+        <v>-1.7634222454635693</v>
       </c>
       <c r="G51" s="0">
-        <v>-1.7634223845683776</v>
+        <v>-1.7634223824974105</v>
       </c>
       <c r="H51" s="0">
         <v>0</v>
       </c>
       <c r="I51" s="0">
-        <v>-5.7151678278335146e-13</v>
+        <v>-5.7126206054699346e-13</v>
       </c>
       <c r="J51" s="0">
-        <v>5.7151678278335146e-13</v>
+        <v>5.7126206054699346e-13</v>
       </c>
       <c r="K51" s="0">
         <v>0</v>
@@ -4673,22 +4760,22 @@
         <v>0</v>
       </c>
       <c r="N51" s="0">
-        <v>1.5419006563922734e-05</v>
+        <v>1.5419006764559008e-05</v>
       </c>
       <c r="O51" s="0">
-        <v>1.5419019906985619e-05</v>
+        <v>1.5419020040468589e-05</v>
       </c>
       <c r="P51" s="0">
-        <v>1.5419032903152461e-05</v>
+        <v>1.5419032600632357e-05</v>
       </c>
       <c r="Q51" s="0">
-        <v>1116.3548773167822</v>
+        <v>1116.354877316782</v>
       </c>
       <c r="R51" s="0">
-        <v>1116.3548773204429</v>
+        <v>1116.3548773204423</v>
       </c>
       <c r="S51" s="0">
-        <v>1116.3548773204429</v>
+        <v>1116.3548773204423</v>
       </c>
       <c r="T51" s="0">
         <v>0</v>
@@ -4703,22 +4790,22 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>-4.0087699165101974e-09</v>
+        <v>-4.0069832273543578e-09</v>
       </c>
       <c r="Y51" s="0">
-        <v>4.0087699165101974e-09</v>
+        <v>4.0069832273543578e-09</v>
       </c>
       <c r="Z51" s="0">
         <v>1.116921392530188</v>
       </c>
       <c r="AA51" s="0">
-        <v>-1.0000000000005715</v>
+        <v>-1.0000000000005713</v>
       </c>
       <c r="AB51" s="0">
         <v>-1.7634222470524548</v>
       </c>
       <c r="AC51" s="0">
-        <v>1.0000000000005715</v>
+        <v>1.0000000000005713</v>
       </c>
     </row>
     <row r="52">
@@ -4726,22 +4813,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="0">
-        <v>1.00067746573909</v>
+        <v>1.0006774657390904</v>
       </c>
       <c r="C52" s="0">
         <v>1.0006774657394617</v>
       </c>
       <c r="D52" s="0">
-        <v>1.0006774657469015</v>
+        <v>1.0006774657469013</v>
       </c>
       <c r="E52" s="0">
-        <v>-1.6471783243415439</v>
+        <v>-1.6471783222900571</v>
       </c>
       <c r="F52" s="0">
-        <v>-1.6471783619464127</v>
+        <v>-1.6471783636532376</v>
       </c>
       <c r="G52" s="0">
-        <v>-1.6471785816278617</v>
+        <v>-1.6471785833989585</v>
       </c>
       <c r="H52" s="0">
         <v>0</v>
@@ -4762,22 +4849,22 @@
         <v>0</v>
       </c>
       <c r="N52" s="0">
-        <v>3.2007885540372842e-05</v>
+        <v>3.2007885184184924e-05</v>
       </c>
       <c r="O52" s="0">
-        <v>3.2007929720863807e-05</v>
+        <v>3.2007929377601245e-05</v>
       </c>
       <c r="P52" s="0">
-        <v>3.2007937283645818e-05</v>
+        <v>3.2007937696224013e-05</v>
       </c>
       <c r="Q52" s="0">
-        <v>537.77591039237382</v>
+        <v>537.77591039237541</v>
       </c>
       <c r="R52" s="0">
-        <v>537.77591039362949</v>
+        <v>537.77591039362994</v>
       </c>
       <c r="S52" s="0">
-        <v>537.77591041876826</v>
+        <v>537.77591041876758</v>
       </c>
       <c r="T52" s="0">
         <v>0</v>
@@ -4798,13 +4885,13 @@
         <v>0</v>
       </c>
       <c r="Z52" s="0">
-        <v>1.00067746573909</v>
+        <v>1.0006774657390904</v>
       </c>
       <c r="AA52" s="0">
         <v>-1</v>
       </c>
       <c r="AB52" s="0">
-        <v>-1.6471783202613568</v>
+        <v>-1.6471783202613572</v>
       </c>
       <c r="AC52" s="0">
         <v>1</v>
@@ -4815,22 +4902,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B53" s="0">
-        <v>0.82741773167875366</v>
+        <v>0.82741773167875388</v>
       </c>
       <c r="C53" s="0">
-        <v>0.82741773168598254</v>
+        <v>0.82741773168598287</v>
       </c>
       <c r="D53" s="0">
-        <v>0.82741773168747867</v>
+        <v>0.82741773168747845</v>
       </c>
       <c r="E53" s="0">
-        <v>-1.473918482704426</v>
+        <v>-1.4739184829402825</v>
       </c>
       <c r="F53" s="0">
-        <v>-1.473918482704426</v>
+        <v>-1.4739184829402825</v>
       </c>
       <c r="G53" s="0">
-        <v>-1.4739185892983608</v>
+        <v>-1.4739185892099431</v>
       </c>
       <c r="H53" s="0">
         <v>-0</v>
@@ -4842,40 +4929,40 @@
         <v>-0</v>
       </c>
       <c r="K53" s="0">
-        <v>1.2219468390627587e-07</v>
+        <v>1.2877925815339367e-07</v>
       </c>
       <c r="L53" s="0">
-        <v>-1.2219468390627587e-07</v>
+        <v>-1.2877925815339367e-07</v>
       </c>
       <c r="M53" s="0">
         <v>-0</v>
       </c>
       <c r="N53" s="0">
-        <v>-9.5069379321845643e-05</v>
+        <v>-9.5069379374660993e-05</v>
       </c>
       <c r="O53" s="0">
-        <v>-9.5069442994502877e-05</v>
+        <v>-9.5069442853613651e-05</v>
       </c>
       <c r="P53" s="0">
-        <v>-9.5069442994502877e-05</v>
+        <v>-9.5069442853613651e-05</v>
       </c>
       <c r="Q53" s="0">
-        <v>-181.05827387932877</v>
+        <v>-181.05827387932905</v>
       </c>
       <c r="R53" s="0">
-        <v>-181.0582738875525</v>
+        <v>-181.05827388755284</v>
       </c>
       <c r="S53" s="0">
-        <v>-181.05827388925454</v>
+        <v>-181.05827388925434</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
       </c>
       <c r="U53" s="0">
-        <v>-7.2991641416714796e-11</v>
+        <v>-7.6924863820776555e-11</v>
       </c>
       <c r="V53" s="0">
-        <v>7.2991641416714796e-11</v>
+        <v>7.6924863820776555e-11</v>
       </c>
       <c r="W53" s="0">
         <v>0</v>
@@ -4887,16 +4974,16 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0.82741773167875366</v>
+        <v>0.82741773167875388</v>
       </c>
       <c r="AA53" s="0">
-        <v>-1.0000001221946839</v>
+        <v>-1.0000001287792581</v>
       </c>
       <c r="AB53" s="0">
-        <v>-1.4739185862010205</v>
+        <v>-1.4739185862010207</v>
       </c>
       <c r="AC53" s="0">
-        <v>1.0000001221946839</v>
+        <v>1.0000001287792581</v>
       </c>
     </row>
     <row r="54">
@@ -4910,22 +4997,22 @@
         <v>1.0950867184307844</v>
       </c>
       <c r="D54" s="0">
-        <v>1.0950867184563375</v>
+        <v>1.0950867184563373</v>
       </c>
       <c r="E54" s="0">
-        <v>-1.7415871929579392</v>
+        <v>-1.7415871991717837</v>
       </c>
       <c r="F54" s="0">
-        <v>-1.7415875831649192</v>
+        <v>-1.7415875862154886</v>
       </c>
       <c r="G54" s="0">
-        <v>-1.7415877965546818</v>
+        <v>-1.7415877970960685</v>
       </c>
       <c r="H54" s="0">
-        <v>6.9509987720840781e-14</v>
+        <v>6.9501926887805836e-14</v>
       </c>
       <c r="I54" s="0">
-        <v>-6.9509987720840781e-14</v>
+        <v>-6.9501926887805836e-14</v>
       </c>
       <c r="J54" s="0">
         <v>-0</v>
@@ -4940,22 +5027,22 @@
         <v>-0</v>
       </c>
       <c r="N54" s="0">
-        <v>-1.768632431708184e-05</v>
+        <v>-1.7686324256919461e-05</v>
       </c>
       <c r="O54" s="0">
-        <v>-1.7686348030345164e-05</v>
+        <v>-1.7686347691345797e-05</v>
       </c>
       <c r="P54" s="0">
-        <v>-1.768639139277413e-05</v>
+        <v>-1.7686390702249036e-05</v>
       </c>
       <c r="Q54" s="0">
-        <v>-973.24201241552271</v>
+        <v>-973.24201241552214</v>
       </c>
       <c r="R54" s="0">
-        <v>-973.24201241552271</v>
+        <v>-973.24201241552214</v>
       </c>
       <c r="S54" s="0">
-        <v>-973.24201257178061</v>
+        <v>-973.24201257178038</v>
       </c>
       <c r="T54" s="0">
         <v>0</v>
@@ -4967,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="W54" s="0">
-        <v>-4.250577394467009e-10</v>
+        <v>-4.250084469697453e-10</v>
       </c>
       <c r="X54" s="0">
-        <v>4.250577394467009e-10</v>
+        <v>4.250084469697453e-10</v>
       </c>
       <c r="Y54" s="0">
         <v>0</v>
@@ -4993,22 +5080,22 @@
         <v>5.2999999999999998</v>
       </c>
       <c r="B55" s="0">
-        <v>1.1839662703976517</v>
+        <v>1.1839662703976523</v>
       </c>
       <c r="C55" s="0">
-        <v>1.1839662703944973</v>
+        <v>1.1839662703944969</v>
       </c>
       <c r="D55" s="0">
-        <v>1.1839662703943907</v>
+        <v>1.1839662703943905</v>
       </c>
       <c r="E55" s="0">
-        <v>-1.8304663162016155</v>
+        <v>-1.830466321100056</v>
       </c>
       <c r="F55" s="0">
-        <v>-1.8304671345612655</v>
+        <v>-1.8304671320297423</v>
       </c>
       <c r="G55" s="0">
-        <v>-1.8304674476409311</v>
+        <v>-1.8304674299156043</v>
       </c>
       <c r="H55" s="0">
         <v>-0</v>
@@ -5029,22 +5116,22 @@
         <v>-0</v>
       </c>
       <c r="N55" s="0">
-        <v>-1701.1835171177686</v>
+        <v>-1701.1835171177745</v>
       </c>
       <c r="O55" s="0">
-        <v>-1701.1835170840507</v>
+        <v>-1701.1835170840477</v>
       </c>
       <c r="P55" s="0">
-        <v>-1701.1835170829113</v>
+        <v>-1701.1835170829095</v>
       </c>
       <c r="Q55" s="0">
-        <v>-1.0118358981366272e-05</v>
+        <v>-1.0118358669945361e-05</v>
       </c>
       <c r="R55" s="0">
-        <v>-1.011830695385608e-05</v>
+        <v>-1.011830711479816e-05</v>
       </c>
       <c r="S55" s="0">
-        <v>-1.0118287049774059e-05</v>
+        <v>-1.0118288176663051e-05</v>
       </c>
       <c r="T55" s="0">
         <v>0</v>
@@ -5065,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="Z55" s="0">
-        <v>1.1839662703976517</v>
+        <v>1.1839662703976523</v>
       </c>
       <c r="AA55" s="0">
         <v>-1.5</v>
       </c>
       <c r="AB55" s="0">
-        <v>-1.8304671249199185</v>
+        <v>-1.8304671249199191</v>
       </c>
       <c r="AC55" s="0">
         <v>1.5</v>
@@ -5082,31 +5169,31 @@
         <v>5.3999999999999995</v>
       </c>
       <c r="B56" s="0">
-        <v>1.2191267919793603</v>
+        <v>1.2191267919793605</v>
       </c>
       <c r="C56" s="0">
-        <v>1.2191267919915467</v>
+        <v>1.2191267919915465</v>
       </c>
       <c r="D56" s="0">
-        <v>1.2191267919915467</v>
+        <v>1.2191267919915465</v>
       </c>
       <c r="E56" s="0">
-        <v>-1.8656270408268803</v>
+        <v>-1.8656270303777183</v>
       </c>
       <c r="F56" s="0">
-        <v>-1.8656276662513205</v>
+        <v>-1.8656276762187409</v>
       </c>
       <c r="G56" s="0">
-        <v>-1.8656279780426026</v>
+        <v>-1.8656279877171362</v>
       </c>
       <c r="H56" s="0">
         <v>-0</v>
       </c>
       <c r="I56" s="0">
-        <v>3.3983523133593993e-14</v>
+        <v>3.3898994248003862e-14</v>
       </c>
       <c r="J56" s="0">
-        <v>-3.3983523133593993e-14</v>
+        <v>-3.3898994248003862e-14</v>
       </c>
       <c r="K56" s="0">
         <v>-0</v>
@@ -5118,22 +5205,22 @@
         <v>-0</v>
       </c>
       <c r="N56" s="0">
-        <v>-8.1126474511678027e-06</v>
+        <v>-8.1126469580252208e-06</v>
       </c>
       <c r="O56" s="0">
-        <v>-8.1126633442037134e-06</v>
+        <v>-8.112662836130746e-06</v>
       </c>
       <c r="P56" s="0">
-        <v>-8.112695224255958e-06</v>
+        <v>-8.1126957568870346e-06</v>
       </c>
       <c r="Q56" s="0">
-        <v>-2121.7564673243355</v>
+        <v>-2121.7564673243382</v>
       </c>
       <c r="R56" s="0">
-        <v>-2121.756467486799</v>
+        <v>-2121.7564674867972</v>
       </c>
       <c r="S56" s="0">
-        <v>-2121.756467486799</v>
+        <v>-2121.7564674867972</v>
       </c>
       <c r="T56" s="0">
         <v>0</v>
@@ -5148,22 +5235,22 @@
         <v>0</v>
       </c>
       <c r="X56" s="0">
-        <v>-4.5304756858891485e-10</v>
+        <v>-4.5192068112814144e-10</v>
       </c>
       <c r="Y56" s="0">
-        <v>4.5304756858891485e-10</v>
+        <v>4.5192068112814144e-10</v>
       </c>
       <c r="Z56" s="0">
-        <v>1.2191267919793603</v>
+        <v>1.2191267919793605</v>
       </c>
       <c r="AA56" s="0">
-        <v>-2.0000000000000342</v>
+        <v>-2.0000000000000338</v>
       </c>
       <c r="AB56" s="0">
-        <v>-1.8656276465016271</v>
+        <v>-1.8656276465016273</v>
       </c>
       <c r="AC56" s="0">
-        <v>2.0000000000000342</v>
+        <v>2.0000000000000338</v>
       </c>
     </row>
     <row r="57">
@@ -5171,22 +5258,22 @@
         <v>5.5</v>
       </c>
       <c r="B57" s="0">
-        <v>1.1964182271942117</v>
+        <v>1.1964182271942112</v>
       </c>
       <c r="C57" s="0">
-        <v>1.1964182271942434</v>
+        <v>1.1964182271942436</v>
       </c>
       <c r="D57" s="0">
         <v>1.1964182271993626</v>
       </c>
       <c r="E57" s="0">
-        <v>-1.8429189846045171</v>
+        <v>-1.8429189095512979</v>
       </c>
       <c r="F57" s="0">
-        <v>-1.8429190549045986</v>
+        <v>-1.842919059532337</v>
       </c>
       <c r="G57" s="0">
-        <v>-1.8429190549045986</v>
+        <v>-1.842919059532337</v>
       </c>
       <c r="H57" s="0">
         <v>-0</v>
@@ -5201,34 +5288,34 @@
         <v>-0</v>
       </c>
       <c r="L57" s="0">
-        <v>5.6042527339279327e-07</v>
+        <v>5.4340983416431608e-07</v>
       </c>
       <c r="M57" s="0">
-        <v>-5.6042527339279327e-07</v>
+        <v>-5.4340983416431608e-07</v>
       </c>
       <c r="N57" s="0">
-        <v>-9.356849386883309e-06</v>
+        <v>-9.3568491148182592e-06</v>
       </c>
       <c r="O57" s="0">
-        <v>-9.356849386883309e-06</v>
+        <v>-9.3568491148182592e-06</v>
       </c>
       <c r="P57" s="0">
-        <v>-9.3568535199415675e-06</v>
+        <v>-9.356857932384755e-06</v>
       </c>
       <c r="Q57" s="0">
-        <v>-1839.6257374400282</v>
+        <v>-1839.6257374400241</v>
       </c>
       <c r="R57" s="0">
-        <v>-1839.6257374403949</v>
+        <v>-1839.6257374403967</v>
       </c>
       <c r="S57" s="0">
         <v>-1839.6257374995657</v>
       </c>
       <c r="T57" s="0">
-        <v>-3.2947860580950896e-11</v>
+        <v>-3.1947508051118773e-11</v>
       </c>
       <c r="U57" s="0">
-        <v>3.2947860580950896e-11</v>
+        <v>3.1947508051118773e-11</v>
       </c>
       <c r="V57" s="0">
         <v>0</v>
@@ -5243,16 +5330,16 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>1.1964182271942117</v>
+        <v>1.1964182271942112</v>
       </c>
       <c r="AA57" s="0">
-        <v>-2.0000005604252733</v>
+        <v>-2.000000543409834</v>
       </c>
       <c r="AB57" s="0">
-        <v>-1.8429190817164784</v>
+        <v>-1.842919081716478</v>
       </c>
       <c r="AC57" s="0">
-        <v>2.0000005604252733</v>
+        <v>2.000000543409834</v>
       </c>
     </row>
     <row r="58">
@@ -5260,22 +5347,22 @@
         <v>5.5999999999999996</v>
       </c>
       <c r="B58" s="0">
-        <v>0.87620479861790368</v>
+        <v>0.87620479861789724</v>
       </c>
       <c r="C58" s="0">
-        <v>0.87620479861472811</v>
+        <v>0.87620479861485134</v>
       </c>
       <c r="D58" s="0">
-        <v>0.87620479861317402</v>
+        <v>0.87620479861313205</v>
       </c>
       <c r="E58" s="0">
-        <v>-1.52270565374179</v>
+        <v>-1.5227056410541322</v>
       </c>
       <c r="F58" s="0">
-        <v>-1.52270565374179</v>
+        <v>-1.5227056410541322</v>
       </c>
       <c r="G58" s="0">
-        <v>-1.5227072913401336</v>
+        <v>-1.5227075672522126</v>
       </c>
       <c r="H58" s="0">
         <v>-0</v>
@@ -5287,40 +5374,40 @@
         <v>-0</v>
       </c>
       <c r="K58" s="0">
-        <v>3.2036058898385281e-08</v>
+        <v>3.561916617703599e-08</v>
       </c>
       <c r="L58" s="0">
-        <v>-3.2036058898385281e-08</v>
+        <v>-3.561916617703599e-08</v>
       </c>
       <c r="M58" s="0">
         <v>-0</v>
       </c>
       <c r="N58" s="0">
-        <v>-6.996943318392621e-05</v>
+        <v>-6.996931188455191e-05</v>
       </c>
       <c r="O58" s="0">
-        <v>-6.9970153126486178e-05</v>
+        <v>-6.9970158704430141e-05</v>
       </c>
       <c r="P58" s="0">
-        <v>-6.9970153126486178e-05</v>
+        <v>-6.9970158704430141e-05</v>
       </c>
       <c r="Q58" s="0">
-        <v>-246.00629295585742</v>
+        <v>-246.00629295579262</v>
       </c>
       <c r="R58" s="0">
-        <v>-246.00629295825956</v>
+        <v>-246.00629295845019</v>
       </c>
       <c r="S58" s="0">
-        <v>-246.00629296316819</v>
+        <v>-246.00629296315807</v>
       </c>
       <c r="T58" s="0">
         <v>0</v>
       </c>
       <c r="U58" s="0">
-        <v>-1.4084186787682161e-11</v>
+        <v>-1.5659448974121337e-11</v>
       </c>
       <c r="V58" s="0">
-        <v>1.4084186787682161e-11</v>
+        <v>1.5659448974121337e-11</v>
       </c>
       <c r="W58" s="0">
         <v>0</v>
@@ -5332,16 +5419,16 @@
         <v>0</v>
       </c>
       <c r="Z58" s="0">
-        <v>0.87620479861790368</v>
+        <v>0.87620479861789724</v>
       </c>
       <c r="AA58" s="0">
-        <v>-2.0000000320360587</v>
+        <v>-2.0000000356191663</v>
       </c>
       <c r="AB58" s="0">
-        <v>-1.5227056531401706</v>
+        <v>-1.5227056531401639</v>
       </c>
       <c r="AC58" s="0">
-        <v>2.0000000320360587</v>
+        <v>2.0000000356191663</v>
       </c>
     </row>
     <row r="59">
@@ -5349,88 +5436,88 @@
         <v>5.7000000000000002</v>
       </c>
       <c r="B59" s="0">
-        <v>1.30149862752776</v>
+        <v>1.3014986275277607</v>
       </c>
       <c r="C59" s="0">
-        <v>1.3014986275320903</v>
+        <v>1.3014986275320897</v>
       </c>
       <c r="D59" s="0">
-        <v>1.3014986275320903</v>
+        <v>1.3014986275320897</v>
       </c>
       <c r="E59" s="0">
-        <v>-1.9479992982826981</v>
+        <v>-1.9479992856913393</v>
       </c>
       <c r="F59" s="0">
-        <v>-1.9479994490788064</v>
+        <v>-1.9479992856913393</v>
       </c>
       <c r="G59" s="0">
-        <v>-1.9480210526286257</v>
+        <v>-1.9480207549998405</v>
       </c>
       <c r="H59" s="0">
         <v>0</v>
       </c>
       <c r="I59" s="0">
-        <v>-4.3705038116360146e-14</v>
+        <v>-3.755737082236538e-14</v>
       </c>
       <c r="J59" s="0">
-        <v>4.3705038116360146e-14</v>
+        <v>3.755737082236538e-14</v>
       </c>
       <c r="K59" s="0">
-        <v>0</v>
+        <v>-4.7453887983984984e-09</v>
       </c>
       <c r="L59" s="0">
-        <v>0</v>
+        <v>4.7453887983984984e-09</v>
       </c>
       <c r="M59" s="0">
         <v>0</v>
       </c>
       <c r="N59" s="0">
-        <v>4.8342853097955939e-06</v>
+        <v>4.8342943501922168e-06</v>
       </c>
       <c r="O59" s="0">
-        <v>4.8349415559037267e-06</v>
+        <v>4.8349465194269681e-06</v>
       </c>
       <c r="P59" s="0">
-        <v>4.8349461369158016e-06</v>
+        <v>4.8349465194269681e-06</v>
       </c>
       <c r="Q59" s="0">
-        <v>3560.1467816505206</v>
+        <v>3560.1467816505392</v>
       </c>
       <c r="R59" s="0">
-        <v>3560.1467817473881</v>
+        <v>3560.1467817473745</v>
       </c>
       <c r="S59" s="0">
-        <v>3560.1467817473881</v>
+        <v>3560.1467817473745</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
       </c>
       <c r="U59" s="0">
-        <v>0</v>
+        <v>-1.4415952535572181e-13</v>
       </c>
       <c r="V59" s="0">
-        <v>0</v>
+        <v>1.4415952535572181e-13</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>-9.7764070517285705e-10</v>
+        <v>-8.4012315462255819e-10</v>
       </c>
       <c r="Y59" s="0">
-        <v>9.7764070517285705e-10</v>
+        <v>8.4012315462255819e-10</v>
       </c>
       <c r="Z59" s="0">
-        <v>1.30149862752776</v>
+        <v>1.3014986275277607</v>
       </c>
       <c r="AA59" s="0">
-        <v>-2.0000000000000435</v>
+        <v>-2.000000004745389</v>
       </c>
       <c r="AB59" s="0">
-        <v>-1.9479994820500268</v>
+        <v>-1.9479994820500275</v>
       </c>
       <c r="AC59" s="0">
-        <v>2.0000000000000435</v>
+        <v>2.000000004745389</v>
       </c>
     </row>
     <row r="60">
@@ -5441,19 +5528,19 @@
         <v>1.4791723962868284</v>
       </c>
       <c r="C60" s="0">
-        <v>1.4791723962891488</v>
+        <v>1.4791723962891477</v>
       </c>
       <c r="D60" s="0">
-        <v>1.4791723962892713</v>
+        <v>1.479172396289272</v>
       </c>
       <c r="E60" s="0">
-        <v>-2.1256735215245812</v>
+        <v>-2.1256744399507186</v>
       </c>
       <c r="F60" s="0">
-        <v>-2.1256735215245812</v>
+        <v>-2.1256779019073346</v>
       </c>
       <c r="G60" s="0">
-        <v>-2.1256888077354472</v>
+        <v>-2.125681111720727</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -5465,40 +5552,40 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>-2.8879660659053738e-06</v>
+        <v>0</v>
       </c>
       <c r="L60" s="0">
-        <v>2.8879660659053738e-06</v>
+        <v>0</v>
       </c>
       <c r="M60" s="0">
         <v>0</v>
       </c>
       <c r="N60" s="0">
-        <v>1.5831457894031526e-06</v>
+        <v>1.5832223450391069e-06</v>
       </c>
       <c r="O60" s="0">
-        <v>1.5832978514165726e-06</v>
+        <v>1.5832542755555776e-06</v>
       </c>
       <c r="P60" s="0">
-        <v>1.5832978514165726e-06</v>
+        <v>1.5832887150591307e-06</v>
       </c>
       <c r="Q60" s="0">
-        <v>10871.655485956157</v>
+        <v>10871.655485956173</v>
       </c>
       <c r="R60" s="0">
-        <v>10871.655486114654</v>
+        <v>10871.655486114583</v>
       </c>
       <c r="S60" s="0">
-        <v>10871.655486123045</v>
+        <v>10871.655486123078</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>-2.8729930587035911e-11</v>
+        <v>0</v>
       </c>
       <c r="V60" s="0">
-        <v>2.8729930587035911e-11</v>
+        <v>0</v>
       </c>
       <c r="W60" s="0">
         <v>0</v>
@@ -5513,13 +5600,13 @@
         <v>1.4791723962868284</v>
       </c>
       <c r="AA60" s="0">
-        <v>-2.0000028879660659</v>
+        <v>-2</v>
       </c>
       <c r="AB60" s="0">
         <v>-2.1256732508090952</v>
       </c>
       <c r="AC60" s="0">
-        <v>2.0000028879660659</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -5527,22 +5614,22 @@
         <v>5.8999999999999995</v>
       </c>
       <c r="B61" s="0">
-        <v>1.601831298175163</v>
+        <v>1.6018312981751603</v>
       </c>
       <c r="C61" s="0">
         <v>1.6018312981759129</v>
       </c>
       <c r="D61" s="0">
-        <v>1.6018312981773075</v>
+        <v>1.6018312981773102</v>
       </c>
       <c r="E61" s="0">
-        <v>-2.248324224856411</v>
+        <v>-2.2483268254935158</v>
       </c>
       <c r="F61" s="0">
-        <v>-2.2483316667834608</v>
+        <v>-2.2483314983130112</v>
       </c>
       <c r="G61" s="0">
-        <v>-2.2483316667834608</v>
+        <v>-2.2483314983130112</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -5557,34 +5644,34 @@
         <v>0</v>
       </c>
       <c r="L61" s="0">
-        <v>-8.254651965088925e-06</v>
+        <v>-6.874570113585136e-06</v>
       </c>
       <c r="M61" s="0">
-        <v>8.254651965088925e-06</v>
+        <v>6.874570113585136e-06</v>
       </c>
       <c r="N61" s="0">
-        <v>7.3258644032678036e-07</v>
+        <v>7.3258721609461896e-07</v>
       </c>
       <c r="O61" s="0">
-        <v>7.3258644032678036e-07</v>
+        <v>7.3258721609461896e-07</v>
       </c>
       <c r="P61" s="0">
-        <v>7.3262069712731222e-07</v>
+        <v>7.3260872599424322e-07</v>
       </c>
       <c r="Q61" s="0">
-        <v>23496.408937250126</v>
+        <v>23496.408937249744</v>
       </c>
       <c r="R61" s="0">
-        <v>23496.408937360851</v>
+        <v>23496.408937360837</v>
       </c>
       <c r="S61" s="0">
-        <v>23496.408937566724</v>
+        <v>23496.408937567114</v>
       </c>
       <c r="T61" s="0">
-        <v>-3.7995967873719962e-11</v>
+        <v>-3.164351723328381e-11</v>
       </c>
       <c r="U61" s="0">
-        <v>3.7995967873719962e-11</v>
+        <v>3.164351723328381e-11</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -5599,16 +5686,16 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>1.601831298175163</v>
+        <v>1.6018312981751603</v>
       </c>
       <c r="AA61" s="0">
-        <v>-2.0000082546519651</v>
+        <v>-2.0000068745701136</v>
       </c>
       <c r="AB61" s="0">
-        <v>-2.2483321526974298</v>
+        <v>-2.2483321526974271</v>
       </c>
       <c r="AC61" s="0">
-        <v>2.0000082546519651</v>
+        <v>2.0000068745701136</v>
       </c>
     </row>
     <row r="62">
@@ -5616,22 +5703,22 @@
         <v>6</v>
       </c>
       <c r="B62" s="0">
-        <v>1.7013395608810762</v>
+        <v>1.701339560881076</v>
       </c>
       <c r="C62" s="0">
         <v>1.701339560882474</v>
       </c>
       <c r="D62" s="0">
-        <v>1.7013395608824937</v>
+        <v>1.7013395608824942</v>
       </c>
       <c r="E62" s="0">
-        <v>-2.3478338854020318</v>
+        <v>-2.3478347295459714</v>
       </c>
       <c r="F62" s="0">
-        <v>-2.3478378507881215</v>
+        <v>-2.347843037009758</v>
       </c>
       <c r="G62" s="0">
-        <v>-2.347873751432874</v>
+        <v>-2.3478752775868079</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -5652,22 +5739,22 @@
         <v>0</v>
       </c>
       <c r="N62" s="0">
-        <v>3.9195223341429727e-07</v>
+        <v>3.9194847496003104e-07</v>
       </c>
       <c r="O62" s="0">
-        <v>3.9204065621019933e-07</v>
+        <v>3.9202788138481526e-07</v>
       </c>
       <c r="P62" s="0">
-        <v>3.9205042412504554e-07</v>
+        <v>3.9204834472929732e-07</v>
       </c>
       <c r="Q62" s="0">
-        <v>43907.118188865781</v>
+        <v>43907.118188865708</v>
       </c>
       <c r="R62" s="0">
-        <v>43907.118189251371</v>
+        <v>43907.118189251392</v>
       </c>
       <c r="S62" s="0">
-        <v>43907.118189256857</v>
+        <v>43907.118189256958</v>
       </c>
       <c r="T62" s="0">
         <v>0</v>
@@ -5688,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="0">
-        <v>1.7013395608810762</v>
+        <v>1.701339560881076</v>
       </c>
       <c r="AA62" s="0">
         <v>-2</v>
@@ -5702,7 +5789,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>6.0999999999999997</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="B63" s="0">
         <v>1.7874404946620253</v>
@@ -5711,16 +5798,16 @@
         <v>1.787440494662067</v>
       </c>
       <c r="D63" s="0">
-        <v>1.7874404946645661</v>
+        <v>1.7874404946645663</v>
       </c>
       <c r="E63" s="0">
-        <v>-2.4335460822750594</v>
+        <v>-2.4335533671538365</v>
       </c>
       <c r="F63" s="0">
-        <v>-2.433943510520904</v>
+        <v>-2.4339364580586373</v>
       </c>
       <c r="G63" s="0">
-        <v>-2.433962545331863</v>
+        <v>-2.4339648875730955</v>
       </c>
       <c r="H63" s="0">
         <v>0</v>
@@ -5741,22 +5828,22 @@
         <v>0</v>
       </c>
       <c r="N63" s="0">
-        <v>2.2820129993675252e-07</v>
+        <v>2.2819794158324758e-07</v>
       </c>
       <c r="O63" s="0">
-        <v>2.2822859427198666e-07</v>
+        <v>2.2823870774493446e-07</v>
       </c>
       <c r="P63" s="0">
-        <v>2.2879921955210019e-07</v>
+        <v>2.2878874713823224e-07</v>
       </c>
       <c r="Q63" s="0">
-        <v>75419.402880042806</v>
+        <v>75419.402880042835</v>
       </c>
       <c r="R63" s="0">
-        <v>75419.402880062597</v>
+        <v>75419.402880062553</v>
       </c>
       <c r="S63" s="0">
-        <v>75419.402881246802</v>
+        <v>75419.40288124689</v>
       </c>
       <c r="T63" s="0">
         <v>0</v>
@@ -5794,22 +5881,22 @@
         <v>6.1999999999999993</v>
       </c>
       <c r="B64" s="0">
-        <v>1.8645063066759899</v>
+        <v>1.8645063066759897</v>
       </c>
       <c r="C64" s="0">
         <v>1.8645063066760332</v>
       </c>
       <c r="D64" s="0">
-        <v>1.8645063067001599</v>
+        <v>1.8645063067001602</v>
       </c>
       <c r="E64" s="0">
-        <v>-2.5109715385132021</v>
+        <v>-2.5109754675201588</v>
       </c>
       <c r="F64" s="0">
-        <v>-2.5109715385132021</v>
+        <v>-2.5109754675201588</v>
       </c>
       <c r="G64" s="0">
-        <v>-2.5110304669555248</v>
+        <v>-2.5110378950866572</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -5821,40 +5908,40 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>-0.00022968092640661622</v>
+        <v>-0.00022270023991580775</v>
       </c>
       <c r="L64" s="0">
-        <v>0.00022968092640661622</v>
+        <v>0.00022270023991580775</v>
       </c>
       <c r="M64" s="0">
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>1.4061084373121075e-07</v>
+        <v>1.4060428124944352e-07</v>
       </c>
       <c r="O64" s="0">
-        <v>1.4066276923232057e-07</v>
+        <v>1.4065930554659408e-07</v>
       </c>
       <c r="P64" s="0">
-        <v>1.4066276923232057e-07</v>
+        <v>1.4065930554659408e-07</v>
       </c>
       <c r="Q64" s="0">
-        <v>122398.65142747208</v>
+        <v>122398.65142747186</v>
       </c>
       <c r="R64" s="0">
-        <v>122398.65142750531</v>
+        <v>122398.65142750533</v>
       </c>
       <c r="S64" s="0">
-        <v>122398.65144606007</v>
+        <v>122398.6514460602</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
       </c>
       <c r="U64" s="0">
-        <v>-2.0299449673807219e-10</v>
+        <v>-1.9682003541475976e-10</v>
       </c>
       <c r="V64" s="0">
-        <v>2.0299449673807219e-10</v>
+        <v>1.9682003541475976e-10</v>
       </c>
       <c r="W64" s="0">
         <v>0</v>
@@ -5866,16 +5953,16 @@
         <v>0</v>
       </c>
       <c r="Z64" s="0">
-        <v>1.8645063066759899</v>
+        <v>1.8645063066759897</v>
       </c>
       <c r="AA64" s="0">
-        <v>-2.0002296809264064</v>
+        <v>-2.0002227002399158</v>
       </c>
       <c r="AB64" s="0">
-        <v>-2.5110071611982567</v>
+        <v>-2.5110071611982563</v>
       </c>
       <c r="AC64" s="0">
-        <v>2.0002296809264064</v>
+        <v>2.0002227002399158</v>
       </c>
     </row>
     <row r="65">
@@ -5883,22 +5970,22 @@
         <v>6.2999999999999998</v>
       </c>
       <c r="B65" s="0">
-        <v>1.9349063703151372</v>
+        <v>1.9349063703151375</v>
       </c>
       <c r="C65" s="0">
-        <v>1.9349063703151994</v>
+        <v>1.9349063703151999</v>
       </c>
       <c r="D65" s="0">
-        <v>1.9349063703247953</v>
+        <v>1.9349063703247951</v>
       </c>
       <c r="E65" s="0">
-        <v>-2.5813423100186474</v>
+        <v>-2.5812770853220739</v>
       </c>
       <c r="F65" s="0">
-        <v>-2.581380419098132</v>
+        <v>-2.5813740845311646</v>
       </c>
       <c r="G65" s="0">
-        <v>-2.582339487452701</v>
+        <v>-2.5824256196557043</v>
       </c>
       <c r="H65" s="0">
         <v>0</v>
@@ -5919,22 +6006,22 @@
         <v>0</v>
       </c>
       <c r="N65" s="0">
-        <v>8.983263349423675e-08</v>
+        <v>8.9784030609848695e-08</v>
       </c>
       <c r="O65" s="0">
-        <v>9.0375599635506866e-08</v>
+        <v>9.0379196769658461e-08</v>
       </c>
       <c r="P65" s="0">
-        <v>9.0397242339266609e-08</v>
+        <v>9.043429642584624e-08</v>
       </c>
       <c r="Q65" s="0">
-        <v>190493.86660516876</v>
+        <v>190493.86660516897</v>
       </c>
       <c r="R65" s="0">
-        <v>190493.86660524309</v>
+        <v>190493.86660524359</v>
       </c>
       <c r="S65" s="0">
-        <v>190493.8666167286</v>
+        <v>190493.86661672822</v>
       </c>
       <c r="T65" s="0">
         <v>0</v>
@@ -5955,13 +6042,13 @@
         <v>0</v>
       </c>
       <c r="Z65" s="0">
-        <v>1.9349063703151372</v>
+        <v>1.9349063703151375</v>
       </c>
       <c r="AA65" s="0">
         <v>-2</v>
       </c>
       <c r="AB65" s="0">
-        <v>-2.5814072248374038</v>
+        <v>-2.5814072248374043</v>
       </c>
       <c r="AC65" s="0">
         <v>2</v>
@@ -5972,22 +6059,22 @@
         <v>6.4000000000000004</v>
       </c>
       <c r="B66" s="0">
-        <v>2.0000788719782756</v>
+        <v>2.0000788719782761</v>
       </c>
       <c r="C66" s="0">
-        <v>2.0000788719814304</v>
+        <v>2.00007887198143</v>
       </c>
       <c r="D66" s="0">
         <v>2.0000788719815121</v>
       </c>
       <c r="E66" s="0">
-        <v>-2.6455633113369719</v>
+        <v>-2.6456334687805718</v>
       </c>
       <c r="F66" s="0">
-        <v>-2.6466678664742758</v>
+        <v>-2.6467017011652363</v>
       </c>
       <c r="G66" s="0">
-        <v>-2.6466678664742758</v>
+        <v>-2.6467017011652363</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -6002,34 +6089,34 @@
         <v>0</v>
       </c>
       <c r="L66" s="0">
-        <v>-2.9980403871303155e-05</v>
+        <v>-6.671320409504941e-05</v>
       </c>
       <c r="M66" s="0">
-        <v>2.9980403871303155e-05</v>
+        <v>6.671320409504941e-05</v>
       </c>
       <c r="N66" s="0">
-        <v>5.9965006530496354e-08</v>
+        <v>5.9952255743433861e-08</v>
       </c>
       <c r="O66" s="0">
-        <v>5.9965006530496354e-08</v>
+        <v>5.9952255743433861e-08</v>
       </c>
       <c r="P66" s="0">
-        <v>6.0382619683092394e-08</v>
+        <v>6.0356008152306838e-08</v>
       </c>
       <c r="Q66" s="0">
-        <v>286893.45291478711</v>
+        <v>286893.45291478769</v>
       </c>
       <c r="R66" s="0">
-        <v>286893.452920474</v>
+        <v>286893.45292047272</v>
       </c>
       <c r="S66" s="0">
-        <v>286893.45292062115</v>
+        <v>286893.45292062109</v>
       </c>
       <c r="T66" s="0">
-        <v>-1.129575431506248e-11</v>
+        <v>-2.5130273869727433e-11</v>
       </c>
       <c r="U66" s="0">
-        <v>1.129575431506248e-11</v>
+        <v>2.5130273869727433e-11</v>
       </c>
       <c r="V66" s="0">
         <v>0</v>
@@ -6044,16 +6131,16 @@
         <v>0</v>
       </c>
       <c r="Z66" s="0">
-        <v>2.0000788719782756</v>
+        <v>2.0000788719782761</v>
       </c>
       <c r="AA66" s="0">
-        <v>-2.0000299804038715</v>
+        <v>-2.0000667132040952</v>
       </c>
       <c r="AB66" s="0">
-        <v>-2.6465797265005424</v>
+        <v>-2.6465797265005429</v>
       </c>
       <c r="AC66" s="0">
-        <v>2.0000299804038715</v>
+        <v>2.0000667132040952</v>
       </c>
     </row>
     <row r="67">
@@ -6070,13 +6157,13 @@
         <v>2.0609644878167304</v>
       </c>
       <c r="E67" s="0">
-        <v>-2.7054227952970331</v>
+        <v>-2.7053744973258014</v>
       </c>
       <c r="F67" s="0">
-        <v>-2.7074097046070715</v>
+        <v>-2.7074493349748296</v>
       </c>
       <c r="G67" s="0">
-        <v>-2.7076088791652397</v>
+        <v>-2.7075228589670983</v>
       </c>
       <c r="H67" s="0">
         <v>0</v>
@@ -6097,19 +6184,19 @@
         <v>0</v>
       </c>
       <c r="N67" s="0">
-        <v>4.0888854090565235e-08</v>
+        <v>4.0910959706271297e-08</v>
       </c>
       <c r="O67" s="0">
-        <v>4.0940056505864698e-08</v>
+        <v>4.0929863498477469e-08</v>
       </c>
       <c r="P67" s="0">
-        <v>4.1454360696664202e-08</v>
+        <v>4.1466942557492705e-08</v>
       </c>
       <c r="Q67" s="0">
         <v>420593.3740038916</v>
       </c>
       <c r="R67" s="0">
-        <v>420593.37400511996</v>
+        <v>420593.37400511978</v>
       </c>
       <c r="S67" s="0">
         <v>420593.37401158566</v>
@@ -6147,25 +6234,25 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>6.5999999999999997</v>
+        <v>6.5999999999999996</v>
       </c>
       <c r="B68" s="0">
         <v>2.1182109429930658</v>
       </c>
       <c r="C68" s="0">
-        <v>2.1182109430535889</v>
+        <v>2.1182109430535885</v>
       </c>
       <c r="D68" s="0">
-        <v>2.1182109430536049</v>
+        <v>2.1182109430536045</v>
       </c>
       <c r="E68" s="0">
-        <v>-2.7651074830888716</v>
+        <v>-2.764120737104423</v>
       </c>
       <c r="F68" s="0">
-        <v>-2.7651223260574938</v>
+        <v>-2.7650345630145954</v>
       </c>
       <c r="G68" s="0">
-        <v>-2.7651223260574938</v>
+        <v>-2.7665942193134465</v>
       </c>
       <c r="H68" s="0">
         <v>0</v>
@@ -6180,34 +6267,34 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>-0.0010981586429718987</v>
+        <v>0</v>
       </c>
       <c r="M68" s="0">
-        <v>0.0010981586429718987</v>
+        <v>0</v>
       </c>
       <c r="N68" s="0">
-        <v>2.8487518972701325e-08</v>
+        <v>2.8225947732168199e-08</v>
       </c>
       <c r="O68" s="0">
-        <v>2.8487518972701325e-08</v>
+        <v>2.8503910738890119e-08</v>
       </c>
       <c r="P68" s="0">
-        <v>2.8490854083750287e-08</v>
+        <v>2.8668043465589321e-08</v>
       </c>
       <c r="Q68" s="0">
-        <v>602662.052219284</v>
+        <v>602662.05221928377</v>
       </c>
       <c r="R68" s="0">
-        <v>602662.05244846328</v>
+        <v>602662.05244846235</v>
       </c>
       <c r="S68" s="0">
-        <v>602662.05244852358</v>
+        <v>602662.05244852277</v>
       </c>
       <c r="T68" s="0">
-        <v>-1.9656512730977093e-10</v>
+        <v>0</v>
       </c>
       <c r="U68" s="0">
-        <v>1.9656512730977093e-10</v>
+        <v>0</v>
       </c>
       <c r="V68" s="0">
         <v>0</v>
@@ -6225,13 +6312,13 @@
         <v>2.1182109429930658</v>
       </c>
       <c r="AA68" s="0">
-        <v>-2.0010981586429719</v>
+        <v>-2</v>
       </c>
       <c r="AB68" s="0">
         <v>-2.7647117975153326</v>
       </c>
       <c r="AC68" s="0">
-        <v>2.0010981586429719</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -6248,13 +6335,13 @@
         <v>2.1722803779055533</v>
       </c>
       <c r="E69" s="0">
-        <v>-2.8025628479951155</v>
+        <v>-2.8025129373926108</v>
       </c>
       <c r="F69" s="0">
-        <v>-2.8180211880193391</v>
+        <v>-2.8180548538972006</v>
       </c>
       <c r="G69" s="0">
-        <v>-2.8217218651226821</v>
+        <v>-2.8217960020049278</v>
       </c>
       <c r="H69" s="0">
         <v>0</v>
@@ -6275,19 +6362,19 @@
         <v>0</v>
       </c>
       <c r="N69" s="0">
-        <v>1.9962678855200586e-08</v>
+        <v>1.9953382090051417e-08</v>
       </c>
       <c r="O69" s="0">
-        <v>2.0432290417860656e-08</v>
+        <v>2.042796885402429e-08</v>
       </c>
       <c r="P69" s="0">
-        <v>2.2516404399420372e-08</v>
+        <v>2.2523466596283447e-08</v>
       </c>
       <c r="Q69" s="0">
-        <v>846478.56091040582</v>
+        <v>846478.56091040513</v>
       </c>
       <c r="R69" s="0">
-        <v>846478.56094454741</v>
+        <v>846478.56094454788</v>
       </c>
       <c r="S69" s="0">
         <v>846478.56094514066</v>
@@ -6337,13 +6424,13 @@
         <v>2.2235102815703121</v>
       </c>
       <c r="E70" s="0">
-        <v>-2.8638522382885676</v>
+        <v>-2.864855118421723</v>
       </c>
       <c r="F70" s="0">
-        <v>-2.8691980932741088</v>
+        <v>-2.8695110824469401</v>
       </c>
       <c r="G70" s="0">
-        <v>-2.874149221372964</v>
+        <v>-2.8744589995347858</v>
       </c>
       <c r="H70" s="0">
         <v>0</v>
@@ -6364,22 +6451,22 @@
         <v>0</v>
       </c>
       <c r="N70" s="0">
-        <v>1.4360102171104027e-08</v>
+        <v>1.4332178943827744e-08</v>
       </c>
       <c r="O70" s="0">
-        <v>1.4813849702477455e-08</v>
+        <v>1.4784745872020721e-08</v>
       </c>
       <c r="P70" s="0">
-        <v>1.5319883064201746e-08</v>
+        <v>1.5223651674099173e-08</v>
       </c>
       <c r="Q70" s="0">
         <v>1167910.8719974372</v>
       </c>
       <c r="R70" s="0">
-        <v>1167910.8723328726</v>
+        <v>1167910.8723328721</v>
       </c>
       <c r="S70" s="0">
-        <v>1167910.8723338107</v>
+        <v>1167910.8723338109</v>
       </c>
       <c r="T70" s="0">
         <v>0</v>
@@ -6423,16 +6510,16 @@
         <v>2.2721501487328708</v>
       </c>
       <c r="D71" s="0">
-        <v>2.2721501487421576</v>
+        <v>2.272150148742158</v>
       </c>
       <c r="E71" s="0">
-        <v>-2.9063437233664429</v>
+        <v>-2.9060629007932395</v>
       </c>
       <c r="F71" s="0">
-        <v>-2.9199360996170349</v>
+        <v>-2.9196826982675343</v>
       </c>
       <c r="G71" s="0">
-        <v>-2.9233277014596712</v>
+        <v>-2.9231904375996112</v>
       </c>
       <c r="H71" s="0">
         <v>0</v>
@@ -6453,22 +6540,22 @@
         <v>0</v>
       </c>
       <c r="N71" s="0">
-        <v>1.0542937189939039e-08</v>
+        <v>1.0552033913313608e-08</v>
       </c>
       <c r="O71" s="0">
-        <v>1.0770018812633391e-08</v>
+        <v>1.0787180146260668e-08</v>
       </c>
       <c r="P71" s="0">
-        <v>1.1730234532098123e-08</v>
+        <v>1.1750950335570882e-08</v>
       </c>
       <c r="Q71" s="0">
-        <v>1585389.1096685093</v>
+        <v>1585389.1096685079</v>
       </c>
       <c r="R71" s="0">
         <v>1585389.1096697031</v>
       </c>
       <c r="S71" s="0">
-        <v>1585389.1097622102</v>
+        <v>1585389.1097622125</v>
       </c>
       <c r="T71" s="0">
         <v>0</v>
@@ -6515,22 +6602,22 @@
         <v>2.3183844889319505</v>
       </c>
       <c r="E72" s="0">
-        <v>-2.9629360943802898</v>
+        <v>-2.9612706418198891</v>
       </c>
       <c r="F72" s="0">
-        <v>-2.9758891887777166</v>
+        <v>-2.9805162353281416</v>
       </c>
       <c r="G72" s="0">
-        <v>-2.9971555575225</v>
+        <v>-3.0000162773167092</v>
       </c>
       <c r="H72" s="0">
         <v>0</v>
       </c>
       <c r="I72" s="0">
-        <v>-7.9940707878119914e-14</v>
+        <v>-8.0041547144951902e-14</v>
       </c>
       <c r="J72" s="0">
-        <v>7.9940707878119914e-14</v>
+        <v>8.0041547144951902e-14</v>
       </c>
       <c r="K72" s="0">
         <v>0</v>
@@ -6542,22 +6629,22 @@
         <v>0</v>
       </c>
       <c r="N72" s="0">
-        <v>6.6298493044091163e-09</v>
+        <v>6.5117461236251278e-09</v>
       </c>
       <c r="O72" s="0">
-        <v>7.5776460976835913e-09</v>
+        <v>7.3605158553178847e-09</v>
       </c>
       <c r="P72" s="0">
-        <v>8.2201569505288262e-09</v>
+        <v>8.3066271638281113e-09</v>
       </c>
       <c r="Q72" s="0">
-        <v>2119814.9540277952</v>
+        <v>2119814.9540277966</v>
       </c>
       <c r="R72" s="0">
-        <v>2119814.9545527985</v>
+        <v>2119814.9545527995</v>
       </c>
       <c r="S72" s="0">
-        <v>2119814.9545527985</v>
+        <v>2119814.9545527995</v>
       </c>
       <c r="T72" s="0">
         <v>0</v>
@@ -6572,10 +6659,10 @@
         <v>0</v>
       </c>
       <c r="X72" s="0">
-        <v>-1.0647454910635742e-06</v>
+        <v>-1.0660885884357571e-06</v>
       </c>
       <c r="Y72" s="0">
-        <v>1.0647454910635742e-06</v>
+        <v>1.0660885884357571e-06</v>
       </c>
       <c r="Z72" s="0">
         <v>2.3183844888925331</v>
@@ -6592,7 +6679,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>7.0999999999999997</v>
+        <v>7.0999999999999996</v>
       </c>
       <c r="B73" s="0">
         <v>2.3623476757677984</v>
@@ -6604,13 +6691,13 @@
         <v>2.3623476758351925</v>
       </c>
       <c r="E73" s="0">
-        <v>-2.9340493703106434</v>
+        <v>-2.9409208232839807</v>
       </c>
       <c r="F73" s="0">
-        <v>-3.0230407611959032</v>
+        <v>-3.0153925042115937</v>
       </c>
       <c r="G73" s="0">
-        <v>-3.0230407611959032</v>
+        <v>-3.0153925042115937</v>
       </c>
       <c r="H73" s="0">
         <v>0</v>
@@ -6625,34 +6712,34 @@
         <v>0</v>
       </c>
       <c r="L73" s="0">
-        <v>-0.010147957317708935</v>
+        <v>-0.0076481237150659255</v>
       </c>
       <c r="M73" s="0">
-        <v>0.010147957317708935</v>
+        <v>0.0076481237150659255</v>
       </c>
       <c r="N73" s="0">
-        <v>5.623230945890901e-09</v>
+        <v>5.905244729163552e-09</v>
       </c>
       <c r="O73" s="0">
-        <v>5.623230945890901e-09</v>
+        <v>5.905244729163552e-09</v>
       </c>
       <c r="P73" s="0">
-        <v>9.8560939880515887e-09</v>
+        <v>9.43961627512775e-09</v>
       </c>
       <c r="Q73" s="0">
-        <v>2794232.9958842788</v>
+        <v>2794232.9958842723</v>
       </c>
       <c r="R73" s="0">
-        <v>2794232.9970648279</v>
+        <v>2794232.9970648293</v>
       </c>
       <c r="S73" s="0">
-        <v>2794232.9970674901</v>
+        <v>2794232.9970674929</v>
       </c>
       <c r="T73" s="0">
-        <v>-3.5903230317700749e-10</v>
+        <v>-2.8399268303900337e-10</v>
       </c>
       <c r="U73" s="0">
-        <v>3.5903230317700749e-10</v>
+        <v>2.8399268303900337e-10</v>
       </c>
       <c r="V73" s="0">
         <v>0</v>
@@ -6670,13 +6757,13 @@
         <v>2.3623476757677984</v>
       </c>
       <c r="AA73" s="0">
-        <v>-2.010147957317709</v>
+        <v>-2.0076481237150658</v>
       </c>
       <c r="AB73" s="0">
         <v>-3.0088485302900652</v>
       </c>
       <c r="AC73" s="0">
-        <v>2.010147957317709</v>
+        <v>2.0076481237150658</v>
       </c>
     </row>
     <row r="74">
@@ -6693,40 +6780,40 @@
         <v>2.404133629822967</v>
       </c>
       <c r="E74" s="0">
-        <v>-3.0522170252100698</v>
+        <v>-3.0546882059625573</v>
       </c>
       <c r="F74" s="0">
-        <v>-3.0522170252100698</v>
+        <v>-3.0560318864467515</v>
       </c>
       <c r="G74" s="0">
-        <v>-3.0650505493640115</v>
+        <v>-3.0560318864467515</v>
       </c>
       <c r="H74" s="0">
-        <v>-1.6765386747685138e-14</v>
+        <v>-1.6727277936536954e-14</v>
       </c>
       <c r="I74" s="0">
-        <v>1.6765386747685138e-14</v>
+        <v>1.6727277936536954e-14</v>
       </c>
       <c r="J74" s="0">
         <v>0</v>
       </c>
       <c r="K74" s="0">
-        <v>-0.049784528353548969</v>
+        <v>0</v>
       </c>
       <c r="L74" s="0">
-        <v>0.049784528353548969</v>
+        <v>-0.067479058481168058</v>
       </c>
       <c r="M74" s="0">
-        <v>0</v>
+        <v>0.067479058481168058</v>
       </c>
       <c r="N74" s="0">
-        <v>4.3274794502724421e-09</v>
+        <v>4.1742753932471092e-09</v>
       </c>
       <c r="O74" s="0">
-        <v>4.4632524938644782e-09</v>
+        <v>4.1742753932471092e-09</v>
       </c>
       <c r="P74" s="0">
-        <v>4.4632524938644782e-09</v>
+        <v>4.6186099501380221e-09</v>
       </c>
       <c r="Q74" s="0">
         <v>3633173.6170224426</v>
@@ -6735,22 +6822,22 @@
         <v>3633173.6170224426</v>
       </c>
       <c r="S74" s="0">
-        <v>3633173.6186668691</v>
+        <v>3633173.618666871</v>
       </c>
       <c r="T74" s="0">
-        <v>0</v>
+        <v>-1.8840964258910512e-09</v>
       </c>
       <c r="U74" s="0">
-        <v>-1.4435210803756364e-09</v>
+        <v>1.8840964258910512e-09</v>
       </c>
       <c r="V74" s="0">
-        <v>1.4435210803756364e-09</v>
+        <v>0</v>
       </c>
       <c r="W74" s="0">
-        <v>-3.8271862392421756e-07</v>
+        <v>-3.8184867967649326e-07</v>
       </c>
       <c r="X74" s="0">
-        <v>3.8271862392421756e-07</v>
+        <v>3.8184867967649326e-07</v>
       </c>
       <c r="Y74" s="0">
         <v>0</v>
@@ -6759,13 +6846,13 @@
         <v>2.4041336297509313</v>
       </c>
       <c r="AA74" s="0">
-        <v>-2.0497845283535492</v>
+        <v>-2.067479058481168</v>
       </c>
       <c r="AB74" s="0">
         <v>-3.0506344842731981</v>
       </c>
       <c r="AC74" s="0">
-        <v>2.0497845283535492</v>
+        <v>2.067479058481168</v>
       </c>
     </row>
     <row r="75">
@@ -6782,64 +6869,64 @@
         <v>2.4438020284125486</v>
       </c>
       <c r="E75" s="0">
-        <v>-3.0770192072632767</v>
+        <v>-3.0767446382845312</v>
       </c>
       <c r="F75" s="0">
-        <v>-3.0925681795193021</v>
+        <v>-3.0767446382845312</v>
       </c>
       <c r="G75" s="0">
-        <v>-3.1155897585018062</v>
+        <v>-3.1276062579470563</v>
       </c>
       <c r="H75" s="0">
-        <v>-7.9386018070643568e-14</v>
+        <v>-7.9559531379784758e-14</v>
       </c>
       <c r="I75" s="0">
-        <v>7.9386018070643568e-14</v>
+        <v>7.9559531379784758e-14</v>
       </c>
       <c r="J75" s="0">
         <v>0</v>
       </c>
       <c r="K75" s="0">
-        <v>0</v>
+        <v>-0.0073320915293203287</v>
       </c>
       <c r="L75" s="0">
-        <v>0</v>
+        <v>0.0073320915293203287</v>
       </c>
       <c r="M75" s="0">
         <v>-0</v>
       </c>
       <c r="N75" s="0">
-        <v>-3.1501121114120685e-09</v>
+        <v>-2.921029581014367e-09</v>
       </c>
       <c r="O75" s="0">
-        <v>3.6403756975663173e-09</v>
+        <v>4.0166474412935979e-09</v>
       </c>
       <c r="P75" s="0">
-        <v>4.01398279437215e-09</v>
+        <v>4.0166474412935979e-09</v>
       </c>
       <c r="Q75" s="0">
-        <v>4661561.3255311288</v>
+        <v>4661561.3255311269</v>
       </c>
       <c r="R75" s="0">
-        <v>4661561.3255311288</v>
+        <v>4661561.3255311269</v>
       </c>
       <c r="S75" s="0">
-        <v>4661561.3264378347</v>
+        <v>4661561.3264378468</v>
       </c>
       <c r="T75" s="0">
         <v>0</v>
       </c>
       <c r="U75" s="0">
-        <v>0</v>
+        <v>-1.8517350728975295e-10</v>
       </c>
       <c r="V75" s="0">
-        <v>0</v>
+        <v>1.8517350728975295e-10</v>
       </c>
       <c r="W75" s="0">
-        <v>-2.3251730950785158e-06</v>
+        <v>-2.3302552051006368e-06</v>
       </c>
       <c r="X75" s="0">
-        <v>2.3251730950785158e-06</v>
+        <v>2.3302552051006368e-06</v>
       </c>
       <c r="Y75" s="0">
         <v>0</v>
@@ -6848,13 +6935,13 @@
         <v>2.4438020283815916</v>
       </c>
       <c r="AA75" s="0">
-        <v>-2.0000000000000795</v>
+        <v>-2.0073320915293205</v>
       </c>
       <c r="AB75" s="0">
         <v>-3.0903028829038584</v>
       </c>
       <c r="AC75" s="0">
-        <v>2.0000000000000795</v>
+        <v>2.0073320915293205</v>
       </c>
     </row>
     <row r="76">
@@ -6871,13 +6958,13 @@
         <v>2.4813820169035168</v>
       </c>
       <c r="E76" s="0">
-        <v>-3.0767369414450143</v>
+        <v>-3.0780686169294582</v>
       </c>
       <c r="F76" s="0">
-        <v>-3.0767369414450143</v>
+        <v>-3.0780686169294582</v>
       </c>
       <c r="G76" s="0">
-        <v>-3.4027603308389844</v>
+        <v>-3.3335963425893</v>
       </c>
       <c r="H76" s="0">
         <v>0</v>
@@ -6889,40 +6976,40 @@
         <v>0</v>
       </c>
       <c r="K76" s="0">
-        <v>-0.033039051025432885</v>
+        <v>-0.035317847805084422</v>
       </c>
       <c r="L76" s="0">
-        <v>0.033039051025432885</v>
+        <v>0.035317847805084422</v>
       </c>
       <c r="M76" s="0">
         <v>-0</v>
       </c>
       <c r="N76" s="0">
-        <v>-5.184519754761989e-10</v>
+        <v>-8.0064492256231079e-10</v>
       </c>
       <c r="O76" s="0">
-        <v>3.9347762956596593e-09</v>
+        <v>3.8898237534484478e-09</v>
       </c>
       <c r="P76" s="0">
-        <v>3.9347762956596593e-09</v>
+        <v>3.8898237534484478e-09</v>
       </c>
       <c r="Q76" s="0">
-        <v>5903069.5130126439</v>
+        <v>5903069.5130126588</v>
       </c>
       <c r="R76" s="0">
-        <v>5903069.5134327095</v>
+        <v>5903069.5134326955</v>
       </c>
       <c r="S76" s="0">
-        <v>5903069.5134584392</v>
+        <v>5903069.5134584419</v>
       </c>
       <c r="T76" s="0">
         <v>0</v>
       </c>
       <c r="U76" s="0">
-        <v>-8.2876126852590233e-10</v>
+        <v>-8.7763876901834163e-10</v>
       </c>
       <c r="V76" s="0">
-        <v>8.2876126852590233e-10</v>
+        <v>8.7763876901834163e-10</v>
       </c>
       <c r="W76" s="0">
         <v>0</v>
@@ -6937,13 +7024,13 @@
         <v>2.481382016891498</v>
       </c>
       <c r="AA76" s="0">
-        <v>-2.0330390510254328</v>
+        <v>-2.0353178478050844</v>
       </c>
       <c r="AB76" s="0">
         <v>-3.1278828714137648</v>
       </c>
       <c r="AC76" s="0">
-        <v>2.0330390510254328</v>
+        <v>2.0353178478050844</v>
       </c>
     </row>
     <row r="77">
@@ -6951,7 +7038,7 @@
         <v>7.5</v>
       </c>
       <c r="B77" s="0">
-        <v>2.5168739514078839</v>
+        <v>2.5168739514078844</v>
       </c>
       <c r="C77" s="0">
         <v>2.5168739515753442</v>
@@ -6963,10 +7050,10 @@
         <v>-3.0210849644490718</v>
       </c>
       <c r="F77" s="0">
-        <v>-3.1130470989558816</v>
+        <v>-3.1180092862121103</v>
       </c>
       <c r="G77" s="0">
-        <v>-3.4612425103233986</v>
+        <v>-3.6142009299396127</v>
       </c>
       <c r="H77" s="0">
         <v>0</v>
@@ -6987,22 +7074,22 @@
         <v>0</v>
       </c>
       <c r="N77" s="0">
-        <v>3.5902536137051343e-10</v>
+        <v>1.3732178066026515e-10</v>
       </c>
       <c r="O77" s="0">
-        <v>3.2008424610314315e-09</v>
+        <v>3.1025852084545285e-09</v>
       </c>
       <c r="P77" s="0">
         <v>5.7043507695198059e-09</v>
       </c>
       <c r="Q77" s="0">
-        <v>7377795.4431397216</v>
+        <v>7377795.4431397272</v>
       </c>
       <c r="R77" s="0">
-        <v>7377795.4509025188</v>
+        <v>7377795.4509025207</v>
       </c>
       <c r="S77" s="0">
-        <v>7377795.4509061491</v>
+        <v>7377795.4509061528</v>
       </c>
       <c r="T77" s="0">
         <v>0</v>
@@ -7023,13 +7110,13 @@
         <v>0</v>
       </c>
       <c r="Z77" s="0">
-        <v>2.5168739514078839</v>
+        <v>2.5168739514078844</v>
       </c>
       <c r="AA77" s="0">
         <v>-2</v>
       </c>
       <c r="AB77" s="0">
-        <v>-3.1633748059301508</v>
+        <v>-3.1633748059301512</v>
       </c>
       <c r="AC77" s="0">
         <v>2</v>
@@ -7037,7 +7124,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>7.5999999999999997</v>
+        <v>7.5999999999999996</v>
       </c>
       <c r="B78" s="0">
         <v>2.5502494162451566</v>
@@ -7049,79 +7136,79 @@
         <v>2.5502494163984477</v>
       </c>
       <c r="E78" s="0">
-        <v>-3.0083802358142688</v>
+        <v>-3.0234461767500984</v>
       </c>
       <c r="F78" s="0">
-        <v>-3.0083802358142688</v>
+        <v>-3.0234461767500984</v>
       </c>
       <c r="G78" s="0">
-        <v>-3.3076165451578063</v>
+        <v>-3.2321791723220863</v>
       </c>
       <c r="H78" s="0">
         <v>0</v>
       </c>
       <c r="I78" s="0">
-        <v>-5.9906030933947145e-14</v>
+        <v>-6.0026984608420785e-14</v>
       </c>
       <c r="J78" s="0">
-        <v>5.9906030933947145e-14</v>
+        <v>6.0026984608420785e-14</v>
       </c>
       <c r="K78" s="0">
-        <v>-0.063696084011153259</v>
+        <v>-0.013309068486988273</v>
       </c>
       <c r="L78" s="0">
-        <v>0.063696084011153259</v>
+        <v>0.013309068486988273</v>
       </c>
       <c r="M78" s="0">
         <v>0</v>
       </c>
       <c r="N78" s="0">
-        <v>9.4261076749373604e-10</v>
+        <v>1.5141968270779834e-09</v>
       </c>
       <c r="O78" s="0">
-        <v>5.6901447687875248e-09</v>
+        <v>5.6007063724290783e-09</v>
       </c>
       <c r="P78" s="0">
-        <v>5.6901447687875248e-09</v>
+        <v>5.6007063724290783e-09</v>
       </c>
       <c r="Q78" s="0">
-        <v>9099132.7231316213</v>
+        <v>9099132.723131625</v>
       </c>
       <c r="R78" s="0">
-        <v>9099132.7318955194</v>
+        <v>9099132.7318955213</v>
       </c>
       <c r="S78" s="0">
-        <v>9099132.7318955194</v>
+        <v>9099132.7318955213</v>
       </c>
       <c r="T78" s="0">
         <v>0</v>
       </c>
       <c r="U78" s="0">
-        <v>-2.4071921170995236e-09</v>
+        <v>-4.6944455760389706e-10</v>
       </c>
       <c r="V78" s="0">
-        <v>2.4071921170995236e-09</v>
+        <v>4.6944455760389706e-10</v>
       </c>
       <c r="W78" s="0">
         <v>0</v>
       </c>
       <c r="X78" s="0">
-        <v>-3.4249198694022958e-06</v>
+        <v>-3.4318349768885318e-06</v>
       </c>
       <c r="Y78" s="0">
-        <v>3.4249198694022958e-06</v>
+        <v>3.4318349768885318e-06</v>
       </c>
       <c r="Z78" s="0">
         <v>2.5502494162451566</v>
       </c>
       <c r="AA78" s="0">
-        <v>-2.0636960840111533</v>
+        <v>-2.0133090684869881</v>
       </c>
       <c r="AB78" s="0">
         <v>-3.1967502707674234</v>
       </c>
       <c r="AC78" s="0">
-        <v>2.0636960840111533</v>
+        <v>2.0133090684869881</v>
       </c>
     </row>
     <row r="79">
@@ -7138,19 +7225,19 @@
         <v>2.5814495175933048</v>
       </c>
       <c r="E79" s="0">
-        <v>-2.8937238027226901</v>
+        <v>-2.9120201044786054</v>
       </c>
       <c r="F79" s="0">
-        <v>-3.1195824542694592</v>
+        <v>-3.1116168116770297</v>
       </c>
       <c r="G79" s="0">
-        <v>-3.3095340022897739</v>
+        <v>-3.2740196030790378</v>
       </c>
       <c r="H79" s="0">
-        <v>-9.0158770040183689e-14</v>
+        <v>-9.0024151451137695e-14</v>
       </c>
       <c r="I79" s="0">
-        <v>9.0158770040183689e-14</v>
+        <v>9.0024151451137695e-14</v>
       </c>
       <c r="J79" s="0">
         <v>0</v>
@@ -7165,13 +7252,13 @@
         <v>0</v>
       </c>
       <c r="N79" s="0">
-        <v>9.3132257461547852e-10</v>
+        <v>1.1641532182693481e-09</v>
       </c>
       <c r="O79" s="0">
-        <v>3.0720687535421323e-09</v>
+        <v>3.2297373051245018e-09</v>
       </c>
       <c r="P79" s="0">
-        <v>-1.269823435511869e-08</v>
+        <v>-1.1319239655474809e-08</v>
       </c>
       <c r="Q79" s="0">
         <v>11069738.469702408</v>
@@ -7180,7 +7267,7 @@
         <v>11069738.469702408</v>
       </c>
       <c r="S79" s="0">
-        <v>11069738.479688883</v>
+        <v>11069738.47968889</v>
       </c>
       <c r="T79" s="0">
         <v>0</v>
@@ -7192,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="W79" s="0">
-        <v>-6.2708325968777102e-06</v>
+        <v>-6.2614694407925164e-06</v>
       </c>
       <c r="X79" s="0">
-        <v>6.2708325968777102e-06</v>
+        <v>6.2614694407925164e-06</v>
       </c>
       <c r="Y79" s="0">
         <v>0</v>
@@ -7316,13 +7403,13 @@
         <v>2.636911252476001</v>
       </c>
       <c r="E81" s="0">
-        <v>-2.7926239819436201</v>
+        <v>-2.7896258938603413</v>
       </c>
       <c r="F81" s="0">
-        <v>-2.9997286149464912</v>
+        <v>-2.9781343964942435</v>
       </c>
       <c r="G81" s="0">
-        <v>-3.3432506573245622</v>
+        <v>-3.3198298477838337</v>
       </c>
       <c r="H81" s="0">
         <v>0</v>
@@ -7343,22 +7430,22 @@
         <v>-0</v>
       </c>
       <c r="N81" s="0">
-        <v>-6.5235263306264496e-09</v>
+        <v>-7.4714982956638228e-09</v>
       </c>
       <c r="O81" s="0">
-        <v>-7.5352161787986059e-10</v>
+        <v>-8.7298204969588803e-10</v>
       </c>
       <c r="P81" s="0">
-        <v>2.3967335083840396e-08</v>
+        <v>2.4423100057705471e-08</v>
       </c>
       <c r="Q81" s="0">
-        <v>15684790.399374705</v>
+        <v>15684790.399374697</v>
       </c>
       <c r="R81" s="0">
         <v>15684790.422918703</v>
       </c>
       <c r="S81" s="0">
-        <v>15684790.422928832</v>
+        <v>15684790.422928857</v>
       </c>
       <c r="T81" s="0">
         <v>0</v>
@@ -7405,13 +7492,13 @@
         <v>2.6608565055935363</v>
       </c>
       <c r="E82" s="0">
-        <v>-2.95627115977077</v>
+        <v>-2.969043210919335</v>
       </c>
       <c r="F82" s="0">
-        <v>-2.9670896974899343</v>
+        <v>-3.0419160298916319</v>
       </c>
       <c r="G82" s="0">
-        <v>-2.9670896974899343</v>
+        <v>-3.3107261062887199</v>
       </c>
       <c r="H82" s="0">
         <v>0</v>
@@ -7423,37 +7510,37 @@
         <v>0</v>
       </c>
       <c r="K82" s="0">
+        <v>0</v>
+      </c>
+      <c r="L82" s="0">
         <v>-0</v>
       </c>
-      <c r="L82" s="0">
-        <v>-0.11945010866565385</v>
-      </c>
       <c r="M82" s="0">
-        <v>0.11945010866565385</v>
+        <v>-0</v>
       </c>
       <c r="N82" s="0">
-        <v>5.8567812590990195e-09</v>
+        <v>-5.0045311510091283e-09</v>
       </c>
       <c r="O82" s="0">
-        <v>5.8567812590990195e-09</v>
+        <v>-9.2437283265220168e-10</v>
       </c>
       <c r="P82" s="0">
-        <v>-8.5717020786707524e-09</v>
+        <v>7.9107069952568402e-09</v>
       </c>
       <c r="Q82" s="0">
-        <v>18231373.646621674</v>
+        <v>18231373.646621659</v>
       </c>
       <c r="R82" s="0">
-        <v>18231373.751565989</v>
+        <v>18231373.751565978</v>
       </c>
       <c r="S82" s="0">
-        <v>18231373.751599088</v>
+        <v>18231373.751599107</v>
       </c>
       <c r="T82" s="0">
-        <v>-5.4619265876390283e-09</v>
+        <v>0</v>
       </c>
       <c r="U82" s="0">
-        <v>5.4619265876390283e-09</v>
+        <v>0</v>
       </c>
       <c r="V82" s="0">
         <v>0</v>
@@ -7471,18 +7558,18 @@
         <v>2.660856504677112</v>
       </c>
       <c r="AA82" s="0">
-        <v>-2.1194501086656539</v>
+        <v>-2</v>
       </c>
       <c r="AB82" s="0">
         <v>-3.3073573591993788</v>
       </c>
       <c r="AC82" s="0">
-        <v>2.1194501086656539</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>8.0999999999999997</v>
+        <v>8.0999999999999996</v>
       </c>
       <c r="B83" s="0">
         <v>2.6819694930747775</v>
@@ -7494,79 +7581,79 @@
         <v>2.6819694936673026</v>
       </c>
       <c r="E83" s="0">
-        <v>-2.8917935527832399</v>
+        <v>-2.9188899396003269</v>
       </c>
       <c r="F83" s="0">
-        <v>-2.8917935527832399</v>
+        <v>-2.9188899396003269</v>
       </c>
       <c r="G83" s="0">
-        <v>-3.0220658798775202</v>
+        <v>-3.1405689042654328</v>
       </c>
       <c r="H83" s="0">
         <v>0</v>
       </c>
       <c r="I83" s="0">
-        <v>-1.2360056840947588e-13</v>
+        <v>-1.2358951646977497e-13</v>
       </c>
       <c r="J83" s="0">
-        <v>1.2360056840947588e-13</v>
+        <v>1.2358951646977497e-13</v>
       </c>
       <c r="K83" s="0">
-        <v>0.14178650686908131</v>
+        <v>0.19448171564144848</v>
       </c>
       <c r="L83" s="0">
-        <v>-0.14178650686908131</v>
+        <v>-0.19448171564144848</v>
       </c>
       <c r="M83" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N83" s="0">
-        <v>5.6693014164357226e-09</v>
+        <v>-2.6925519965336479e-09</v>
       </c>
       <c r="O83" s="0">
-        <v>-8.0812431960631061e-09</v>
+        <v>-3.7054702223729758e-09</v>
       </c>
       <c r="P83" s="0">
-        <v>-8.0812431960631061e-09</v>
+        <v>-3.7054702223729758e-09</v>
       </c>
       <c r="Q83" s="0">
         <v>20817641.061923325</v>
       </c>
       <c r="R83" s="0">
-        <v>20817641.139426209</v>
+        <v>20817641.139426224</v>
       </c>
       <c r="S83" s="0">
-        <v>20817641.139426209</v>
+        <v>20817641.139426224</v>
       </c>
       <c r="T83" s="0">
         <v>0</v>
       </c>
       <c r="U83" s="0">
-        <v>-9.9948829952595704e-09</v>
+        <v>-1.0188118648785039e-08</v>
       </c>
       <c r="V83" s="0">
-        <v>9.9948829952595704e-09</v>
+        <v>1.0188118648785039e-08</v>
       </c>
       <c r="W83" s="0">
         <v>0</v>
       </c>
       <c r="X83" s="0">
-        <v>-1.6167089930043128e-05</v>
+        <v>-1.6165644324206977e-05</v>
       </c>
       <c r="Y83" s="0">
-        <v>1.6167089930043128e-05</v>
+        <v>1.6165644324206977e-05</v>
       </c>
       <c r="Z83" s="0">
         <v>2.6819694930747775</v>
       </c>
       <c r="AA83" s="0">
-        <v>-2.1417865068690811</v>
+        <v>-2.1944817156414484</v>
       </c>
       <c r="AB83" s="0">
         <v>-3.3284703475970443</v>
       </c>
       <c r="AC83" s="0">
-        <v>2.1417865068690811</v>
+        <v>2.1944817156414484</v>
       </c>
     </row>
     <row r="84">
@@ -7580,16 +7667,16 @@
         <v>2.699915769957542</v>
       </c>
       <c r="D84" s="0">
-        <v>2.6999157699579843</v>
+        <v>2.6999157699579834</v>
       </c>
       <c r="E84" s="0">
-        <v>-2.8107363812232711</v>
+        <v>-2.7683451147982638</v>
       </c>
       <c r="F84" s="0">
-        <v>-2.8107363812232711</v>
+        <v>-2.7683451147982638</v>
       </c>
       <c r="G84" s="0">
-        <v>-3.2844316081417406</v>
+        <v>-3.1081767884561886</v>
       </c>
       <c r="H84" s="0">
         <v>0</v>
@@ -7601,40 +7688,40 @@
         <v>0</v>
       </c>
       <c r="K84" s="0">
-        <v>0.21270273816858259</v>
+        <v>0.23224652955926858</v>
       </c>
       <c r="L84" s="0">
-        <v>-0.21270273816858259</v>
+        <v>-0.23224652955926858</v>
       </c>
       <c r="M84" s="0">
         <v>-0</v>
       </c>
       <c r="N84" s="0">
-        <v>-1.0904314179666172e-09</v>
+        <v>-3.3003057232878387e-09</v>
       </c>
       <c r="O84" s="0">
-        <v>-4.9667227430522032e-09</v>
+        <v>-3.1076555167387423e-09</v>
       </c>
       <c r="P84" s="0">
-        <v>-4.9667227430522032e-09</v>
+        <v>-3.1076555167387423e-09</v>
       </c>
       <c r="Q84" s="0">
-        <v>23302497.368160374</v>
+        <v>23302497.368160382</v>
       </c>
       <c r="R84" s="0">
         <v>23302497.378521014</v>
       </c>
       <c r="S84" s="0">
-        <v>23302497.378585756</v>
+        <v>23302497.378585722</v>
       </c>
       <c r="T84" s="0">
         <v>0</v>
       </c>
       <c r="U84" s="0">
-        <v>-2.0804603785651407e-08</v>
+        <v>-2.774362334595762e-08</v>
       </c>
       <c r="V84" s="0">
-        <v>2.0804603785651407e-08</v>
+        <v>2.774362334595762e-08</v>
       </c>
       <c r="W84" s="0">
         <v>0</v>
@@ -7649,13 +7736,13 @@
         <v>2.6999157698867795</v>
       </c>
       <c r="AA84" s="0">
-        <v>-2.2127027381685824</v>
+        <v>-2.2322465295592684</v>
       </c>
       <c r="AB84" s="0">
         <v>-3.3464166244090463</v>
       </c>
       <c r="AC84" s="0">
-        <v>2.2127027381685824</v>
+        <v>2.2322465295592684</v>
       </c>
     </row>
     <row r="85">
@@ -7672,19 +7759,19 @@
         <v>2.7142381406864131</v>
       </c>
       <c r="E85" s="0">
-        <v>-2.7130856798543901</v>
+        <v>-2.7254384090985306</v>
       </c>
       <c r="F85" s="0">
-        <v>-2.7373724624329494</v>
+        <v>-2.7462267516164682</v>
       </c>
       <c r="G85" s="0">
-        <v>-3.1727361452385581</v>
+        <v>-3.2616820625215688</v>
       </c>
       <c r="H85" s="0">
-        <v>-2.5480242746988631e-13</v>
+        <v>-2.5480199599845424e-13</v>
       </c>
       <c r="I85" s="0">
-        <v>2.5480242746988631e-13</v>
+        <v>2.5480199599845424e-13</v>
       </c>
       <c r="J85" s="0">
         <v>0</v>
@@ -7699,22 +7786,22 @@
         <v>-0</v>
       </c>
       <c r="N85" s="0">
-        <v>-2.1998225667311101e-09</v>
+        <v>-1.2579872524253112e-09</v>
       </c>
       <c r="O85" s="0">
-        <v>-3.3914661065753471e-08</v>
+        <v>-3.2079405819998738e-08</v>
       </c>
       <c r="P85" s="0">
-        <v>3.9505731243972812e-08</v>
+        <v>3.6555485948231538e-08</v>
       </c>
       <c r="Q85" s="0">
-        <v>25496741.064950213</v>
+        <v>25496741.064950198</v>
       </c>
       <c r="R85" s="0">
-        <v>25496741.064950213</v>
+        <v>25496741.064950198</v>
       </c>
       <c r="S85" s="0">
-        <v>25496741.196524814</v>
+        <v>25496741.196524829</v>
       </c>
       <c r="T85" s="0">
         <v>0</v>
@@ -7726,10 +7813,10 @@
         <v>0</v>
       </c>
       <c r="W85" s="0">
-        <v>-4.0819539686991206e-05</v>
+        <v>-4.0819470564944659e-05</v>
       </c>
       <c r="X85" s="0">
-        <v>4.0819539686991206e-05</v>
+        <v>4.0819470564944659e-05</v>
       </c>
       <c r="Y85" s="0">
         <v>0</v>
@@ -7761,19 +7848,19 @@
         <v>2.7242974539357139</v>
       </c>
       <c r="E86" s="0">
-        <v>-2.7463153202620836</v>
+        <v>-2.7441040202580371</v>
       </c>
       <c r="F86" s="0">
-        <v>-2.826550937863686</v>
+        <v>-2.8213201681736448</v>
       </c>
       <c r="G86" s="0">
-        <v>-3.0629886224089495</v>
+        <v>-3.1042255597324142</v>
       </c>
       <c r="H86" s="0">
-        <v>-7.4926770696780987e-14</v>
+        <v>-7.4991713668824162e-14</v>
       </c>
       <c r="I86" s="0">
-        <v>7.4926770696780987e-14</v>
+        <v>7.4991713668824162e-14</v>
       </c>
       <c r="J86" s="0">
         <v>0</v>
@@ -7788,19 +7875,19 @@
         <v>0</v>
       </c>
       <c r="N86" s="0">
-        <v>4.3839087213466841e-09</v>
+        <v>3.3832656438116752e-09</v>
       </c>
       <c r="O86" s="0">
-        <v>-1.9366069000740947e-08</v>
+        <v>-2.0013127023571338e-08</v>
       </c>
       <c r="P86" s="0">
-        <v>3.20615588147183e-08</v>
+        <v>3.2510131378795295e-08</v>
       </c>
       <c r="Q86" s="0">
-        <v>27160267.980334021</v>
+        <v>27160267.980334014</v>
       </c>
       <c r="R86" s="0">
-        <v>27160267.980334021</v>
+        <v>27160267.980334014</v>
       </c>
       <c r="S86" s="0">
         <v>27160268.187335543</v>
@@ -7815,10 +7902,10 @@
         <v>0</v>
       </c>
       <c r="W86" s="0">
-        <v>-1.2786477953440579e-05</v>
+        <v>-1.2797560666235199e-05</v>
       </c>
       <c r="X86" s="0">
-        <v>1.2786477953440579e-05</v>
+        <v>1.2797560666235199e-05</v>
       </c>
       <c r="Y86" s="0">
         <v>0</v>
@@ -7844,19 +7931,19 @@
         <v>2.7291689198873845</v>
       </c>
       <c r="C87" s="0">
-        <v>2.7291689220486273</v>
+        <v>2.7291689220486277</v>
       </c>
       <c r="D87" s="0">
         <v>2.7291689220488791</v>
       </c>
       <c r="E87" s="0">
-        <v>-2.5654369889156787</v>
+        <v>-2.5803452347004936</v>
       </c>
       <c r="F87" s="0">
-        <v>-3.2400800652180033</v>
+        <v>-2.9912550997384435</v>
       </c>
       <c r="G87" s="0">
-        <v>-3.4852179945009567</v>
+        <v>-3.5252965835689629</v>
       </c>
       <c r="H87" s="0">
         <v>0</v>
@@ -7874,25 +7961,25 @@
         <v>0</v>
       </c>
       <c r="M87" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N87" s="0">
-        <v>-3.0881754108288859e-10</v>
+        <v>2.4006972898883738e-10</v>
       </c>
       <c r="O87" s="0">
-        <v>1.4408631980488955e-09</v>
+        <v>6.8802551997470694e-09</v>
       </c>
       <c r="P87" s="0">
-        <v>9.9898017608252395e-08</v>
+        <v>9.0965341453836813e-08</v>
       </c>
       <c r="Q87" s="0">
-        <v>28004452.07693601</v>
+        <v>28004452.076935995</v>
       </c>
       <c r="R87" s="0">
-        <v>28004452.457222141</v>
+        <v>28004452.457222164</v>
       </c>
       <c r="S87" s="0">
-        <v>28004452.457266498</v>
+        <v>28004452.45726651</v>
       </c>
       <c r="T87" s="0">
         <v>0</v>
@@ -7927,7 +8014,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>8.5999999999999997</v>
+        <v>8.5999999999999996</v>
       </c>
       <c r="B88" s="0">
         <v>2.7274461650195452</v>
@@ -7939,13 +8026,13 @@
         <v>2.7274461652247295</v>
       </c>
       <c r="E88" s="0">
-        <v>-2.7655716378711146</v>
+        <v>-2.675780821287538</v>
       </c>
       <c r="F88" s="0">
-        <v>-2.7655716378711146</v>
+        <v>-2.7440799267746159</v>
       </c>
       <c r="G88" s="0">
-        <v>-2.9846301061109579</v>
+        <v>-3.2258573346214838</v>
       </c>
       <c r="H88" s="0">
         <v>0</v>
@@ -7957,40 +8044,40 @@
         <v>0</v>
       </c>
       <c r="K88" s="0">
-        <v>-0.18566287105019136</v>
+        <v>0</v>
       </c>
       <c r="L88" s="0">
-        <v>0.18566287105019136</v>
+        <v>-0</v>
       </c>
       <c r="M88" s="0">
         <v>-0</v>
       </c>
       <c r="N88" s="0">
-        <v>-7.1726975189587045e-09</v>
+        <v>-3.2515053259242822e-08</v>
       </c>
       <c r="O88" s="0">
-        <v>1.1173448017278924e-08</v>
+        <v>-1.5755531689490423e-09</v>
       </c>
       <c r="P88" s="0">
-        <v>1.1173448017278924e-08</v>
+        <v>4.9940839525823544e-08</v>
       </c>
       <c r="Q88" s="0">
-        <v>27702955.720441785</v>
+        <v>27702955.720441811</v>
       </c>
       <c r="R88" s="0">
-        <v>27702955.721141465</v>
+        <v>27702955.721141458</v>
       </c>
       <c r="S88" s="0">
-        <v>27702955.756156784</v>
+        <v>27702955.756156791</v>
       </c>
       <c r="T88" s="0">
         <v>0</v>
       </c>
       <c r="U88" s="0">
-        <v>-2.6118231241961754e-08</v>
+        <v>0</v>
       </c>
       <c r="V88" s="0">
-        <v>2.6118231241961754e-08</v>
+        <v>0</v>
       </c>
       <c r="W88" s="0">
         <v>0</v>
@@ -8005,13 +8092,13 @@
         <v>2.7274461650195452</v>
       </c>
       <c r="AA88" s="0">
-        <v>-2.1856628710501913</v>
+        <v>-2</v>
       </c>
       <c r="AB88" s="0">
         <v>-3.373947019541812</v>
       </c>
       <c r="AC88" s="0">
-        <v>2.1856628710501913</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -8028,55 +8115,55 @@
         <v>2.7168301725457753</v>
       </c>
       <c r="E89" s="0">
-        <v>-2.4855234331149259</v>
+        <v>-2.4842282543972698</v>
       </c>
       <c r="F89" s="0">
-        <v>-2.9348241252116636</v>
+        <v>-2.9052403782865746</v>
       </c>
       <c r="G89" s="0">
-        <v>-2.9348241252116636</v>
+        <v>-2.9732058196873887</v>
       </c>
       <c r="H89" s="0">
         <v>0</v>
       </c>
       <c r="I89" s="0">
-        <v>-1.267105213331614e-13</v>
+        <v>-1.2680766681334439e-13</v>
       </c>
       <c r="J89" s="0">
-        <v>1.267105213331614e-13</v>
+        <v>1.2680766681334439e-13</v>
       </c>
       <c r="K89" s="0">
         <v>-0</v>
       </c>
       <c r="L89" s="0">
-        <v>-0.19238632237266132</v>
+        <v>0</v>
       </c>
       <c r="M89" s="0">
-        <v>0.19238632237266132</v>
+        <v>-0</v>
       </c>
       <c r="N89" s="0">
-        <v>3.4735156743411334e-09</v>
+        <v>-7.7064891096530208e-09</v>
       </c>
       <c r="O89" s="0">
-        <v>3.4735156743411334e-09</v>
+        <v>1.181183716549311e-08</v>
       </c>
       <c r="P89" s="0">
-        <v>-1.6505215607031064e-07</v>
+        <v>-1.6640080551938752e-07</v>
       </c>
       <c r="Q89" s="0">
-        <v>25915385.317737073</v>
+        <v>25915385.317737058</v>
       </c>
       <c r="R89" s="0">
-        <v>25915386.463839676</v>
+        <v>25915386.463839687</v>
       </c>
       <c r="S89" s="0">
-        <v>25915386.463839676</v>
+        <v>25915386.463839687</v>
       </c>
       <c r="T89" s="0">
-        <v>-9.172573259785273e-09</v>
+        <v>0</v>
       </c>
       <c r="U89" s="0">
-        <v>9.172573259785273e-09</v>
+        <v>0</v>
       </c>
       <c r="V89" s="0">
         <v>0</v>
@@ -8085,22 +8172,22 @@
         <v>0</v>
       </c>
       <c r="X89" s="0">
-        <v>-2.0632423131761957e-05</v>
+        <v>-2.0648241444490739e-05</v>
       </c>
       <c r="Y89" s="0">
-        <v>2.0632423131761957e-05</v>
+        <v>2.0648241444490739e-05</v>
       </c>
       <c r="Z89" s="0">
         <v>2.7168301655071807</v>
       </c>
       <c r="AA89" s="0">
-        <v>-2.1923863223726614</v>
+        <v>-2.000000000000127</v>
       </c>
       <c r="AB89" s="0">
         <v>-3.3633310200294475</v>
       </c>
       <c r="AC89" s="0">
-        <v>2.1923863223726614</v>
+        <v>2.000000000000127</v>
       </c>
     </row>
     <row r="90">
@@ -8108,7 +8195,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B90" s="0">
-        <v>2.6931288722217093</v>
+        <v>2.6931288722217088</v>
       </c>
       <c r="C90" s="0">
         <v>2.6931288722235611</v>
@@ -8117,13 +8204,13 @@
         <v>2.6931288848239952</v>
       </c>
       <c r="E90" s="0">
-        <v>-2.4550312381035413</v>
+        <v>-2.4804913712961594</v>
       </c>
       <c r="F90" s="0">
-        <v>-2.8784805807043004</v>
+        <v>-2.8676494474898271</v>
       </c>
       <c r="G90" s="0">
-        <v>-2.8784805807043004</v>
+        <v>-2.8800041075413989</v>
       </c>
       <c r="H90" s="0">
         <v>0</v>
@@ -8138,34 +8225,34 @@
         <v>-0</v>
       </c>
       <c r="L90" s="0">
-        <v>-0.091234899476145923</v>
+        <v>-0</v>
       </c>
       <c r="M90" s="0">
-        <v>0.091234899476145923</v>
+        <v>0</v>
       </c>
       <c r="N90" s="0">
-        <v>1.1740661775153182e-08</v>
+        <v>-1.703540465633677e-07</v>
       </c>
       <c r="O90" s="0">
-        <v>1.1740661775153182e-08</v>
+        <v>-1.4958698383891268e-08</v>
       </c>
       <c r="P90" s="0">
-        <v>-1.9990647516991313e-07</v>
+        <v>1.3841431041900071e-08</v>
       </c>
       <c r="Q90" s="0">
-        <v>22329690.429481469</v>
+        <v>22329690.429481447</v>
       </c>
       <c r="R90" s="0">
-        <v>22329690.429741286</v>
+        <v>22329690.429741271</v>
       </c>
       <c r="S90" s="0">
-        <v>22329692.197602235</v>
+        <v>22329692.197602242</v>
       </c>
       <c r="T90" s="0">
-        <v>-7.5792710073043456e-09</v>
+        <v>0</v>
       </c>
       <c r="U90" s="0">
-        <v>7.5792710073043456e-09</v>
+        <v>0</v>
       </c>
       <c r="V90" s="0">
         <v>0</v>
@@ -8180,16 +8267,16 @@
         <v>0</v>
       </c>
       <c r="Z90" s="0">
-        <v>2.6931288722217093</v>
+        <v>2.6931288722217088</v>
       </c>
       <c r="AA90" s="0">
-        <v>-2.091234899476146</v>
+        <v>-2</v>
       </c>
       <c r="AB90" s="0">
-        <v>-3.3396297267439761</v>
+        <v>-3.3396297267439756</v>
       </c>
       <c r="AC90" s="0">
-        <v>2.091234899476146</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -8197,22 +8284,22 @@
         <v>8.9000000000000004</v>
       </c>
       <c r="B91" s="0">
-        <v>2.6471871834195389</v>
+        <v>2.647187183419538</v>
       </c>
       <c r="C91" s="0">
-        <v>2.6471871839290473</v>
+        <v>2.6471871839290491</v>
       </c>
       <c r="D91" s="0">
         <v>2.6471871839822922</v>
       </c>
       <c r="E91" s="0">
-        <v>-2.5810299213069077</v>
+        <v>-2.617298063643684</v>
       </c>
       <c r="F91" s="0">
-        <v>-2.5810299213069077</v>
+        <v>-2.617298063643684</v>
       </c>
       <c r="G91" s="0">
-        <v>-3.0395308341200695</v>
+        <v>-3.0172704517238151</v>
       </c>
       <c r="H91" s="0">
         <v>0</v>
@@ -8224,40 +8311,40 @@
         <v>0</v>
       </c>
       <c r="K91" s="0">
-        <v>-0.24610518699714121</v>
+        <v>-0.24545632617517626</v>
       </c>
       <c r="L91" s="0">
-        <v>0.24610518699714121</v>
+        <v>0.24545632617517626</v>
       </c>
       <c r="M91" s="0">
         <v>-0</v>
       </c>
       <c r="N91" s="0">
-        <v>-5.0800970172093216e-09</v>
+        <v>-5.8427201463770332e-09</v>
       </c>
       <c r="O91" s="0">
-        <v>2.2163112178903683e-09</v>
+        <v>2.0585851810994141e-09</v>
       </c>
       <c r="P91" s="0">
-        <v>2.2163112178903683e-09</v>
+        <v>2.0585851810994141e-09</v>
       </c>
       <c r="Q91" s="0">
-        <v>16730895.802600449</v>
+        <v>16730895.80260032</v>
       </c>
       <c r="R91" s="0">
-        <v>16730895.856161656</v>
+        <v>16730895.856161823</v>
       </c>
       <c r="S91" s="0">
-        <v>16730895.861758934</v>
+        <v>16730895.861758942</v>
       </c>
       <c r="T91" s="0">
         <v>0</v>
       </c>
       <c r="U91" s="0">
-        <v>-9.0547727993356394e-08</v>
+        <v>-7.2088139363553997e-08</v>
       </c>
       <c r="V91" s="0">
-        <v>9.0547727993356394e-08</v>
+        <v>7.2088139363553997e-08</v>
       </c>
       <c r="W91" s="0">
         <v>0</v>
@@ -8269,16 +8356,16 @@
         <v>0</v>
       </c>
       <c r="Z91" s="0">
-        <v>2.6471871834195389</v>
+        <v>2.647187183419538</v>
       </c>
       <c r="AA91" s="0">
-        <v>-2.2461051869971414</v>
+        <v>-2.2454563261751761</v>
       </c>
       <c r="AB91" s="0">
-        <v>-3.2936880379418056</v>
+        <v>-3.2936880379418048</v>
       </c>
       <c r="AC91" s="0">
-        <v>2.2461051869971414</v>
+        <v>2.2454563261751761</v>
       </c>
     </row>
     <row r="92">
@@ -8289,19 +8376,19 @@
         <v>2.5503677268770737</v>
       </c>
       <c r="C92" s="0">
-        <v>2.5503677268822291</v>
+        <v>2.55036772688223</v>
       </c>
       <c r="D92" s="0">
         <v>2.5503677415636834</v>
       </c>
       <c r="E92" s="0">
-        <v>-2.4586971561804369</v>
+        <v>-2.4518120140254771</v>
       </c>
       <c r="F92" s="0">
-        <v>-2.6913106666482487</v>
+        <v>-2.7110766326382518</v>
       </c>
       <c r="G92" s="0">
-        <v>-3.1188149088226047</v>
+        <v>-3.0019578161369651</v>
       </c>
       <c r="H92" s="0">
         <v>0</v>
@@ -8322,19 +8409,19 @@
         <v>0</v>
       </c>
       <c r="N92" s="0">
-        <v>-1.9535452610255181e-07</v>
+        <v>-2.0399115079656728e-07</v>
       </c>
       <c r="O92" s="0">
-        <v>-4.5297969097826879e-08</v>
+        <v>-4.0007581438462872e-08</v>
       </c>
       <c r="P92" s="0">
-        <v>3.0869199875390836e-09</v>
+        <v>6.4327915831364436e-09</v>
       </c>
       <c r="Q92" s="0">
         <v>9105899.23849844</v>
       </c>
       <c r="R92" s="0">
-        <v>9105899.2387934122</v>
+        <v>9105899.2387934308</v>
       </c>
       <c r="S92" s="0">
         <v>9105900.0787789375</v>
@@ -8372,25 +8459,25 @@
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>9.0999999999999997</v>
+        <v>9.0999999999999996</v>
       </c>
       <c r="B93" s="0">
-        <v>1.9455516272617153</v>
+        <v>1.9455516272616304</v>
       </c>
       <c r="C93" s="0">
-        <v>1.9455534127978447</v>
+        <v>1.9455534127978424</v>
       </c>
       <c r="D93" s="0">
-        <v>1.9455534128708267</v>
+        <v>1.9455534128708272</v>
       </c>
       <c r="E93" s="0">
-        <v>-1.8779377534700177</v>
+        <v>-1.8809483247293137</v>
       </c>
       <c r="F93" s="0">
-        <v>-2.222261791617119</v>
+        <v>-2.2163196744224787</v>
       </c>
       <c r="G93" s="0">
-        <v>-2.5842162654814351</v>
+        <v>-2.5877181650857044</v>
       </c>
       <c r="H93" s="0">
         <v>-0</v>
@@ -8411,22 +8498,22 @@
         <v>-0</v>
       </c>
       <c r="N93" s="0">
-        <v>-203673.32027969623</v>
+        <v>-203673.32027969716</v>
       </c>
       <c r="O93" s="0">
-        <v>-203673.32018630017</v>
+        <v>-203673.32018629712</v>
       </c>
       <c r="P93" s="0">
-        <v>-203671.03521779849</v>
+        <v>-203671.03521769005</v>
       </c>
       <c r="Q93" s="0">
-        <v>-8.8779535477006087e-08</v>
+        <v>-8.6847445802602624e-08</v>
       </c>
       <c r="R93" s="0">
-        <v>8.6297282289037258e-07</v>
+        <v>8.95801297861823e-07</v>
       </c>
       <c r="S93" s="0">
-        <v>7.5088299714770926e-06</v>
+        <v>7.3681280680638548e-06</v>
       </c>
       <c r="T93" s="0">
         <v>0</v>
@@ -8447,13 +8534,13 @@
         <v>0</v>
       </c>
       <c r="Z93" s="0">
-        <v>1.9455516272617153</v>
+        <v>1.9455516272616304</v>
       </c>
       <c r="AA93" s="0">
         <v>-2.5</v>
       </c>
       <c r="AB93" s="0">
-        <v>-2.5920524817839818</v>
+        <v>-2.5920524817838975</v>
       </c>
       <c r="AC93" s="0">
         <v>2.5</v>
@@ -8473,13 +8560,13 @@
         <v>2.5697609729212672</v>
       </c>
       <c r="E94" s="0">
-        <v>-2.3634904383425046</v>
+        <v>-2.351616496989589</v>
       </c>
       <c r="F94" s="0">
-        <v>-2.5330205193374646</v>
+        <v>-2.4774175246303298</v>
       </c>
       <c r="G94" s="0">
-        <v>-3.1562793383528831</v>
+        <v>-2.9612786811956822</v>
       </c>
       <c r="H94" s="0">
         <v>-0</v>
@@ -8497,25 +8584,25 @@
         <v>0</v>
       </c>
       <c r="M94" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N94" s="0">
-        <v>-10285897.991213819</v>
+        <v>-10285897.991213834</v>
       </c>
       <c r="O94" s="0">
-        <v>-10285897.86581444</v>
+        <v>-10285897.865814429</v>
       </c>
       <c r="P94" s="0">
-        <v>-10285897.86342852</v>
+        <v>-10285897.863428524</v>
       </c>
       <c r="Q94" s="0">
-        <v>-3.5531952003117091e-07</v>
+        <v>-3.8284247606881204e-07</v>
       </c>
       <c r="R94" s="0">
-        <v>2.439462852990065e-09</v>
+        <v>-8.3062075826989038e-09</v>
       </c>
       <c r="S94" s="0">
-        <v>1.224653982795921e-07</v>
+        <v>1.7367616533901145e-07</v>
       </c>
       <c r="T94" s="0">
         <v>0</v>
@@ -8553,31 +8640,31 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B95" s="0">
-        <v>2.6704400272579973</v>
+        <v>2.6704400272579978</v>
       </c>
       <c r="C95" s="0">
-        <v>2.6704400377403035</v>
+        <v>2.6704400377403026</v>
       </c>
       <c r="D95" s="0">
-        <v>2.6704400377403035</v>
+        <v>2.6704400377403026</v>
       </c>
       <c r="E95" s="0">
-        <v>-2.4144819575713239</v>
+        <v>-2.3947248861837687</v>
       </c>
       <c r="F95" s="0">
-        <v>-2.4884282932094517</v>
+        <v>-2.4602382788638968</v>
       </c>
       <c r="G95" s="0">
-        <v>-2.9984428629961677</v>
+        <v>-2.8153762304100356</v>
       </c>
       <c r="H95" s="0">
         <v>-0</v>
       </c>
       <c r="I95" s="0">
-        <v>1.6946187640182842e-12</v>
+        <v>1.6944786729217149e-12</v>
       </c>
       <c r="J95" s="0">
-        <v>-1.6946187640182842e-12</v>
+        <v>-1.6944786729217149e-12</v>
       </c>
       <c r="K95" s="0">
         <v>-0</v>
@@ -8589,22 +8676,22 @@
         <v>0</v>
       </c>
       <c r="N95" s="0">
-        <v>6.5764408566486018e-09</v>
+        <v>2.077468694616719e-08</v>
       </c>
       <c r="O95" s="0">
-        <v>1.6206698656533474e-07</v>
+        <v>1.9347200616614389e-07</v>
       </c>
       <c r="P95" s="0">
-        <v>-2.5791453663285178e-07</v>
+        <v>-2.9200345002110366e-07</v>
       </c>
       <c r="Q95" s="0">
-        <v>-19362902.34268792</v>
+        <v>-19362902.342688009</v>
       </c>
       <c r="R95" s="0">
-        <v>-19362903.617972702</v>
+        <v>-19362903.61797262</v>
       </c>
       <c r="S95" s="0">
-        <v>-19362903.617972702</v>
+        <v>-19362903.61797262</v>
       </c>
       <c r="T95" s="0">
         <v>0</v>
@@ -8619,22 +8706,22 @@
         <v>0</v>
       </c>
       <c r="X95" s="0">
-        <v>-0.00020616852458015165</v>
+        <v>-0.000206151480997665</v>
       </c>
       <c r="Y95" s="0">
-        <v>0.00020616852458015165</v>
+        <v>0.000206151480997665</v>
       </c>
       <c r="Z95" s="0">
-        <v>2.6704400272579973</v>
+        <v>2.6704400272579978</v>
       </c>
       <c r="AA95" s="0">
-        <v>-3.0000000000016947</v>
+        <v>-3.0000000000016946</v>
       </c>
       <c r="AB95" s="0">
-        <v>-3.3169408817802641</v>
+        <v>-3.3169408817802646</v>
       </c>
       <c r="AC95" s="0">
-        <v>3.0000000000016947</v>
+        <v>3.0000000000016946</v>
       </c>
     </row>
     <row r="96">
@@ -8651,22 +8738,22 @@
         <v>2.7072081594808739</v>
       </c>
       <c r="E96" s="0">
-        <v>-2.2658048870144598</v>
+        <v>-2.2605647044006543</v>
       </c>
       <c r="F96" s="0">
-        <v>-2.6098896792674817</v>
+        <v>-2.586072337642475</v>
       </c>
       <c r="G96" s="0">
-        <v>-2.7311584203969139</v>
+        <v>-2.9230859267942915</v>
       </c>
       <c r="H96" s="0">
         <v>-0</v>
       </c>
       <c r="I96" s="0">
-        <v>2.6004779160719132e-12</v>
+        <v>2.6002683546036111e-12</v>
       </c>
       <c r="J96" s="0">
-        <v>-2.6004779160719132e-12</v>
+        <v>-2.6002683546036111e-12</v>
       </c>
       <c r="K96" s="0">
         <v>-0</v>
@@ -8678,22 +8765,22 @@
         <v>-0</v>
       </c>
       <c r="N96" s="0">
-        <v>-3.5265014376435176e-08</v>
+        <v>-1.0558965295419222e-08</v>
       </c>
       <c r="O96" s="0">
-        <v>7.5553827618202295e-08</v>
+        <v>8.7750198264475587e-08</v>
       </c>
       <c r="P96" s="0">
-        <v>-6.5641542735719563e-07</v>
+        <v>-6.7838766398463956e-07</v>
       </c>
       <c r="Q96" s="0">
-        <v>-24395042.263486989</v>
+        <v>-24395042.263487004</v>
       </c>
       <c r="R96" s="0">
-        <v>-24395043.420573324</v>
+        <v>-24395043.420573317</v>
       </c>
       <c r="S96" s="0">
-        <v>-24395043.420573324</v>
+        <v>-24395043.420573317</v>
       </c>
       <c r="T96" s="0">
         <v>0</v>
@@ -8708,22 +8795,22 @@
         <v>0</v>
       </c>
       <c r="X96" s="0">
-        <v>-0.00039859755810529298</v>
+        <v>-0.00039856543682134659</v>
       </c>
       <c r="Y96" s="0">
-        <v>0.00039859755810529298</v>
+        <v>0.00039856543682134659</v>
       </c>
       <c r="Z96" s="0">
         <v>2.7072081519319631</v>
       </c>
       <c r="AA96" s="0">
-        <v>-3.0000000000026006</v>
+        <v>-3.0000000000026001</v>
       </c>
       <c r="AB96" s="0">
         <v>-3.3537090064542299</v>
       </c>
       <c r="AC96" s="0">
-        <v>3.0000000000026006</v>
+        <v>3.0000000000026001</v>
       </c>
     </row>
     <row r="97">
@@ -8731,7 +8818,7 @@
         <v>9.5</v>
       </c>
       <c r="B97" s="0">
-        <v>2.6800054641217566</v>
+        <v>2.6800054641217574</v>
       </c>
       <c r="C97" s="0">
         <v>2.6800055029813241</v>
@@ -8740,22 +8827,22 @@
         <v>2.6800055029813241</v>
       </c>
       <c r="E97" s="0">
-        <v>-2.0334187113390803</v>
+        <v>-2.0340710192077842</v>
       </c>
       <c r="F97" s="0">
-        <v>-2.7071186875416586</v>
+        <v>-2.6063527263585402</v>
       </c>
       <c r="G97" s="0">
-        <v>-2.7319316653316768</v>
+        <v>-2.8058884659276564</v>
       </c>
       <c r="H97" s="0">
         <v>-0</v>
       </c>
       <c r="I97" s="0">
-        <v>2.819023943480896e-12</v>
+        <v>2.8185706564452445e-12</v>
       </c>
       <c r="J97" s="0">
-        <v>-2.819023943480896e-12</v>
+        <v>-2.8185706564452445e-12</v>
       </c>
       <c r="K97" s="0">
         <v>0</v>
@@ -8767,22 +8854,22 @@
         <v>-0</v>
       </c>
       <c r="N97" s="0">
-        <v>-3.509409690964655e-08</v>
+        <v>-2.2050794968697012e-08</v>
       </c>
       <c r="O97" s="0">
-        <v>4.1014984461005154e-08</v>
+        <v>7.7251681409748843e-08</v>
       </c>
       <c r="P97" s="0">
-        <v>2.8268527420782518e-06</v>
+        <v>2.8152903955325804e-06</v>
       </c>
       <c r="Q97" s="0">
-        <v>-20562322.522558276</v>
+        <v>-20562322.522558302</v>
       </c>
       <c r="R97" s="0">
-        <v>-20562327.543093883</v>
+        <v>-20562327.543093871</v>
       </c>
       <c r="S97" s="0">
-        <v>-20562327.543093883</v>
+        <v>-20562327.543093871</v>
       </c>
       <c r="T97" s="0">
         <v>0</v>
@@ -8797,45 +8884,45 @@
         <v>0</v>
       </c>
       <c r="X97" s="0">
-        <v>-0.00036420919483606129</v>
+        <v>-0.00036415063154976262</v>
       </c>
       <c r="Y97" s="0">
-        <v>0.00036420919483606129</v>
+        <v>0.00036415063154976262</v>
       </c>
       <c r="Z97" s="0">
-        <v>2.6800054641217566</v>
+        <v>2.6800054641217574</v>
       </c>
       <c r="AA97" s="0">
-        <v>-3.0000000000028191</v>
+        <v>-3.0000000000028186</v>
       </c>
       <c r="AB97" s="0">
-        <v>-3.3265063186440234</v>
+        <v>-3.3265063186440242</v>
       </c>
       <c r="AC97" s="0">
-        <v>3.0000000000028191</v>
+        <v>3.0000000000028186</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>9.5999999999999997</v>
+        <v>9.5999999999999996</v>
       </c>
       <c r="B98" s="0">
-        <v>2.117172568555814</v>
+        <v>2.1171725685721601</v>
       </c>
       <c r="C98" s="0">
-        <v>2.1171725701055504</v>
+        <v>2.1171725700884991</v>
       </c>
       <c r="D98" s="0">
-        <v>2.1171725715062553</v>
+        <v>2.1171725715070551</v>
       </c>
       <c r="E98" s="0">
-        <v>-1.5339004874269206</v>
+        <v>-1.5329853865653418</v>
       </c>
       <c r="F98" s="0">
-        <v>-2.8359370075907471</v>
+        <v>-2.7302458300995416</v>
       </c>
       <c r="G98" s="0">
-        <v>-2.8359370075907471</v>
+        <v>-2.8187137493238521</v>
       </c>
       <c r="H98" s="0">
         <v>-0</v>
@@ -8850,34 +8937,34 @@
         <v>0</v>
       </c>
       <c r="L98" s="0">
-        <v>0.095766973526293445</v>
+        <v>-0</v>
       </c>
       <c r="M98" s="0">
-        <v>-0.095766973526293445</v>
+        <v>-0</v>
       </c>
       <c r="N98" s="0">
-        <v>-1.5050375092880904e-08</v>
+        <v>-598742.91464368009</v>
       </c>
       <c r="O98" s="0">
-        <v>-1.5050375092880904e-08</v>
+        <v>-598742.90930705296</v>
       </c>
       <c r="P98" s="0">
-        <v>6.5217611839069923e-05</v>
+        <v>-598742.9036025668</v>
       </c>
       <c r="Q98" s="0">
-        <v>-598742.90354107227</v>
+        <v>-3.5467803889418016e-08</v>
       </c>
       <c r="R98" s="0">
-        <v>-598742.90937119967</v>
+        <v>-2.0343572656997945e-08</v>
       </c>
       <c r="S98" s="0">
-        <v>-598742.91464066925</v>
+        <v>6.5593676794463741e-05</v>
       </c>
       <c r="T98" s="0">
-        <v>-1.0334599443975907e-08</v>
+        <v>0</v>
       </c>
       <c r="U98" s="0">
-        <v>1.0334599443975907e-08</v>
+        <v>0</v>
       </c>
       <c r="V98" s="0">
         <v>0</v>
@@ -8892,16 +8979,16 @@
         <v>0</v>
       </c>
       <c r="Z98" s="0">
-        <v>2.117172568555814</v>
+        <v>2.1171725685721601</v>
       </c>
       <c r="AA98" s="0">
-        <v>-3.0957669735262936</v>
+        <v>-3.5</v>
       </c>
       <c r="AB98" s="0">
-        <v>-2.7636734230780808</v>
+        <v>-2.7636734230944269</v>
       </c>
       <c r="AC98" s="0">
-        <v>3.0957669735262936</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="99">
@@ -8909,7 +8996,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B99" s="0">
-        <v>2.8083117050310236</v>
+        <v>2.8083117050310231</v>
       </c>
       <c r="C99" s="0">
         <v>2.8083117050509476</v>
@@ -8918,13 +9005,13 @@
         <v>2.8083117128567978</v>
       </c>
       <c r="E99" s="0">
-        <v>-1.9356535038540794</v>
+        <v>-1.9360737608082321</v>
       </c>
       <c r="F99" s="0">
-        <v>-2.6667942853681224</v>
+        <v>-2.4940237924556876</v>
       </c>
       <c r="G99" s="0">
-        <v>-2.6667942853681224</v>
+        <v>-2.9640158658279638</v>
       </c>
       <c r="H99" s="0">
         <v>0</v>
@@ -8939,34 +9026,34 @@
         <v>0</v>
       </c>
       <c r="L99" s="0">
-        <v>-0.071127976825245604</v>
+        <v>0</v>
       </c>
       <c r="M99" s="0">
-        <v>0.071127976825245604</v>
+        <v>-0</v>
       </c>
       <c r="N99" s="0">
-        <v>4.765206381396703e-08</v>
+        <v>-8.164576836215848e-09</v>
       </c>
       <c r="O99" s="0">
-        <v>4.765206381396703e-08</v>
+        <v>1.5646810517832403e-07</v>
       </c>
       <c r="P99" s="0">
-        <v>5.2249273986422435e-06</v>
+        <v>5.2111489039041738e-06</v>
       </c>
       <c r="Q99" s="0">
-        <v>46045603.464833297</v>
+        <v>46045603.464833222</v>
       </c>
       <c r="R99" s="0">
-        <v>46045603.470597595</v>
+        <v>46045603.470597714</v>
       </c>
       <c r="S99" s="0">
-        <v>46045605.728932142</v>
+        <v>46045605.728932053</v>
       </c>
       <c r="T99" s="0">
-        <v>-2.283725275207289e-08</v>
+        <v>0</v>
       </c>
       <c r="U99" s="0">
-        <v>2.283725275207289e-08</v>
+        <v>0</v>
       </c>
       <c r="V99" s="0">
         <v>0</v>
@@ -8981,16 +9068,16 @@
         <v>0</v>
       </c>
       <c r="Z99" s="0">
-        <v>2.8083117050310236</v>
+        <v>2.8083117050310231</v>
       </c>
       <c r="AA99" s="0">
-        <v>-3.0711279768252457</v>
+        <v>-4</v>
       </c>
       <c r="AB99" s="0">
-        <v>-3.4548125595532904</v>
+        <v>-3.4548125595532899</v>
       </c>
       <c r="AC99" s="0">
-        <v>3.0711279768252457</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -9001,19 +9088,19 @@
         <v>2.978605127798041</v>
       </c>
       <c r="C100" s="0">
-        <v>2.9786051725513762</v>
+        <v>2.9786051725513771</v>
       </c>
       <c r="D100" s="0">
-        <v>2.9786051725555729</v>
+        <v>2.9786051725555724</v>
       </c>
       <c r="E100" s="0">
-        <v>-2.0266552028814417</v>
+        <v>-2.0285791743376378</v>
       </c>
       <c r="F100" s="0">
-        <v>-2.5803251455234992</v>
+        <v>-2.5828509790706451</v>
       </c>
       <c r="G100" s="0">
-        <v>-2.5803251455234992</v>
+        <v>-2.5828509790706451</v>
       </c>
       <c r="H100" s="0">
         <v>0</v>
@@ -9028,34 +9115,34 @@
         <v>-0</v>
       </c>
       <c r="L100" s="0">
-        <v>0.12509226189811679</v>
+        <v>0.19933838837304968</v>
       </c>
       <c r="M100" s="0">
-        <v>-0.12509226189811679</v>
+        <v>-0.19933838837304968</v>
       </c>
       <c r="N100" s="0">
-        <v>-6.4293026306350026e-08</v>
+        <v>-2.8024519049263112e-08</v>
       </c>
       <c r="O100" s="0">
-        <v>-6.4293026306350026e-08</v>
+        <v>-2.8024519049263112e-08</v>
       </c>
       <c r="P100" s="0">
-        <v>-2.949572853666375e-06</v>
+        <v>-2.9141310966477421e-06</v>
       </c>
       <c r="Q100" s="0">
-        <v>134238412.51228371</v>
+        <v>134238412.51228359</v>
       </c>
       <c r="R100" s="0">
-        <v>134238450.25925815</v>
+        <v>134238450.25925827</v>
       </c>
       <c r="S100" s="0">
-        <v>134238450.26279742</v>
+        <v>134238450.26279727</v>
       </c>
       <c r="T100" s="0">
-        <v>-6.4367610706198234e-08</v>
+        <v>-8.5046015003553244e-08</v>
       </c>
       <c r="U100" s="0">
-        <v>6.4367610706198234e-08</v>
+        <v>8.5046015003553244e-08</v>
       </c>
       <c r="V100" s="0">
         <v>0</v>
@@ -9073,13 +9160,13 @@
         <v>2.978605127798041</v>
       </c>
       <c r="AA100" s="0">
-        <v>-3.125092261898117</v>
+        <v>-4.1993383883730493</v>
       </c>
       <c r="AB100" s="0">
         <v>-3.6251059823203078</v>
       </c>
       <c r="AC100" s="0">
-        <v>3.125092261898117</v>
+        <v>4.1993383883730493</v>
       </c>
     </row>
     <row r="101">
@@ -9087,22 +9174,22 @@
         <v>9.9000000000000004</v>
       </c>
       <c r="B101" s="0">
-        <v>3.0981016943650168</v>
+        <v>3.0981016943650173</v>
       </c>
       <c r="C101" s="0">
-        <v>3.0981016943899835</v>
+        <v>3.0981016943899822</v>
       </c>
       <c r="D101" s="0">
         <v>3.0981017001080833</v>
       </c>
       <c r="E101" s="0">
-        <v>-1.9016465045452418</v>
+        <v>-1.8985156282608995</v>
       </c>
       <c r="F101" s="0">
-        <v>-2.5050630486343639</v>
+        <v>-2.4977595896574889</v>
       </c>
       <c r="G101" s="0">
-        <v>-2.5050630486343639</v>
+        <v>-2.4977595896574889</v>
       </c>
       <c r="H101" s="0">
         <v>0</v>
@@ -9117,34 +9204,34 @@
         <v>0</v>
       </c>
       <c r="L101" s="0">
-        <v>-0.05929973554166381</v>
+        <v>-0.14622381344119753</v>
       </c>
       <c r="M101" s="0">
-        <v>0.05929973554166381</v>
+        <v>0.14622381344119753</v>
       </c>
       <c r="N101" s="0">
-        <v>1.35966739460235e-07</v>
+        <v>9.274419421545841e-08</v>
       </c>
       <c r="O101" s="0">
-        <v>1.35966739460235e-07</v>
+        <v>9.274419421545841e-08</v>
       </c>
       <c r="P101" s="0">
-        <v>6.4695928728125454e-06</v>
+        <v>6.5981219599987206e-06</v>
       </c>
       <c r="Q101" s="0">
-        <v>284415582.78510654</v>
+        <v>284415582.78510767</v>
       </c>
       <c r="R101" s="0">
-        <v>284415582.82972276</v>
+        <v>284415582.82972109</v>
       </c>
       <c r="S101" s="0">
-        <v>284415593.04817361</v>
+        <v>284415593.04817343</v>
       </c>
       <c r="T101" s="0">
-        <v>-5.3142221190839482e-08</v>
+        <v>-1.2148256192899794e-07</v>
       </c>
       <c r="U101" s="0">
-        <v>5.3142221190839482e-08</v>
+        <v>1.2148256192899794e-07</v>
       </c>
       <c r="V101" s="0">
         <v>0</v>
@@ -9159,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="Z101" s="0">
-        <v>3.0981016943650168</v>
+        <v>3.0981016943650173</v>
       </c>
       <c r="AA101" s="0">
-        <v>-3.0592997355416638</v>
+        <v>-4.1462238134411979</v>
       </c>
       <c r="AB101" s="0">
-        <v>-3.7446025488872836</v>
+        <v>-3.7446025488872841</v>
       </c>
       <c r="AC101" s="0">
-        <v>3.0592997355416638</v>
+        <v>4.1462238134411979</v>
       </c>
     </row>
     <row r="102">
@@ -9179,85 +9266,85 @@
         <v>3.1953722743596686</v>
       </c>
       <c r="C102" s="0">
-        <v>3.1953723183020268</v>
+        <v>3.1953723183020277</v>
       </c>
       <c r="D102" s="0">
-        <v>3.1953723183020268</v>
+        <v>3.1953723183020277</v>
       </c>
       <c r="E102" s="0">
-        <v>-2.2482545982149857</v>
+        <v>-2.1583803905607009</v>
       </c>
       <c r="F102" s="0">
-        <v>-2.2482545982149857</v>
+        <v>-2.4842419362654566</v>
       </c>
       <c r="G102" s="0">
-        <v>-2.4898679882523882</v>
+        <v>-2.5430775399325212</v>
       </c>
       <c r="H102" s="0">
         <v>0</v>
       </c>
       <c r="I102" s="0">
-        <v>-5.7204081601984386e-13</v>
+        <v>-5.7243213961150426e-13</v>
       </c>
       <c r="J102" s="0">
-        <v>5.7204081601984386e-13</v>
+        <v>5.7243213961150426e-13</v>
       </c>
       <c r="K102" s="0">
-        <v>-0.038349629560983714</v>
+        <v>0</v>
       </c>
       <c r="L102" s="0">
-        <v>0.038349629560983714</v>
+        <v>-0</v>
       </c>
       <c r="M102" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N102" s="0">
-        <v>-1.606075603955764e-07</v>
+        <v>1.1496622654628739e-07</v>
       </c>
       <c r="O102" s="0">
-        <v>7.1176648934784763e-07</v>
+        <v>-1.6638650137031141e-07</v>
       </c>
       <c r="P102" s="0">
-        <v>7.1176648934784763e-07</v>
+        <v>1.2891803137177045e-06</v>
       </c>
       <c r="Q102" s="0">
-        <v>524059678.05884629</v>
+        <v>524059678.05884498</v>
       </c>
       <c r="R102" s="0">
-        <v>524059822.75068557</v>
+        <v>524059822.75068629</v>
       </c>
       <c r="S102" s="0">
-        <v>524059822.75068557</v>
+        <v>524059822.75068629</v>
       </c>
       <c r="T102" s="0">
         <v>0</v>
       </c>
       <c r="U102" s="0">
-        <v>-1.7490389608220675e-07</v>
+        <v>0</v>
       </c>
       <c r="V102" s="0">
-        <v>1.7490389608220675e-07</v>
+        <v>0</v>
       </c>
       <c r="W102" s="0">
         <v>0</v>
       </c>
       <c r="X102" s="0">
-        <v>-0.0018835959651999196</v>
+        <v>-0.0018848845018177595</v>
       </c>
       <c r="Y102" s="0">
-        <v>0.0018835959651999196</v>
+        <v>0.0018848845018177595</v>
       </c>
       <c r="Z102" s="0">
         <v>3.1953722743596686</v>
       </c>
       <c r="AA102" s="0">
-        <v>-3.0383496295609835</v>
+        <v>-4.0000000000005729</v>
       </c>
       <c r="AB102" s="0">
         <v>-3.8418731288819354</v>
       </c>
       <c r="AC102" s="0">
-        <v>3.0383496295609835</v>
+        <v>4.0000000000005729</v>
       </c>
     </row>
   </sheetData>
